--- a/text_chunks.xlsx
+++ b/text_chunks.xlsx
@@ -1,54 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viditkatlana/work/bits_app/Semester_2/Artifitial_Inteligence/assigment/pdf_chatbot copy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7816576A-C2D3-B44A-8ED2-2DF388D30B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{F810CBC2-39FE-4142-9BD6-F5119414EBAF}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TextChunks" sheetId="1" r:id="rId1"/>
+    <sheet name="TextChunks" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -96,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -160,32 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -212,24 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,153 +244,304 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C06D18-A271-9642-9706-C872F61DF5E9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Birla Institute of Technology and Science Pilani IS/SE/SS ZC444: Artificial Intelligence Assignment-01: Custom AI Chatbot Using LLM 10% weightage, Deadline 27 Nov 2023 1 Introduction In this assignment we will develop a custom conversational AI agent (Chatbot) using openAI APIs. You know such systems can provide replies to user’s queri</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>-0.0060679344,-0.0157856,0.0027338478,0.014026278,0.007872102,0.01824175,-0.027279833,0.01795198,-0.019166255,-0.020587511,0.0077962093,0.021760393,0.0069648437,0.010590426,0.0033944556,0.016723905,0.011784005,-0.009479638,0.015054273,-0.006871703,-0.012529129,-0.009686617,0.019952776,-0.009893596,-0.008341254,-0.019676805,0.014350545,-0.033337418,0.005778164,0.008016987,-0.0019456027,-0.0029304777,-0.03242671,-0.010825003,-0.016047772,-0.008361952,-0.009514135,0.0032978656,0.03115724,-0.00033849693,0.029115047,0.026852077,0.011666717,-0.019221451,-0.03165399,0.030936463,-0.018586716,-0.008603428,-0.015344044,0.009113976,-0.005001993,0.020173553,0.005598782,0.008789709,-0.00086844945,-0.011080276,0.011100974,0.025499813,0.0009383048,0.006219719,-0.0047018733,-0.021180851,-0.021042867,0.017979577,0.001854187,0.0052883136,-0.01606157,0.0107629085,0.031626392,-0.0266175,0.024009565,0.0068027102,-0.0037118236,-0.0029201289,0.035186432,0.013964184,-0.013067274,-0.0075202375,-0.010976787,-0.0027459215,0.017745001,0.009093278,-0.0147921,0.008686219,0.020559914,-0.0133984415,0.014598919,0.017993376,-0.009300257,-0.017772598,0.006005841,-0.0011918541,0.021125657,0.03394456,-0.029666992,0.0157718,-0.016682507,0.0054573463,0.02189838,-0.05254507,0.014543725,-0.014709308,-0.017469028,-0.011915091,-0.005243468,0.011970286,-0.003677327,0.005829909,0.010721513,0.016337544,-0.0050537377,0.039022442,0.0011168242,-0.03104685,-0.0089276945,-0.026948666,0.0059195994,-0.004801913,-0.022160552,-0.017482826,0.01923525,0.004995093,-0.0045190416,-0.0022715947,0.027914569,0.004622531,-0.024285536,-0.012901692,0.0030943363,-0.001346226,-0.0065784827,0.0111492695,-0.0093416525,0.014654114,-0.021443026,-0.0051296297,-0.01755182,-0.0047363695,-0.043217216,0.0006739754,-0.007237366,0.029363422,-0.021760393,-0.0023423124,-0.0117702065,0.031598795,0.0073132585,0.0015549298,-0.0041085333,0.01626855,-0.01617196,-0.02801116,-0.00424307,0.012115171,0.002237098,0.0035738375,0.002121535,0.01716546,-0.0075202375,-0.023347232,-0.010300655,0.022229545,-0.0039015543,0.011873696,0.027693791,0.014543725,0.032399114,-0.018586716,-6.4209307e-06,0.0045224912,0.0104386415,0.026410522,-0.03728382,-0.0017231002,0.010486936,0.016875688,0.019400833,-0.018476326,-0.0047156718,-0.009997086,-0.0033858316,0.0131914625,0.018214153,0.027059056,-0.015219856,-0.008506837,-0.00069122366,-0.018600514,0.012191064,-0.030826073,0.045535382,0.019773394,-0.0021974272,-0.021953573,-0.64246285,-0.044486687,0.010542131,-0.0024958218,-0.0016998152,0.008341254,0.0041257814,-0.020573713,0.0032098994,0.03096406,-0.0012453237,0.009769409,-0.017193057,-0.02002177,0.003936051,-0.0048743556,0.016558321,-0.025251439,0.007968692,-0.007747914,-0.028314728,0.0053228103,-0.013025879,-0.0017662209,-0.014598919,-0.017524222,0.025417022,0.012377345,-0.010962988,-0.016999876,-0.00423962,0.01795198,-0.011908192,-0.012080675,0.049067825,0.010811203,-0.02031154,0.026286334,0.028535506,0.010590426,-0.027335027,-0.025003064,-0.010397245,0.0020577163,0.0048433086,0.011956488,0.015758002,0.00936235,-0.010376547,-0.008306758,0.0012987932,-0.007872102,-0.013688211,-0.009990186,0.016116766,0.002654506,0.047080826,0.005302112,0.014943885,-0.016337544,0.009686617,-0.012142768,-0.024713293,-0.031267628,-0.0052779648,0.010624923,0.0030287928,0.020242548,0.00046613396,-0.02425794,0.017400036,0.027335027,-0.006664724,-0.019814791,-0.00023134216,-0.0013453636,0.0076858206,-0.012073776,-0.025913771,0.015799398,0.009279558,-0.021167053,0.004870906,-0.014322948,0.0039567486,-0.009203667,0.012860295,-0.00965902,-0.0061748736,0.017772598,0.022505518,0.019952776,-0.014267753,-0.026451917,-0.0092519615,0.0049640466,-0.009072579,-0.020035569,0.019787192,-0.03609714,-0.0022422725,-0.012004782,0.021401629,0.019607812,0.035434805,0.008010088,-0.015123266,0.004387955,0.02178799,-0.034220528,0.007368453,0.0018955828,-0.00502959,0.015592419,-0.009707316,-0.028066354,-0.0023785338,0.008527535,0.038222123,0.0011107874,0.0011228612,-0.005878204,0.029446214,-0.00221985,0.0051744753,0.013136268,-0.019138658,-0.009327854,-0.018545318,-0.0010806029,0.007630626,-0.016613515,0.00051787874,-0.0031943761,0.028287131,-0.0048743556,0.012370446,-0.0077548134,0.011908192,-0.0041292314,-0.028066354,0.005740218,0.025858577,-0.0113562485,-0.0483227,-0.032702684,-0.011390745,0.012398043,-0.0015394064,-0.003530717,-0.003430677,-0.0039084535,-0.0005717795,0.011335551,0.014033177,-0.02405096,-0.017800195,-0.019538818,0.011107873,-0.029804977,0.008637924,0.018145159,-0.0035669382,-0.0041568284,0.023209246,-0.003708374,0.007996289,0.032454308,-0.03394456,-0.035931557,0.021070464,0.0022353732,-0.009293358,0.02623114,-0.0016437583,0.001538544,-0.019207653,-0.015951183,-0.014585121,-0.020766893,-0.01904207,0.038829263,0.0013677863,-0.012653316,0.008810407,0.0031512554,0.01745523,0.019014472,-0.011549429,0.018007174,-0.0032771677,0.04031951,-0.012246258,0.019166255,-0.017427633,0.02810775,-0.016406536,-0.019690603,0.0063749533,0.0095486315,0.036814667,0.026603702,0.02908745,-0.0025389425,-0.019193854,-0.032205936,0.0035358914,-0.017662209,0.048653867,0.008858701,0.003825662,0.006061035,-0.010383447,-0.014681711,0.011970286,0.01832454,0.0031564299,0.006654375,-0.023512816,0.0067302673,-9.745262e-05,0.012280755,0.027128048,-0.010618024,-0.015095669,0.006833757,0.0014393665,0.040071137,0.015344044,-0.012046178,0.0090449825,0.0068786023,0.015564822,0.0078928,0.030688088,0.008458542,0.021622406,-0.014309149,0.04920581,-0.0021732796,0.001686879,0.021815587,0.012149667,-0.026934868,0.019469826,-0.0045673368,0.0404299,0.018614313,-0.007741015,0.017193057,-0.043051634,-0.0061403774,-0.031488407,-0.008741413,0.02286428,-0.004450049,-0.0017558719,0.023236843,0.00014768814,0.015109467,-0.00798939,0.01931804,0.002571714,-0.008368852,0.014157364,-0.014667912,0.00057393557,0.0070062396,0.0035238175,-0.016544523,-0.022105359,-0.016668709,0.0016963654,-0.016033974,0.047577575,0.011804703,-0.0018231401,0.018890284,0.016296146,0.020918678,-0.0039601983,-0.037394207,0.012149667,0.013860694,-0.00036760335,-0.007913497,-0.01065252,0.022160552,-0.025210043,0.019000674,0.0002828713,0.014571322,0.00828606,0.005184824,-0.013833097,0.006588832,0.00838265,-0.01498528,-0.00014305268,-0.034744877,0.023788787,0.003815313,-0.017482826,-0.031295225,0.019607812,-0.0014333297,-0.036041945,-0.001114237,-0.019897582,-0.01390899,-0.009907396,0.0043707066,0.0059920424,0.007782411,0.021332636,0.012908591,0.0013410515,-0.01361232,0.02257451,-0.0061748736,0.0075271367,-0.019290444,-0.024313135,0.018545318,0.08174291,0.020960074,-0.017124062,0.009741812,-0.008672421,0.011556328,-0.03460689,-0.011204463,0.02031154,-0.005805761,-0.024368329,-0.005657426,0.018821292,0.007126977,0.010776707,0.0062473165,0.020408131,-0.025306633,0.033778973,0.0019404282,0.022132955,-0.0036704277,-0.014971482,-0.00097107654,0.013177664,-0.014516128,0.031184837,0.03322703,-0.010383447,-0.044873048,0.012177265,0.023995766,-0.015302648,0.007258064,-0.0139020905,0.054559667,0.0014867992,0.02119465,0.007423647,0.0075202375,0.011307953,0.023499018,-0.0101419715,-0.0129844835,0.011935789,-0.025817182,0.01448853,0.0127775045,-0.0078031085,-0.02021495,0.0054952926,0.005498742,-0.028149145,-0.014267753,0.0017394861,0.023912976,0.0018904082,-0.011687415,0.004487995,-0.0473292,-0.0344965,-0.016668709,0.014902488,0.0042361706,-0.01686189,-0.02061511,-0.013426038,-0.0071338764,-0.0012901692,0.023499018,0.0055677355,-0.0062852628,-0.043327607,0.0038222123,0.017786397,-0.01665491,0.019083465,-0.013239757,-0.00847924,0.017703604,-0.0032771677,-0.028618298,-0.003597985,-0.022450322,0.0013884841,0.0072718626,-0.0044017537,-0.013743406,-0.012177265,-0.0013177664,-0.010003986,-0.004853658,0.028162943,-0.015606217,0.00867932,0.012956886,0.021677602,0.0030236184,0.006368054,-0.011984085,-0.0074305465,-0.026658896,-0.0020818638,-0.018959276,0.007699619,0.007623727,0.011818501,0.029694589,-0.008430945,0.003196101,0.032371517,-0.005905801,0.028866673,0.0019663007,0.018890284,0.032895863,-0.0007628039,0.0036462802,0.031184837,-0.009886697,0.017662209,-0.04514902,0.021994969,0.007954894,-0.0075133382,-0.0100522805,0.0022026016,-0.004415552,-0.009693517,-0.010114375,0.014460933,-0.0022819436,0.007078682,-0.031598795,-0.0063853026,-0.009790107,-0.023112657,0.008072182,0.00394295,-0.022243343,-0.0051641264,0.017786397,-0.0021801789,-0.016792897,0.00041115517,-0.034882862,0.008279161,0.010376547,0.017041272,0.021415427,-0.0116529185,0.02810775,-0.010576627,-0.012473935,0.0034462004,-0.03720103,-0.021332636,-0.0037842663,0.039712373,0.019994171,0.02692107,-0.0020749646,0.01143904,-0.0068475557,0.0016015001,-0.0045535383,0.019842388,-0.0023147152,-0.01665491,-0.0029718736,0.024313135,0.003963648,0.040816262,-0.021539615,-0.0038912054,0.025072057,-0.024575308,-0.0103489505,-0.024768488,-0.008769011,-0.025624001,0.025486015,0.0049916436,0.0009797006,-0.0571814,0.0012004783,0.016199557,0.013681312,0.01015577,-0.0035876362,0.011466637,-0.022063963,0.02039433,0.026962465,0.008389549,-0.016710104,0.013784802,-0.02988777,0.030301727,0.01626855,0.017965779,0.007327057,0.01409527,-0.0138055,0.000289555,-0.0057747145,-0.017482826,0.0037980648,0.004291365,-0.009438243,-0.0051537775,-0.0037980648,-4.050644e-05,-0.03027413,-0.0038291116,-0.013246656,0.0017869187,0.028480312,-0.0099349925,-0.012832698,0.031019254,-0.011659818,0.03394456,0.030356921,0.036290318,0.040153928,0.0021077362,0.0024820233,0.007865203,-0.011508033,5.7619938e-05,0.016903285,0.041561384,-0.021870783,-0.020490922,0.0042465194,0.018172758,-0.036428306,-0.029170241,-0.0026079356,0.020918678,0.007747914,-0.014640315,-0.014081472,-0.02149822,0.011418342,-0.0062266183,0.0044224514,0.0029632496,-0.014778301,0.018683305,-0.030826073,0.01242564,0.007961793,0.025499813,0.038691275,0.020532317,0.010825003,0.0017368989,0.018172758,-0.011570127,0.005315911,-0.01104578,0.007879001,-0.0010435191,-0.010756009,0.0019214551,-0.012101373,0.019097263,0.03275788,-0.010976787,-0.016503125,0.0072028693,0.0012953436,0.0120944735,-0.012625719,-5.6090503e-06,0.01832454,-0.020435728,-0.013122469,0.013950385,0.020339137,-0.0025527412,-0.010493835,-0.014502329,-0.00828606,0.0027735187,0.011135471,-0.015716607,-0.019483624,0.0028080153,-0.0033478856,-0.02090488,0.005557386,0.0025303185,0.016475528,0.00611278,0.019897582,-0.027652396,0.007927296,0.017386237,0.017579418,-0.0059127,0.0124808345,-0.010148871,-0.020297742,0.012749907,-0.014267753,-0.015495828,-0.0031978257,0.0133984415,0.009803906,-0.0076168277,0.0019438779,0.018862687,0.0019387034,0.013405341,0.00020536198,-0.001981824,0.005333159,0.0066198786,0.006474993,0.03077088,-0.024064759,0.030329324,-0.014433336,0.024037162,0.004132681,-0.02376119,-0.015247454,0.0010392071,0.010956089,-0.00976251,-0.01074911,-0.016848091,0.009120875,-0.019925179,-0.008989789,-0.0074098487,-0.019552616,-0.0066405768,0.009527934,0.034275725,0.010459339,-0.031433214,0.00022552088,-0.027404021,-0.02031154,-0.03717343,-0.0027390223,-0.01586839,0.03372378,0.0033841068,-0.014571322,-0.014626517,-0.048543476,-0.04445909,0.0020525418,0.009721114,-0.002861485,0.0021456825,0.029639395,0.02820434,0.013246656,-0.0051917234,0.00552289,-0.024961669,-0.0059023513,0.008099779,-0.013060375,0.0071062795,0.011004384,-0.01962161,-0.0059747943,0.036814667,-0.010114375,-0.009093278,0.037642583,-0.008113577,-0.010921593,0.021663804,0.006526738,0.0005743668,0.0064818924,0.019745797,-0.033282224,-0.017262049,-0.010790505,-0.008313657,0.004450049,-0.0097556105,0.0006450846,0.006133478,-0.009810805,-0.015233655,-0.015592419,0.0110595785,-0.0077065183,0.040347107,-0.012749907,0.0041223317,0.012812001,-0.010017784,-0.00463288,-0.016792897,0.009921194,-0.022836683,-0.025610203,0.022615906,-0.030384518,0.015012877,-0.006854455,0.0058264593,-0.032564696,-0.0122738555,-0.019414632,0.010921593,-0.04249969,0.020877283,0.008575831,-0.013750305,-0.01864191,-0.01174261,-0.013267354,-0.02130504,-0.022215746,0.006982092,-0.013391542,-0.022905678,0.010956089,-0.037946153,-0.0034496502,0.015040475,0.01548203,-0.0128947925,0.007603029,0.1952778,-0.02416135,-0.003580737,0.020891082,-0.02908745,0.0116805155,0.032454308,0.001680842,0.0061300285,0.0088656,-0.015758002,-0.0021905277,-0.022629704,-0.010424843,0.007934195,-0.0063439067,-0.043465592,-0.046804853,-0.0030822624,-0.0005648802,-0.0051227305,0.0026251837,-0.0058816536,-0.017413834,0.019607812,0.0029649744,0.010286856,-0.0058230096,0.033889364,0.0056608757,-0.019290444,0.0009943617,-0.008810407,-0.009603826,-0.0024958218,-0.020891082,0.025458418,-0.017786397,0.009389948,-0.0106732175,-0.0048467587,0.009031184,0.027542006,-0.03165399,-0.01931804,0.011852998,-0.00025592092,-0.02326444,-0.0030149943,0.0197182,-0.013791701,-0.019663006,0.027252236,0.017579418,0.019400833,0.002435453,0.0042637675,-0.0036531794,0.004801913,-0.0033082145,-0.015164662,-0.0072028693,0.007444345,0.0047087725,0.018862687,-0.008686219,-0.00808598,0.016406536,0.0022043264,0.0019214551,0.0125705255,-0.045535382,0.0023906075,0.00907948,-0.041671775,-0.042554885,0.03077088,0.023430023,0.011169967,0.0246443,-0.015068072,-0.0047018733,-0.010231663,0.0018559118,-0.015123266,-0.031267628,0.026562307,-0.004022292,-0.0177588,-0.004722571,-0.0054711453,-0.003804964,-0.0022250244,-0.0069924407,0.004870906,0.0038567088,0.014543725,0.017275847,-0.021994969,0.00581611,-0.021718998,0.0433828,0.030632893,-0.0070545347,-0.016696306,-0.0070924805,-0.005947197,0.00079859403,0.014971482,-0.0051641264,-0.022822885,-0.021884581,0.030439712,0.004563887,0.010328253,-0.010859499,-0.0114735365,-0.00896909,0.028535506,-0.01912486,-0.005295213,-0.02021495,-0.0023871579,0.008844903,-0.024009565,-0.01094919,-0.027583402,-0.012053078,-0.020076964,-0.0061300285,0.012239358,-0.015744204,-0.008168772,-0.0059195994,0.0034530999,0.0062404172,0.012784404,-0.0035772873,-0.008603428,0.0021732796,0.017124062,-0.00047863895,-0.027969763,-0.011597724,0.006913099,-0.019759595,0.0266313,0.008548233,-0.03631792,-0.025665397,-0.012660216,-0.02297467,0.0012073775,-0.011708112,0.039491594,0.015895989,-0.026548507,-0.00897599,0.0050916835,0.014281551,-0.042665273,0.008982889,0.026065556,-0.007747914,-0.018904082,-0.0077548134,-0.17805715,0.009914295,0.022533115,-0.042748064,0.024934072,0.015288849,-0.00038075514,0.0016696306,-0.0010806029,0.0060092905,0.0013617494,-0.025085855,-0.009100177,-0.0096659195,-0.025113452,0.0116805155,-0.014474732,0.010086777,0.00630941,-0.004795014,-0.00916917,-0.0177312,-0.006654375,-0.0038843062,0.039077636,0.02552741,-0.017289646,-0.0032357718,0.0016730804,-0.028259534,-0.028645895,0.009838402,0.03107445,-0.0031909263,0.018034771,0.008355052,0.023029864,-0.016696306,-0.020670304,0.014847294,0.022353733,0.0177312,0.013343247,0.0027200491,-0.020532317,0.013619219,0.017441431,-0.026990063,0.013419139,-0.016296146,0.0061576255,-0.02385778,0.007168373,-0.019745797,-0.001059905,0.025417022,-0.0022681449,0.0064128996,-0.024616703,0.0014643765,-0.0037325216,-0.003677327,0.016323745,-0.01626855,-0.018476326,-0.018655708,-0.021443026,0.013984881,-0.014081472,0.014281551,-0.0048950533,-0.022008767,-0.015357843,-0.0082446635,0.0096659195,0.010928492,0.002297467,0.020187352,0.0021163605,-0.01222556,-0.0136054205,0.020546116,-0.0035065694,-0.004153379,-0.0014643765,-0.02692107,-0.01202548,-0.007699619,-0.006419799,-0.017262049,0.014129767,-0.010638721,-0.013481232,-0.028314728,-0.029639395,0.017579418,-0.0094313435,-0.012239358,-0.010728412,-0.006478443,0.0031443562,0.0009012211,0.013633017,-0.008493039,0.029363422,-0.0005696235,-0.019938977,0.006026539,0.03640071,-0.0121841645,0.0109698875,-0.0054676956,-0.00072658254,0.012335949,0.007851404,0.0354624,-0.008810407,-0.019511221,0.0071131787,-0.0047501684,0.029142644,0.008341254,-0.0013858969,0.008161873,-0.012998282,-0.0032236981,-0.09454801,-0.03242671,0.018186556,0.023443822,0.010914693,0.04123022,-0.017993376,0.040071137,-0.02544462,0.042554885,-0.0007753089,-0.03579357,-0.017662209,0.0046846247,0.009521035,-0.010459339,-0.010921593,-0.031433214,-0.004277566,0.0072718626,0.02692107,-0.011935789,0.03085367,-0.017275847,-0.004070587,-0.027031459,-0.033751376,0.019193854,0.021525817,0.0081273755,0.005564286,-0.022905678,0.005698822,-0.0063232086,0.002090488,-0.0061093303,-0.0315436,-0.021125657,0.029749783,-0.016585918,0.00087534875,0.0020646157,0.015909787,-0.009617625,-0.0024164799,-0.027197042,0.02198117,0.015137065,-7.5838405e-05,-0.034772474,-0.016420335,-0.035655584,-0.018296944,0.009583128,0.034882862,-0.014405739,0.006516389,0.005609131,0.002050817,-0.01764841,0.014460933,-0.011956488,-0.014067673,0.00070329744,0.013626118,0.0131017715,-0.015164662,-0.0111768665,-0.013384643,-0.013156965,0.0017041272,0.009679718,-0.0038394607,0.012149667,-0.010293756,-0.0067613143,-0.011080276,-0.02878388,0.010631822,-0.000104513616,-0.016806696,-0.025596404,0.0017274123,0.009272659,-0.004332761,0.000670957,-0.010293756,-0.0056850235,-0.008210167,-0.0125981225,0.020463325,0.022105359,0.008437844,-7.6539116e-05,0.008796608,-0.010562829,-0.02870109,-0.018600514,0.000946929,-0.0010038482,-0.042085733,-0.001833489,-0.09620384,0.019704401,0.009258861,0.0070855813,0.012377345,-0.012887893,0.02908745,0.00040188423,0.009590028,0.023526615,-0.021263644,0.015247454,-0.034137737,-0.0138055,-0.011328651,0.0038187627,0.043824356,-0.0035462403,0.010328253,-0.012674015,0.011190665,-0.0026769284,0.012611921,0.008686219,-0.008741413,-0.007009689,0.0031771278,0.018200355,-0.012266956,0.00014607112,0.005564286,-0.010997484,-0.013274253,0.002397507,-0.019456027,-0.0068958504,0.04004354,0.022588309,0.02218815,0.026272535,-0.015702808,-0.030605296,0.02416135,0.008313657,-0.024520114,-0.0177312,-0.012763705,0.001484212,0.024216544,-0.01824175,0.0315712,0.015178461,-0.030991657,-0.023995766,-0.014350545,-0.0011935789,0.019897582,-0.012260057,-0.004232721,0.012839598,0.036704276,-0.0069855414,0.017220654,0.005964445,-0.015537225,0.0051813745,-0.00828606,0.016917083,0.0059333984,-0.01104578,-0.013633017,0.010342051,-0.009238163,0.0053055617,0.018973077,0.0023509366,0.0040153926,0.028563103,-0.026962465,0.00838265,0.019966574,0.006823408,-0.013957284,0.016199557,0.0167653,0.0062542157,-0.025085855,-0.004218922,0.014598919,-0.0048260605,-0.013032778,-0.0040395404,-0.009024285,-0.0076858206,-0.0007015726,0.0043120626,-0.000495456,0.017179258,-0.0022215748,0.0005493568,0.018904082,-0.0030236184,-0.0005502192,-0.022008767,-0.028618298,-0.011846099,-0.020463325,-0.01793818,-0.0027424719,0.013439837,0.031764377,0.008168772,0.008499938,0.005836808,-0.0033168385,0.013232858,0.0118254,-0.008327455,-0.037476998,0.052793447,-0.004060238,0.023250641,0.02327824,0.00020299036,0.011583925,0.029832574,-0.00226642,-0.0059885927,0.015109467,-0.016999876,0.00719597,-0.013067274,-0.03187477,0.0050916835,-0.001488524,0.01410217,-0.0075961296,0.023595607,0.00038830124,0.08880779,0.017179258,0.00015307823,0.032592293,-0.013957284,-0.015164662,0.009383049,0.01686189,-0.027086653,-0.030053353,-0.010003986,0.008844903,0.017262049,-0.023016065,-0.013329448,-0.023540413,-0.0108801965,0.031985156,-0.0023509366,-0.009541732,0.015150864,0.031902365,-0.0017989925,0.014529927,-0.0024716742,-0.006350806,0.008072182,-0.016875688,-0.0033375365,-0.03927082,0.014916287,0.00067828747,-0.014626517,-0.011735709,0.013363944,-0.0031771278,0.006036888,-0.012073776,0.009879798,0.017344842,0.0056677754,0.036842264,-0.023995766,-0.016986078,-0.029004658,0.008499938,-0.014805898,-0.0025768888,-0.041257817</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>es. By custom we mean that the answers will be based on domain specific knowledge provided to the AI agent using a PDF. In this assignment, we will only focus on text-based conversations. This assignment has four parts. 1. Develop a webapp, allowing user to chat with the AI agent by providing a place to enter his query and see the resp</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.015448254,-0.0046365415,0.0099270865,-0.009761864,-0.0048568374,0.010202456,-0.013389863,-0.0019189842,-0.007111429,-0.023709351,0.0024714451,0.031116802,-0.0041477596,0.0026228987,-0.012343457,-0.002247707,0.017554833,-0.006904901,-0.0011470879,-0.020900577,-0.013451821,0.0007533949,0.0074969465,-0.0031512647,-0.018752692,-0.00643333,0.00071983424,-0.04221421,-0.020501291,0.001943079,0.00025235073,-0.0005950572,-0.023406444,-0.033374835,-0.01904183,0.014759828,-0.020280996,-0.011317704,0.027564531,-0.006244013,0.02124479,0.011834023,0.00020448369,-0.011124945,-0.0051735127,0.017541064,-0.01959257,-0.017692517,0.0005438556,0.0028173786,0.016246825,0.027027559,-0.006350719,-0.011297052,-0.015007662,0.019110674,-0.02171292,0.009045903,0.007613979,-0.0072422293,-0.014085172,0.010636164,-0.0038999268,0.0057827686,-0.025402876,-0.0053593875,-0.004629657,0.01685264,0.005565915,-0.013830455,0.024893442,-0.0009586316,-0.011228209,0.0030893064,0.025719551,0.020556366,-0.033182077,-0.01796789,-0.008212908,0.009617295,-0.013534432,-0.015613475,-0.034366168,0.026642041,0.01913821,-0.014952587,0.014222858,0.022511492,-0.018064268,0.0069737434,-0.0051149963,0.0091422815,0.02519635,0.020184616,-0.021933215,0.019551266,0.008694806,0.019909246,0.0071183126,-0.043343227,0.0065331515,0.018491091,-0.041801155,-0.0056554102,-0.005163186,0.015792465,0.0057208105,0.0015764929,0.012281499,0.00034421243,-0.006216476,0.02472822,0.01025753,-0.027440613,0.010911534,-0.021175947,0.01208874,-0.02592608,-0.020253459,-0.015062735,-0.012722091,0.0030101377,0.009810054,-0.0072009237,0.021561466,0.009493379,-0.022084668,-0.0044782036,-0.0053697135,-0.027881205,0.0038310841,-0.0056932736,0.010429637,-0.0030583274,-0.02426009,-0.0037002836,-0.04237943,0.0066192048,-0.026752189,0.0032132228,0.015696086,0.013286599,-0.008811838,0.0032786233,0.005658852,0.023695583,0.026531894,-0.006123539,0.005352503,0.029602269,0.007111429,-0.028528325,-0.007046028,-0.004216602,0.019744024,0.018064268,0.00022761046,-0.0017382727,0.013493127,-0.009438304,-0.0026435514,0.028308028,0.02454923,-0.036596663,0.026586967,0.029271824,0.042792488,-0.020005627,0.0024060449,-0.0153656425,-0.017692517,0.02380573,-0.03276902,-0.003917137,0.007999497,0.010491595,0.019826636,0.00737303,-0.027867438,-0.01712801,0.024067333,0.023736889,0.004216602,0.009514031,-0.009775633,-0.028445715,-0.001939637,0.0071045444,0.008274866,-0.0056381994,0.037340164,0.022098437,0.013355441,-0.03968081,-0.6406206,-0.02280063,0.025802163,-0.034861833,0.0048637213,0.01822949,0.014388079,-0.0051941653,-0.010890881,0.034558926,-0.0004793158,-0.007565789,-0.0031478226,-0.011544884,-0.011964824,-0.023847036,-0.0014250394,-0.0180505,0.0003119425,0.010787617,-0.018642545,0.024797063,-0.010464057,-0.014209089,-0.022428881,-0.019454885,0.00026676463,-0.0065847836,-0.0074694096,-0.013203989,-0.018559933,0.008791185,0.0106086265,-0.012370994,0.050860826,0.012928618,-0.0019310317,0.023681814,0.012123161,0.026490588,-0.021120874,-0.0011479484,0.0072146924,-0.013327905,0.007063239,0.011448505,0.005855053,0.0016134958,0.0032769023,0.00013703956,0.003741589,-0.026146375,-0.014456921,-0.008722343,0.02847325,9.418781e-06,0.028363103,-0.021630308,0.013582622,-0.002665925,0.011999245,-0.00065099174,-0.0210658,-0.03422848,-0.015641013,0.01374096,0.0170454,0.010078539,-0.009706791,-0.03406326,0.0059066853,0.027550763,-0.013995677,-0.026779726,0.0030669325,0.011902865,0.022043364,-0.02874862,-0.03582563,0.012019898,0.026669579,-0.0032889496,-0.017072937,-0.0008846259,-0.0011840907,-0.0021014167,-0.014938819,-0.00061312836,-0.01319022,0.012336573,0.0039997483,0.021079568,0.0055142827,-0.021189716,-0.003879274,0.032796558,0.016728723,-0.013203989,0.008137181,-0.032411043,-0.005383482,-0.010264414,0.029850101,0.027316697,0.021864373,0.017279463,-0.003521293,0.0038069894,0.03929529,-0.02712394,0.014635912,0.0023199916,-0.00013348988,-0.009940854,0.007703474,-0.031392172,9.6164345e-05,0.013066303,0.016825102,-0.009995929,0.009810054,-0.0015455137,0.024948517,-0.019799098,0.011345241,0.034751687,-0.021492623,-0.02748192,-0.013782266,-0.010112961,-0.008536468,-0.033925574,-0.0040617064,-0.014539532,0.015007662,-0.015820002,0.023007158,-0.009094092,0.010436521,0.012432952,-0.024439082,0.0038655053,0.0010094029,-0.008625963,-0.023599204,-0.01858747,0.008467626,0.013555085,-0.014167783,-0.00319257,0.00905967,-0.011379663,-0.00058946374,0.0005068528,0.003965327,-0.023433981,0.007971959,-0.025788395,0.0085227,-0.044582393,-0.0129768085,-0.0044162455,-0.015682317,0.017196853,0.009376346,-0.016246825,-0.011620611,0.025595635,-0.030345766,-0.044830225,0.010801386,0.0132384095,-0.019358506,0.017981656,-0.00084547175,0.007159618,-0.025251422,-0.0068567116,-0.00030118588,-0.026876105,-0.0060168332,0.019151978,0.013520664,-0.011283283,0.01694902,-0.0066914894,0.027000021,0.022428881,-0.026765957,0.009066555,0.00925243,0.025292728,-0.0001625328,0.02673842,-0.007593326,0.00760021,0.0041925074,0.010037234,0.015214189,0.015875077,0.0108702285,0.011496695,0.015131578,0.004185623,-0.0050323857,-0.031116802,-0.0008601008,-0.03901992,0.022607872,0.008577773,0.010119845,-0.019275896,-0.0115724215,-0.018188184,0.0057483474,0.0056932736,-0.007737895,0.013259063,-0.041608397,0.009975276,0.0034249136,-0.019716488,0.036514055,0.0013802918,-0.026297828,0.0077172425,0.0019465212,0.007951307,-0.001965453,-0.025857236,0.010705006,-0.015489559,0.009582873,0.0070838914,0.031474784,-0.009803169,0.009913318,-0.00897706,0.040286623,-0.024604304,-0.0025540562,0.026765957,0.013410516,-0.009878896,0.024783295,0.018491091,0.04221421,-0.0040995697,-0.019661414,0.023007158,-0.028156577,0.011235094,-0.015613475,0.00631974,0.0055865673,0.0009319551,-0.0018466996,0.023544129,0.012102509,0.019647645,-0.019441117,0.009686138,0.00089409173,-0.012143814,0.004103012,0.0067431214,0.0071940394,-0.0015326057,-0.016095372,-0.00029881942,-0.0144431535,-0.01767875,0.0132177565,-0.00038917517,0.03791844,0.03177769,-0.0060960017,-0.0062715504,0.0032820655,0.012969924,-0.027757289,-0.03800105,0.02453546,0.015971456,0.005242355,-0.007407451,0.007042586,0.02198829,-0.006626089,0.029795026,-0.003185686,0.01610914,0.009589758,-0.014869977,-0.012722091,0.031887837,0.007985728,0.00079900306,-0.0044713193,0.002108301,0.014023214,-0.023144843,-0.023654277,-0.029574731,0.056092855,0.0134174,-0.024480388,-0.0190556,-0.017389612,-0.016783798,-0.013031882,0.018793998,-0.020253459,-0.002934411,0.015861308,0.010973492,-0.028721085,-0.034008186,0.041002583,0.004960101,0.016067836,-0.043398302,0.02216728,0.0067500053,0.03166754,0.014333005,-0.003132333,0.027715985,-0.0059170113,0.010092308,-0.03166754,-0.008839375,0.0220709,-0.0045401617,-0.031750154,0.004905027,0.017637445,0.014346774,0.013541317,0.0043990347,0.0007172526,-0.0068326164,-0.014511996,-0.0046778466,0.028721085,-0.0029464583,0.008564005,0.015723623,0.013100725,-0.00499108,0.014222858,0.023874573,-0.00531464,-0.047115795,0.023062233,0.024246322,0.00060839544,0.022139743,0.0020480638,0.041277952,0.0099064335,0.022318734,-0.014112709,-0.0029826006,0.0015756324,0.012116277,-0.006292203,-0.027619604,-0.0075726733,-0.019895477,0.016054068,0.01584754,-0.014305468,-0.02226366,-0.0062681083,-0.006705258,-0.023571666,0.008687922,0.012081856,0.01314203,0.020666514,0.0022786863,-0.023681814,-0.035109665,-0.021616539,0.0031409382,-0.018146878,-0.0053387345,-0.011758296,-0.01813311,-0.0079788435,-0.0011892539,0.0064161196,0.025788395,0.026752189,-0.024026027,-0.04130549,0.01226773,0.01711424,0.0038999268,0.004268234,-0.018849071,-0.011847791,0.0045711407,-0.012178236,-0.025994921,0.01565478,-0.027715985,0.0011169693,0.009211124,-0.005269892,-0.015971456,-0.018532397,0.0010291951,-0.00075425545,5.5161386e-06,0.01520042,-0.018367175,0.01213693,0.015227958,0.01016115,0.021589004,0.01359639,-0.03152986,-0.026573198,-0.039074995,0.019358506,-0.031557396,0.03249365,-0.009617295,0.0103676785,0.020542597,-0.011916634,-0.016480891,0.02628406,0.0039756536,0.016797567,-0.01950996,0.037532922,0.0073867985,0.016260594,0.027137708,0.01286666,0.0023320392,0.01583377,-0.04728102,0.015172883,0.01176518,-0.0062474553,0.004860279,0.005094344,0.0025299613,0.011269514,-0.01868385,-0.016907714,-4.1251707e-05,-0.012949271,-0.0069943964,-0.007896232,0.0005382622,-0.0064470987,0.00542823,0.0065365937,-0.011118061,-0.008605311,0.0048120897,0.00042166022,-0.015255494,0.012391647,-0.033182077,0.0054454403,0.026917411,4.1197924e-05,0.032163206,-0.021203484,0.010099192,0.010271299,0.0016883619,-0.002991206,-0.04422441,-0.00023922764,0.015393179,0.033595134,0.025857236,0.040534455,-0.0036761886,0.0053869244,-0.008901333,0.0047914367,0.014030098,-0.01035391,0.0010877112,0.004378382,-0.00040939765,0.043095395,0.0023785078,0.0386344,-0.011352126,0.019950552,0.03086897,-0.012701438,-0.012797818,-0.009259314,-0.0210658,-0.007503831,0.034641538,-0.0077654324,-0.00066174835,-0.041883767,0.005565915,0.02271802,-0.0017985099,-0.009362577,-0.025058664,0.012074972,-0.027151475,-0.002130675,0.006591668,-0.008818722,-0.024149943,-0.0022872915,-0.024673145,0.021616539,0.023626741,0.041360565,0.011001029,0.009823822,0.025223887,0.009004597,0.012508679,0.0004892119,-0.0012907966,-0.0013045651,-0.0076690526,-0.011462273,0.0117514115,-0.006560689,-0.013334789,0.008102761,-0.00975498,0.013637696,0.01970272,-0.02839064,-0.018188184,0.008171603,0.0012615385,0.032135673,0.011407199,0.03276902,0.021038262,-0.0032321545,0.004770784,-0.0101267295,0.0073592616,-0.0034266347,0.018408481,0.037422772,0.0057483474,-0.00847451,-0.0037932207,0.043288153,-0.03607346,-0.020817967,0.00315987,0.023585435,0.015255494,-0.004378382,-0.0091835875,-0.016563501,0.026573198,-0.023929648,4.8727572e-05,-0.0027726311,-0.009039018,-0.011758296,0.001427621,0.0070253755,0.020074468,0.018904146,0.005631315,0.00609256,0.010044118,0.0045849094,0.013747844,-0.0043818243,0.02391588,-0.00092421036,0.0025901985,0.008398783,0.01694902,-0.018642545,0.0012813307,0.01557217,0.029932711,-0.017238159,-0.003461056,0.014429385,-0.03095158,0.00915605,-0.024480388,0.004939448,0.0039274637,-0.030483453,-0.0051976074,0.026325366,0.021754226,0.0011161087,-0.0019998741,-0.0012796096,0.00026956134,0.012281499,-0.009693022,-0.0134174,0.0027863996,-0.012061203,0.0034421242,-0.0073386086,0.034641538,-0.0042303707,0.020184616,0.005848169,0.02234627,-0.009810054,0.02519635,0.00069401826,0.02125856,-0.024783295,0.018849071,-0.0067741005,-0.022580335,0.018656313,-0.023158612,-0.026504356,-0.020377375,-0.0011496695,0.00842632,0.0062543396,0.006453983,0.020143311,-0.00327346,0.021960752,0.00081664394,-0.01740338,0.00704947,0.0064161196,-0.0014981845,0.023943415,-0.02913414,0.010994145,0.004929122,0.033484984,0.005710484,-0.0340908,-0.029079065,-0.029381972,-0.0031288909,-0.029354434,-0.009782517,-0.021506391,-0.0034455664,-0.022318734,0.009913318,0.0033956554,-0.010470942,-0.009872012,-0.0038242,0.018408481,0.0015300242,-0.029684879,-0.003461056,-0.034916908,0.0035557144,-0.03596331,-0.0014887187,-0.013761613,0.043067858,0.013995677,-0.023874573,-0.03654159,-0.036018386,-0.054881226,0.004984196,-0.006089118,0.007737895,0.022841936,0.013975024,-0.005431672,0.016439585,-0.012935502,0.0072491136,-0.021547697,0.0076621682,-0.0163019,-0.01776136,-0.019799098,0.0006466891,-0.02372312,-0.009672369,0.028087733,-0.015489559,-0.014346774,0.018904146,-0.0155859385,-0.022924546,0.0018501418,0.019606339,-0.0012236751,0.018532397,0.030924043,-0.023778195,-0.007958191,0.0011255746,-0.011476042,-0.021809299,-0.014856208,0.00012961749,-0.005803421,-0.00013510337,-0.01583377,-0.01897299,-0.0017864625,-0.018876608,0.03965327,0.0052526817,-0.019344738,0.021726688,-0.005441998,-0.0058103055,-0.024026027,0.01913821,-0.026049996,0.021313634,0.016838871,-0.031640004,0.017086705,-0.002989485,0.023365138,-0.035192277,0.008137181,-0.010918418,0.0120336665,-0.029767489,0.0035625985,0.027894974,-0.038689476,-0.025788395,0.0061166547,0.00015715449,-0.022057131,-0.012694554,0.015310569,-0.013623928,-0.0032063387,0.009390115,-0.027798595,0.0075313677,0.019716488,0.0022614757,-0.0117514115,0.03106173,0.19397058,-0.013073187,-0.019014293,0.025884774,-0.0103676785,0.0028517998,0.024439082,0.0105879735,-0.0010877112,0.0052320287,-0.008564005,0.0075589046,-0.019358506,-0.0010954561,0.03040084,-0.027000021,-0.039074995,-0.039074995,-0.0077792006,0.018436017,0.008729227,-0.0009130234,-0.008467626,-0.0146221435,0.040259086,-0.0048637213,-0.00040380418,0.010815154,0.012274615,-0.0027950048,-0.011001029,-0.0069978386,0.018766461,0.019413581,-0.008674153,-0.025072433,0.029629804,-0.0152968,0.011916634,0.0067087,-0.0052595655,0.006261224,0.01391995,-0.008990828,-0.017609907,0.019303432,0.00031968727,-0.033732817,-0.0056416416,0.011964824,-0.007861812,-0.006261224,0.025306497,0.025884774,0.0010687795,0.014030098,-0.0063644876,0.0035350616,0.0044575506,-0.0057793264,-0.033760354,-0.003796663,-9.6742515e-06,0.014690986,0.004295771,-0.005163186,-0.007503831,-0.01970272,0.0074143354,0.011964824,-0.008887565,-0.034751687,0.008316172,0.018642545,-0.006261224,-0.0503927,0.014952587,0.0428751,0.021079568,0.027550763,-0.014897513,0.0055900095,-0.016136678,0.0023630182,-0.013734075,-0.058929168,0.04425195,-0.008756764,-0.009686138,-0.0034868717,-0.0035453879,-0.0061373073,-0.008075223,-0.0110905245,0.015778698,0.0144018475,0.013933719,0.023461519,0.0025402876,0.0050392696,-0.02537534,0.057001576,0.01950996,0.021231022,0.0024748873,-0.014009445,-0.0108289225,0.00069918146,0.021919446,-0.009741211,-0.009665485,-0.008302404,0.01309384,0.00033345577,-0.013307252,-0.014333005,-0.026697116,-0.017830202,0.014429385,-0.014277931,-0.010285067,-0.024618072,0.002934411,0.01649466,-0.002297618,0.004385266,-0.0030566063,-0.010443404,-0.017389612,-0.002691741,0.005441998,-0.02297962,0.00218747,0.016095372,0.024976052,-0.0046916152,0.010457173,0.0053938087,-0.0040892437,0.022924546,0.00737303,-0.003271739,-0.004436898,0.016591039,0.0035126877,-0.02380573,0.017747592,0.017430916,-0.042269286,-0.02711017,-0.03221828,-0.015269263,-0.0055934517,-0.005070249,0.03957066,-0.0016926646,-0.014704755,-0.001974058,0.0012821913,0.008687922,-0.049263682,0.010670585,0.027137708,-0.0009896107,-0.020873042,-0.007930654,-0.17689764,0.022208584,0.025444182,-0.024411544,0.008309288,0.029189212,0.01126263,0.012329689,-0.015048967,-0.01565478,-0.009575989,-0.008598426,-0.022607872,-0.016811334,0.004078917,0.006560689,-0.030841433,0.006495288,0.019744024,0.006133865,0.019647645,-0.02152016,0.0021031378,-0.0029516215,0.007930654,0.019110674,0.01391995,0.0021702594,2.3852845e-05,-0.021010727,-5.173943e-05,0.015696086,0.028638473,0.018890377,0.0074418723,0.0025007033,0.011104292,0.00265732,-0.026077533,0.008639731,0.01895922,0.02364051,0.0033715607,-0.0132177565,-0.0180505,-0.012598175,-0.0005778466,-0.003934348,0.012240194,-0.018463554,-0.0020807642,-0.022236122,-0.0027640257,-0.020225922,0.0031564278,-0.0022631967,-0.010877113,0.030373303,-0.0057483474,-0.0022872915,-0.00019179085,-0.020404913,0.024741989,-0.008398783,-0.01913821,-0.016659882,-0.022277428,0.0063300664,-0.020473754,0.023489056,-0.013789149,-0.018477323,0.0044713193,-0.012384763,0.015627244,-0.0034989193,-0.0028104943,0.013376094,0.0030015323,-0.014277931,-0.018890377,-0.004092686,-0.011655033,-0.007290419,0.016412048,-0.0024525134,-0.013802918,-0.0005369714,0.0047776685,-0.0056450837,0.014539532,-0.018394712,0.0018759577,-0.0018587471,0.01085646,0.0086535,0.0004143457,-0.0046158885,0.000526645,-0.013651464,0.007317956,-0.01356197,-0.0022580335,-0.0038999268,-0.0038758318,-0.006509057,-0.014209089,0.008681037,0.04863033,-0.018064268,-0.0072422293,0.011228209,0.021657845,0.0007977123,-0.005848169,0.038551793,-0.0056554102,-0.017472222,-0.0053903665,-0.011365894,0.02445285,-0.0063576032,0.006574457,-0.0018191626,0.0007675937,-0.014635912,-0.112681374,-0.017995425,0.011104292,0.023599204,0.017651213,0.05075068,-0.00471571,0.022552798,-0.028610935,0.036156073,-0.015159115,-0.02033607,-0.0071183126,-0.024425313,0.011248861,-0.011173135,-0.012983693,-0.022456419,-0.01575116,0.013864876,-0.0030617695,-0.0057517895,0.024893442,0.006402351,-0.0027536994,-0.010980376,-0.011420968,-0.00025127505,0.031557396,-0.0068876906,0.0072146924,-0.023323834,0.01208874,-0.022332503,0.014236625,-0.017100472,-0.010574206,-0.019275896,0.03835903,-0.0053938087,0.009500262,-0.00343524,-0.0011135272,-0.014209089,-0.007820507,-0.032658875,0.0049979645,0.0134587055,0.00426135,-0.030841433,-0.021809299,-0.019936783,-0.023282528,0.0048327423,0.030786358,0.022428881,0.013038767,-0.01711424,-0.013727191,0.0045263935,-0.009699906,-0.032163206,-0.0049187955,-0.010002813,0.015943918,0.017348306,-0.017196853,-0.0049222377,-0.008722343,-0.03544011,0.005676063,-0.0024593978,-0.009438304,0.0010765244,-0.027619604,-0.008130297,-0.0011333193,-0.011159367,0.002023969,-0.009128514,-0.017651213,-0.027922511,0.0066398573,-0.004182181,0.021368707,-0.007841159,-0.0022958969,-0.02189191,0.0015825166,-0.043067858,0.026366672,0.0072766505,0.015943918,-0.010656817,-0.0074694096,-0.008364362,-0.014126478,-0.0050117327,-0.009810054,-0.007070123,-0.013520664,0.0013561969,-0.05559719,0.0027657468,8.788173e-05,-0.003106517,0.01621929,0.0005391227,0.0021427223,0.0002022248,-0.0031099592,0.009135397,-0.008040802,-0.00095518946,-0.021038262,-0.0063059716,-0.02712394,0.016604807,0.027991354,2.233347e-05,0.02610507,0.0037725682,-0.0030170218,-0.00019394218,0.018518629,0.009039018,0.0040685907,-0.0028380314,-0.004330192,0.022304965,-0.018670082,-0.01474606,0.026807263,-0.02611884,-0.00072973035,0.0041787387,-0.013024998,0.0054833037,0.013031882,0.047033183,0.016646113,0.040451843,-0.024384007,-0.037863366,0.0012340015,-0.013376094,0.0035350616,-0.008006381,-0.03946051,0.0043405187,0.0029499005,-0.0048293,0.019881709,0.011565537,-0.037532922,-0.026394209,-0.0029533426,-0.04304032,0.03381543,0.004908469,-0.002934411,-0.0021685383,0.025705783,-0.0027967258,0.012997461,-0.0046193306,-0.023103537,0.00855712,0.0029533426,0.008846259,0.017527297,-0.01557217,-0.007758548,-0.00902525,-0.010422752,0.008095876,0.034200944,0.00815095,0.007820507,0.016591039,-0.00354883,0.033127002,0.009761864,0.008860027,-0.008839375,0.024521692,0.02885877,0.0023475287,0.008288635,-0.016632345,-0.0084400885,-0.0072146924,0.0051184385,0.005744905,-0.0029464583,-0.004529835,-0.016880177,-0.004013517,0.004454109,0.011606842,-0.0023802288,0.0063025295,0.016825102,0.011544884,0.0016952462,-0.023516592,-0.025815932,-0.011173135,-0.017389612,-0.029189212,-0.021299865,0.016356975,0.006901459,0.025017358,0.022635408,0.01277028,-0.022015827,0.037698142,0.008770532,-0.014690986,-0.04874048,0.033870503,-0.0048086476,0.014993893,0.0075589046,-0.0076965895,0.027330466,0.039515585,0.013830455,-0.01268767,0.014085172,-0.01158619,-0.010422752,-0.026256524,0.0061097704,-0.011593075,-0.020735357,-0.0013888971,0.011365894,0.017609907,0.016467122,0.09968392,0.0326038,0.021354938,0.004874048,-0.016425816,0.010711891,-0.0047811107,0.012081856,-0.0075451364,-0.021093337,0.014897513,0.027991354,-0.00022158674,-0.013568854,-0.015117809,-0.01767875,-0.027894974,0.023089768,-0.014677217,0.012398532,0.017334538,0.019523729,0.007896232,0.017238159,-0.018394712,0.007400567,0.02894138,-0.011834023,-0.023461519,-0.018738924,0.01356197,0.009989045,-0.027605835,-0.018201953,-0.0013673839,0.010044118,-0.009376346,-0.025953617,0.021878142,0.025760857,0.0021582118,0.028996455,-0.021919446,-0.01076008,-0.044031654,0.020418681,-0.015090273,-0.014525764,-0.029602269</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>onses obtained by the system. This is similar to any instant messaging system where our responses are coming from the AI agent. To test the functionality of this step the Chatbot can generate random responses. [Marks 1%] 2. Extend the webapp developed above to integrate openAI. Now the Chatbot will gener- ate the responses using openAI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.010946285,-0.0093397405,-0.0028488932,-0.0047039073,-0.00035908987,0.008291402,0.004914936,-0.009632458,-0.005833934,-0.021062069,0.010108976,0.03430925,-0.024574682,-0.007270294,0.0007032886,-0.0009172959,0.018284652,-0.016405812,-0.0047889994,-0.025418798,-0.0008900664,-0.0072158347,0.0018022568,-0.012403066,-0.024030091,-0.0068210056,0.014472513,-0.033492364,-0.029462388,-0.00686185,0.008597735,-0.0070933015,-0.030769408,0.0006479785,-0.012280533,0.020163491,0.003163735,-0.010197472,0.023539959,-0.0061096335,0.022232939,0.01171552,0.0036079173,-0.019319376,-0.016106287,0.007243064,-0.017345233,-0.009789028,-0.01002048,0.010762486,0.008529661,0.019863967,-0.02812814,0.00918317,0.012232882,0.008107603,-0.021729192,0.016228821,0.012675362,-0.00028973958,-0.015289401,0.011865282,-0.014867342,0.0026429696,-0.02283199,0.005098736,0.0063683144,0.0087270755,0.022518849,0.00038631944,0.038611524,-0.002380885,-0.005565042,-0.00485367,0.040817115,0.028073682,-0.006841428,-0.017985128,-0.0018941566,-0.0037202393,0.014526973,-0.031531837,-0.020599166,0.018121274,0.023308506,-0.008815572,0.026153997,0.0281826,-0.009829872,-0.022287399,-0.0020115841,0.0040538013,0.0118857045,0.02006819,-0.017467765,0.02690281,0.004959184,0.021906184,0.00052842376,-0.03447263,-0.011055203,0.011096047,-0.023553573,-0.011055203,-0.003105872,0.0131859165,0.007420056,0.00021783651,0.027678851,0.025949774,-0.0010976918,0.027079802,0.0023553574,-0.025827242,0.0003944032,0.006371718,-0.0016533451,-0.03561627,-0.02465637,-0.012688977,0.0013989188,0.030061439,0.010320005,-0.005854356,0.035343975,0.022001488,-0.02343104,-0.023485499,-0.007876151,-0.01106201,0.01106201,-0.020027345,0.014853727,0.015520851,-0.030497111,0.027815,-0.028046452,0.008243751,-0.0005267219,-0.01296808,0.022042332,0.0138394255,0.0040742233,0.011599794,0.0015997369,0.047760654,0.013648819,-0.015357474,0.00072753994,0.004908129,-0.0010594003,-0.030306505,-0.02066724,-0.01688233,0.0057216124,0.024738058,0.0063036443,0.014200218,-0.015384704,-0.00039057407,0.014567817,0.029489618,-0.011579372,-0.009945598,0.0035160175,0.017127397,0.029571306,0.0028999485,-0.008774727,-0.023390196,-0.02337658,0.003655569,-0.019346606,0.016773412,0.005867971,-0.0034445398,0.0050272583,-0.012634518,0.00052033993,-0.04367622,-0.0013257394,0.010742063,0.024329616,0.019836737,0.012049082,-0.031123392,0.015793147,-0.011783594,0.0057862825,-0.017740062,0.019496368,0.025800012,0.016324123,-0.016759796,-0.6391323,-0.0069401353,0.010449345,-0.0131927235,0.010687604,0.019550826,0.0073315604,0.0011376853,-0.012001431,0.022654997,-0.021933414,-0.0069231167,0.0036725875,-0.0118857045,0.014567817,-0.018284652,0.00632747,-0.016664494,0.005936045,0.005704594,-0.027937533,-0.0017078043,-0.010496997,-0.003344131,-0.035289515,-0.0187884,0.0015920786,0.004009553,-0.023390196,0.03117785,-0.020000115,0.014159373,0.03624255,0.0008675169,0.03632424,0.0069911904,-0.03504445,0.021102913,-0.005466335,0.022478005,-0.011177736,-0.0057079974,0.011075625,-0.011790401,-0.004591585,0.016555576,0.009891139,0.0012559637,-0.024561066,-0.012484755,0.0087134605,-0.012001431,-0.01106201,-0.0038155427,0.0119129345,-0.0052348836,0.023798639,-0.004771981,0.019509982,0.0071817976,0.010320005,0.0018294863,-0.02619484,-0.043458384,-0.02943516,0.011170928,0.0002616591,-0.001889051,-0.012552829,-0.032757167,0.017399691,0.01753584,-0.023648877,-0.014458898,-0.0020779562,-0.0018379956,0.027719697,-0.026889194,-0.02997975,0.030061439,0.015493622,0.0032573366,-0.019686975,-0.011184543,0.013914308,0.0014703964,-0.0037168355,-0.00087730255,0.006752932,0.004125279,0.022641383,0.033437904,-0.019632516,-0.04547337,0.011620216,0.0033560437,0.0069026947,-0.0065555177,0.030442653,-0.028618272,-0.0029680226,-0.0037406613,0.014172988,0.007842114,0.029734684,0.01562977,-0.0076447004,0.015112408,0.024452148,-0.021770036,0.011313884,-0.0026004233,-0.004904725,-0.010081746,-0.0026974287,-0.028454894,0.0052689207,0.0065759397,0.019509982,-0.034826614,0.0058849896,-0.0131859165,-0.00059437036,-0.013573938,0.014363595,0.01938745,-0.0045881816,-0.041579545,0.010006865,-0.011463647,-0.0035058064,-0.035534583,-0.003478577,-0.021021223,0.03681437,-0.022940908,0.0118993195,-0.0038802128,0.010422116,-0.009557577,-0.019537212,0.02183811,-0.013927922,0.0008704951,-0.0151532525,-0.011974201,0.010551456,0.0074064415,-0.010136206,-0.005878182,0.0063104513,-0.0062219556,0.0029016505,-0.0032352125,0.006943539,-0.012348607,-0.008209714,-0.034254793,0.017032092,-0.030578801,0.001889051,0.017862594,0.010088554,0.014663121,-0.019224072,0.0013682856,-0.018243808,0.019836737,-0.026453521,-0.03616086,0.011695098,-0.020449402,-0.0016831275,0.023444654,-0.014200218,0.02872719,-0.03795801,-0.012695785,0.018311882,-0.027515475,-0.016514732,0.02001373,0.01588845,-0.026943654,0.024574682,-0.02132075,0.024724444,0.010735256,-0.035098907,0.012716207,-0.034908302,0.041715693,-0.006582747,0.025895316,-0.01560254,0.014336365,-0.0012091629,0.007821692,0.018720325,0.022654997,0.015902065,0.031422917,0.020844232,-0.017685601,-0.011136891,-0.022137636,-0.00035653712,-0.02693004,0.017004862,0.009360163,0.0138530405,-0.0036827985,-0.0055173906,-0.02123906,0.015411933,-0.010537841,0.011640639,-0.0016746182,-0.010830559,0.012675362,-0.0020847635,-0.012321378,0.02309067,-0.0125460215,-0.033955265,-0.0002493207,0.011613409,0.021661118,0.019319376,-0.0034173103,0.020571936,-0.0093125105,0.004581374,0.005595675,0.04141617,-0.018012356,0.01719547,-0.00076838426,0.045119386,-0.0015214519,-0.0022447372,-0.0037951204,0.020721698,-0.02684835,0.034254793,0.0005658644,0.04269596,0.007229449,-0.01393473,0.007454093,-0.021947028,-0.010871404,-0.02340381,0.0011810823,0.03319284,0.0056024827,-0.0018516104,0.009094674,0.0031365054,0.043975744,-0.0028931412,0.0041525085,0.018897317,-0.017494995,-0.0063342773,0.006872061,-0.008985756,-0.0009445255,-0.020122647,-0.022192094,-0.011518106,-0.008951719,-0.006007523,0.004394171,0.045255534,0.005207654,0.008196099,0.009006178,0.023158744,0.010102169,-0.017426921,-0.0138394255,0.013015731,-0.0048570735,0.02058555,0.00023783323,-0.0063581034,0.0068005836,-0.0039380756,0.0018924547,-0.0031245926,0.0140913,-0.00438396,-0.0138802705,-0.019155998,0.026970884,0.013662434,-0.0076310853,0.017631143,-0.015765918,0.02992529,0.014785653,-0.039809622,-0.02747463,0.0024659773,-0.0037372578,-0.028591042,-0.037032206,-0.016324123,-0.02872719,-0.011320692,0.026780276,0.010667182,-0.0035738803,0.009530348,0.0075766263,-0.021048453,-0.037086666,0.020394944,0.007624278,0.006439792,-0.038992736,-0.002537455,0.019115154,0.013941537,-0.0018635233,0.0060449634,-0.0028591042,-0.01753584,-0.00039950878,-0.010708026,-0.01967336,-0.004288656,-0.008985756,-0.03550735,-0.001150449,0.01813489,0.0047685774,-0.00052076543,0.009577999,0.0076310853,-0.013655626,-0.00060968695,-0.017971512,0.007835307,0.017631143,0.009189978,0.024384074,0.034064185,0.0030156742,0.014663121,0.021960644,-0.013941537,-0.05805343,0.014431669,0.0074064415,-0.010953092,0.011552143,-0.0040878383,0.04814187,0.007780848,0.02123906,-0.0035024027,0.00048204837,0.0067699505,0.021416051,-0.008522853,-0.021034839,0.0022209114,-0.010122591,0.022900064,0.005030662,0.004159316,-0.027406557,-0.0039584977,-0.0006977576,-0.046644244,-0.0016558978,-0.016841486,0.035098907,-0.014744809,0.007467708,0.0054084724,-0.009891139,-0.035480123,0.0011495982,-0.009060637,-0.00507491,-0.0274474,-0.028591042,-0.0050612953,0.00096069305,0.0045541446,-0.0006798882,0.0035568618,-0.018066816,-0.03934672,0.0074404785,0.0118993195,0.016678108,-0.00560929,-0.011892512,-0.016977632,0.016664494,-0.0029884446,-0.038883816,0.0068244096,-0.02343104,0.0009155941,0.024329616,0.02243716,-0.006885676,-0.009503118,0.0059530633,-0.022641383,-0.013791774,0.013689663,-0.018148504,0.01283874,0.02092592,0.025554946,-0.0037508726,-8.312463e-05,-0.020980379,-0.0064568105,-0.03738619,-0.009047023,-0.007998684,-0.0015103898,-0.022750301,0.0016618543,0.026698587,-0.014949031,-0.024384074,0.03066049,0.02742017,0.023798639,-0.018053202,0.0017052514,0.008386706,0.018597793,0.03237595,0.008965334,-0.0009777115,0.010912248,-0.050919283,0.024860593,0.014731194,-0.013499056,0.005098736,0.0064908476,0.0119129345,-0.027229564,-0.011640639,-0.007637893,-0.01356713,-0.0025238402,-0.032158114,-2.3147788e-05,-0.014894571,-0.003890424,0.01067399,-0.007780848,0.013029346,-0.014513358,-0.014458898,0.007590241,-0.0046936963,0.017181855,-0.027297638,0.0036181284,0.016664494,0.017767292,0.02006819,-0.008257366,0.017004862,-0.016705338,-0.012723014,-0.01004771,-0.043921288,0.003655569,0.010878211,0.03305669,0.037113898,0.028046452,-0.012273726,0.028509354,-0.008754305,0.0012151193,-0.004870688,-0.007862536,-0.014241062,0.021198215,0.0033832733,-0.004322693,-0.0020388137,0.045827355,0.006895887,0.025854472,0.034554318,-0.0044894745,0.0023621647,-0.012974887,-0.038175847,-0.011531721,0.042995483,-0.003733854,0.010340427,-0.027910303,0.013145072,0.034009725,0.013669241,0.015425548,-0.0049353587,0.028019221,-0.02530988,0.0067222985,0.0077604256,0.006341085,-0.019755049,-0.0012882988,-0.009115096,0.026507981,0.0151668675,0.020653624,0.016324123,0.01030639,0.0028931412,0.0053506093,0.011422802,-0.014363595,-0.0076310853,-0.009891139,0.00695375,-0.020912305,-0.0043805563,-0.0039959387,0.006160689,-0.014635891,0.025241805,0.0041525085,0.014295521,-0.021429667,-0.024220698,0.009224015,-0.013982381,0.036705453,0.017358847,0.0281826,0.013771352,0.020435788,-0.0013725403,-0.002896545,0.00024506607,0.010605915,0.017209085,0.037876323,-0.008468394,-0.013403753,0.022940908,0.009727762,-0.03196751,-0.028808879,0.001999671,0.010816945,0.020313255,-0.026630513,-0.00955077,-0.012934043,0.022968138,-0.0019196842,-0.015112408,0.011511298,0.00080752675,-0.023866713,0.023240432,0.02992529,0.022450775,0.012505177,0.018148504,0.0044656484,0.017699217,0.016010983,0.012369029,0.0025357532,0.022478005,-0.0068244096,-0.002694025,0.0054595275,-0.011681483,0.010183857,0.012804703,0.007882959,0.03123231,-0.024465764,-0.010687604,0.014486128,-0.008325439,0.013485442,-0.02622207,0.009768606,0.001999671,-0.036106404,0.000648404,0.03139569,0.022042332,-0.016800642,-0.0064329845,-0.0033339197,-0.0080667585,3.0234389e-05,-0.013635204,-0.0002742102,-0.024316002,-0.010585493,-0.00026931742,-0.019292146,0.015738688,0.017603913,-0.016242435,0.0099728275,0.0151532525,-0.0028608062,0.015248556,0.0036521652,0.013587552,-0.013076998,0.0017316301,-0.0031433129,-0.0053063612,0.00610623,-0.021021223,-0.033383444,-0.013267606,0.021674734,0.009850295,0.0063546994,0.022341857,0.00234855,0.016936788,0.0015674018,-0.004336308,-0.0059054117,0.009040215,-0.005656942,-0.004686889,0.02815537,-0.010537841,0.007290716,0.0067222985,0.01588845,0.0131927235,-0.037004977,-0.04136171,-0.008720268,-0.00076880975,-0.0024557663,-0.01500349,-0.019904811,-0.0046800813,-0.029707454,0.006620188,-8.110368e-06,0.0026991304,-0.014758424,0.025895316,0.013546708,0.013812196,-0.0119469715,0.003621532,-0.027461015,0.0015844202,-0.033220068,0.0019077713,0.003635147,0.040381443,0.015765918,-0.017889824,-0.035670727,-0.027760541,-0.039646246,0.0023876925,-0.0080463365,0.0140913,0.00648404,0.0059598708,-0.008012299,0.022450775,0.00485367,0.00025229892,-0.039074425,0.0031552257,0.0022158057,-0.007256679,-0.009775413,0.008441165,-0.03632424,-0.008597735,-0.017699217,-0.019060696,0.00030590713,0.014758424,0.0019860563,-0.006269607,0.023921171,0.0062287627,0.0004948122,0.015847607,0.012593674,-0.026943654,-0.011749557,0.0015291102,-0.004115068,-0.006872061,-0.010850981,0.0048468625,0.020272411,0.004707311,-0.020803386,-0.0046664667,-0.009292088,-0.004591585,0.042069677,0.017998742,-0.006293433,0.00795784,-0.019060696,-0.0071341456,-0.01967336,0.017740062,-0.022083176,-0.0019826526,0.02064001,-0.034009725,-0.009918368,-0.0075630113,0.0035568618,-0.049530577,0.010769293,0.005789686,0.020136263,-0.012825125,0.0086930385,0.02747463,-0.012831932,-0.015030719,-0.01753584,0.018230192,-0.028073682,-0.023077056,0.022273783,-0.010143013,0.00055990793,0.012995309,-0.019251302,-0.011055203,0.005435702,0.019686975,0.008182484,0.009012986,0.19572611,-0.028373206,-0.016460272,0.026085922,-0.019850353,0.0038223502,0.011749557,0.017549453,0.0024778903,0.020939535,-0.009332933,0.0007390274,-0.010183857,-0.006249185,-0.0034036955,-0.0048672846,-0.018938161,-0.017467765,-0.0012559637,0.008516046,0.01560254,-0.014336365,-0.0016125008,-0.0008875136,0.033492364,-0.0054935645,-0.00918317,-0.0011691694,0.009918368,0.006415966,-0.016528346,0.006650821,0.010544648,0.028563812,0.01283874,-0.025486872,0.016868714,-0.0015656999,0.037794635,-0.009918368,0.008305017,-0.01753584,0.009087867,-0.0125324065,0.0061334595,0.022750301,-0.013002117,-0.03066049,0.003921057,-0.0026582861,-0.0056739603,-0.0112662325,0.005980293,0.011729135,-0.012777473,0.006997998,-0.0047787884,0.0021732596,0.008325439,0.026113153,-0.040490363,0.0046120076,-9.5835305e-05,0.031940278,-0.0119469715,-0.0036283394,-0.007365597,-0.016106287,-0.0061300555,0.005912219,-0.012464333,-0.017862594,0.0072498713,0.0017035496,-0.013029346,-0.03975516,0.016460272,0.03556181,0.02536434,0.015765918,0.009843487,-0.013328872,-0.0028659117,0.0038768093,-0.039727934,-0.038883816,0.018992621,-0.0052689207,0.005490161,-0.000240386,-0.015112408,-0.005422087,-0.001509539,-0.008087181,-0.0035398433,0.0045201075,0.02616761,0.022723071,0.0019162806,0.008243751,-0.017767292,0.055139866,0.011981009,-0.0073724044,-0.0059734858,-0.020626394,-0.016814256,0.003689606,0.009632458,0.007086494,-0.010374464,-0.026916424,0.009407815,-0.018938161,-0.017631143,-0.019986501,-0.013179109,0.004928551,0.00066372065,0.0051906356,-0.006752932,-0.00968011,-0.0009241033,0.013485442,-0.012593674,0.0072975233,-0.014772039,-0.00407082,-0.0039823237,-0.0070796865,0.010585493,-0.01265494,-0.007767233,0.023335736,0.009346548,-0.0080463365,0.00109599,-0.013335679,-0.03068772,0.00855689,0.0077740406,0.013887078,0.008277788,0.0042954637,0.0052450947,-0.02690281,0.033383444,0.020286025,-0.030987244,0.00074838754,-0.031477377,0.018529719,-0.0030429037,0.0036725875,0.02616761,0.0123418,-0.005823723,-0.010980322,0.0045201075,0.022981752,-0.045255534,0.014050455,0.008835994,0.009496311,-0.029598536,-0.010054517,-0.17394246,0.0055139866,0.021620274,-0.037086666,0.013260798,0.004414593,0.01119135,0.008264173,0.015357474,-0.013022539,0.0037032207,0.0036045136,-0.0002061363,-0.013131457,0.020149877,0.015085178,-0.0013495652,0.0065453066,0.041470625,0.004503089,0.014935416,-0.030333735,0.03381912,-0.019632516,0.016487502,0.03504445,-0.006558921,0.015493622,0.012389451,-0.03934672,-0.01719547,-0.0076855444,0.0044690524,-0.014731194,0.04005469,-0.012151193,0.03820308,0.008781535,-0.017413307,0.004914936,0.015452778,0.03294777,-0.005660346,0.002894843,-0.0058713746,0.010374464,0.020490248,-0.012083119,-0.0069707683,-0.003801928,0.0033458327,-0.019455524,0.008264173,-0.013111035,0.02113014,0.009101482,-0.018856473,0.018747555,0.011518106,0.0016541961,0.022913678,-0.0332473,0.015207712,-0.0274474,-0.0016193081,-0.0038938278,-0.023866713,0.017154625,-0.022559693,0.016718952,-0.015588925,-0.008611349,0.011361536,-0.01753584,0.016678108,0.022164864,-0.0009811153,0.009591614,0.011674676,0.011477261,-7.275399e-05,0.007896573,-0.018053202,0.016977632,-0.020721698,-0.003105872,0.02004096,0.0080531435,-0.021089297,-0.009577999,0.01970059,-0.017059322,-0.018243808,-0.017644757,0.016446657,-0.0068550427,0.029843602,-0.014880957,0.0119265495,-0.010102169,-0.0033951863,0.015684228,0.020966765,-0.008461587,-0.0017716235,-0.016119901,-0.024275156,-0.004247812,0.019823123,-0.019959271,-0.010735256,-0.0007973157,-0.00026825376,0.011953779,-0.02240993,0.037794635,-0.008577312,-0.013744122,0.017603913,-0.015820377,0.03994577,0.0051395805,-0.008059951,0.023390196,-0.0140913,-0.0044894745,-0.09867994,-0.019060696,-0.009006178,0.012859162,0.018407185,0.051518336,0.0037134318,0.040408675,-0.020245181,0.03626978,-0.027719697,-0.03308392,-0.026861966,-0.001822679,0.01181763,-0.011974201,0.010708026,-0.013744122,-0.004969395,0.012913621,-0.0013674346,-0.013165494,0.01884286,-0.011940164,-0.013083805,-0.014050455,-0.028073682,0.0072022197,0.01907431,0.015330245,0.035425663,-0.016664494,0.027229564,-0.01119135,-0.0046664667,-0.007345175,-0.031940278,-0.014731194,0.021007609,-0.022682227,-0.011293462,-0.00795784,0.012900006,-0.024846977,-0.011456839,-0.009714147,0.017576683,0.020422174,-0.03066049,-0.040871575,-0.0196189,-0.0075698188,-0.021361593,0.0008351818,0.027815,0.017903438,0.027910303,-0.0017631142,0.0011104557,-0.0175903,0.0061436705,-0.011565757,-0.029053945,-0.007937418,0.0006518077,0.016147131,-0.03512614,-0.028400436,-0.002905054,-0.015588925,0.011729135,0.011804016,0.013635204,-0.004394171,-0.0131995315,-4.2732332e-05,0.006892483,-0.015970139,-0.0020592357,-0.0068039875,-0.0077876556,-0.023267662,-0.0032437218,-0.0010917353,-0.011940164,-0.016378583,0.00560929,-0.021429667,-0.021756422,-0.045146618,-0.016977632,0.005891797,-0.0035024027,-0.0076310853,-0.017957898,-0.011313884,-0.0013989188,0.009543962,0.025037585,0.008733883,-0.021279905,-0.018025972,-0.03934672,0.019441908,-0.0033781677,-0.024669984,0.0007441329,-0.0168551,0.017209085,-0.021497741,-0.0029561096,0.025037585,-0.011347921,0.004247812,-0.025214577,0.010129398,-0.0020711487,0.015793147,0.04441142,0.015725072,0.009789028,-0.01784898,-0.006538499,-0.009305703,0.018298266,0.005619501,-0.009435044,0.029190093,-0.016705338,0.046589784,-0.011368343,-0.004557548,0.006191322,-0.01753584,-0.008434357,0.018434415,-0.009094674,0.0019860563,0.018284652,0.029843602,0.006361507,0.032294262,-0.050102398,-0.036188092,-0.004904725,-0.025105659,-0.026630513,-0.0056433273,-0.025731938,0.0109599,0.0041082604,0.008985756,0.015956525,0.019945655,-0.049231052,-0.052280765,-0.009591614,-0.028264288,0.017712831,0.003476875,0.00023719502,-0.00795784,0.03640593,0.00767193,0.005466335,-0.0016644071,-0.012328185,0.0020813597,-0.019564442,-0.0017682199,0.028645502,-0.014336365,-0.016610034,-0.01836634,-0.012328185,0.019251302,0.028645502,0.02465637,-0.0051123505,0.011204965,-0.009121904,0.011409188,0.023648877,0.00044418225,-0.015017104,0.012845547,0.022654997,0.0138802705,-0.003856387,0.0051804245,0.0023043018,-0.030469881,-0.025800012,-0.01106201,-0.006058578,0.016119901,0.008284595,0.008931297,-0.008332247,0.028563812,-0.00061309064,0.011742749,0.030143127,0.018529719,-0.0033151994,-0.021756422,-0.017440535,-0.008611349,-0.017399691,-0.029108403,-0.012648133,0.0046562552,0.0007386019,0.013369716,0.01586122,0.012287341,-0.021824496,0.030333735,-0.010864596,-0.0061947256,-0.045092158,0.026576055,0.019224072,0.01067399,0.023526343,-0.013403753,0.037086666,0.038883816,0.026916424,-0.011552143,0.004581374,-0.00043312027,-0.00686185,-0.0119061265,-0.020708084,-0.007903381,-0.020966765,-0.019932041,-0.002591914,0.0066814544,-0.006763143,0.08533745,0.040844347,0.015806763,0.013628397,-0.012457525,0.0087270755,0.008189292,0.005565042,-0.000927507,-0.013301642,0.03166798,0.00827098,0.0022617558,-0.017712831,0.00073604914,0.0049830102,-0.020204337,0.024356846,-0.009407815,-0.012791088,0.0043533267,0.014894571,0.011334306,-0.009101482,-0.027937533,0.0005054488,0.017345233,-0.010129398,-0.027229564,-0.050129626,0.03313838,0.023975631,-0.054023456,-0.022015102,-0.03379189,0.020286025,-0.0050034323,-0.0087066535,-0.00031782006,0.012062697,0.0016056934,0.019836737,-0.033029463,-0.027488245,-0.02658967,0.010653567,-0.019196842,-0.02066724,-0.02368972</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> API’s similar to ChatGPT. You can get details of using openAI API’s from https://community.openai.com/. You may have to create an account in openAI for this step. You can look on a short course on youtube “Building Systems with the ChatGPT API: A short course from OpenAI and DeepLearning.AI”1. Also you can do a google search “How to </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.0015710978,-0.010673119,0.008910953,-0.019236978,0.0056502786,0.012508709,0.008036545,-0.0035677187,0.013062723,-0.024950668,0.019290378,0.01918358,-0.018796436,0.0040015853,0.009992282,0.0088976035,0.009558416,-0.0113873305,0.028408252,-0.029850025,-0.009965583,0.009398218,-0.008316889,-0.02121274,-0.00090361066,-0.0026065372,0.011794497,-0.021893578,-0.021586534,-0.0006320269,0.014925012,-0.029636428,0.004749171,-0.019584073,0.012421935,0.007342358,0.0014100665,-0.012982625,0.02022486,0.016687177,0.019971214,0.011981394,0.0124019105,-0.017728457,0.0014668029,-0.008710707,0.0059272856,-0.013710186,-0.0012014768,0.031745687,-0.023508897,0.01975762,-0.001271563,0.0035043075,0.0051763626,0.008724057,0.020184811,0.027900962,0.014965061,0.010432824,-0.0033457791,-0.012021443,-0.017301267,0.007582654,-0.011747774,0.0045289,-0.030864604,0.011173734,0.015592499,-0.0012557101,0.010946789,0.0022193948,-0.010779917,-0.024256483,0.03206608,0.015218706,-0.013610062,-0.01969087,-0.021332888,-0.020304957,-0.0014492815,-0.012782378,0.009958908,0.017474813,-0.0006228489,-0.013089422,0.029850025,0.010666444,0.0063177655,-0.009658539,0.010793267,0.0045722867,0.023602344,0.03163889,-0.024470078,0.027633967,-0.02376254,0.013303018,-0.004972779,-0.04560272,-0.02384264,0.030811206,-0.0207722,-0.009885484,-0.020291608,0.012875826,0.022534365,-0.009545065,0.01710102,0.007856323,0.012722304,0.026806282,-0.010412799,-0.025070816,-0.025164265,-0.007602678,0.008984377,-0.012028118,-0.026686136,-0.00530986,0.023148453,0.0056669656,0.010873365,0.013383117,0.017795207,0.018916585,-0.017902005,-0.003075447,0.015752696,-0.00933147,0.024122985,-0.011807847,0.0020174799,0.004028285,-0.03358795,0.025978599,-0.001339146,0.008310215,0.003152208,-0.029609729,0.021359587,0.017968753,0.0037078909,-0.011867921,-0.01009908,0.021145992,0.008170042,-0.018262448,0.004221856,-0.0025164264,0.028728645,-0.0054133204,-0.0518504,-0.00052481174,-0.0057237023,0.007622703,0.016500281,0.017261216,-0.014230825,0.002241088,0.007355708,0.026325691,-0.0039882357,-0.013790284,0.008316889,0.02645919,0.034976326,-0.0012315137,-0.0033758162,-0.010933439,-0.0041784695,0.00439874,-0.039221544,-0.0040483093,-0.013236269,0.005383284,0.016994221,0.00635114,-0.0014350973,-0.017474813,-0.0047258087,-0.0090511255,0.018596191,0.010793267,0.0051763626,-0.020411756,-0.009972258,-0.0075492794,0.014818214,-0.019317077,0.029850025,0.016219936,-0.0021693332,-0.021132642,-0.63138944,-0.024750423,0.0090511255,-0.010272627,0.006764982,0.017528212,0.0012657224,-0.010566321,-0.0021743393,0.036711793,0.00088608917,-0.0029886735,-0.016420184,-0.014257525,0.019624121,-0.023428798,0.0069151665,-0.026846332,0.01651363,0.021800129,-0.009565091,0.0072155357,-0.027313573,0.0075292545,-0.018088901,-0.01604639,0.00026928933,-0.004882668,0.0032022696,0.03777977,-0.033267558,0.0041784695,0.048486263,-0.023081705,0.037032187,-0.016086439,0.0046490477,0.020318309,0.014791515,0.021813478,-0.023188503,-0.00072046893,-0.0005786279,0.0124953585,-0.00532321,-0.005526793,0.0155391,-0.021666631,-0.016807325,-0.018916585,0.018969985,0.023535596,0.007188836,-0.0044755014,-0.0012774034,0.009044451,0.034095243,-0.002945287,-0.002359567,0.00085938966,0.0028952253,0.003075447,-0.04819257,-0.030517511,-0.023081705,0.012201665,5.6527817e-05,-0.008737407,-0.012742329,-0.0047057844,0.018182348,0.008497111,-0.0041384203,0.01864959,-0.016313385,0.02023821,0.024697023,-0.016727228,-0.020131411,0.011227134,0.02280136,0.00075759785,0.013790284,-0.03516322,0.017327966,0.020852298,-0.007709476,-0.016313385,0.032279678,-0.018182348,0.002241088,0.023068355,-0.013616737,-0.036952086,-0.01715442,-0.003210613,-0.009505017,-0.023548946,0.011948019,-0.005990697,-0.00439874,-0.024483427,0.00672827,0.021399638,0.041197304,-0.004759183,-0.0098521095,-0.011333931,0.022067124,-0.009404894,-0.01141403,-0.011434054,0.00093615067,-0.008997726,0.015899543,-0.024483427,-0.0016486932,-0.00033124047,0.025751652,-0.013556663,0.008971027,-0.01969087,-0.0042719175,0.006074133,0.013736885,0.034522433,-0.00091195427,-0.022667862,-0.009271396,0.020345008,-0.010933439,-0.024296531,-0.004345341,-0.0009753656,0.036631692,0.016139839,0.01766171,-0.0037579525,0.0012131578,-0.021613233,0.0054667196,0.0023512235,0.02436328,0.013750235,-0.020518554,-0.0023245239,0.0043386663,-0.005026178,-0.019503973,-0.022347469,0.010853341,-0.016286686,0.017234517,0.032306377,-0.017301267,-0.017861955,-0.0047157966,-0.031425294,0.02795436,-0.017741807,-0.005837175,0.007889697,-0.005209737,-0.0077628754,-0.013249619,0.012421935,0.011914645,0.021693332,-0.025351161,-0.016326735,0.009658539,-0.02123944,0.0055434806,0.019317077,0.026525939,0.022173923,-0.02488392,0.0012498696,0.018716339,-0.011654325,-0.0068751173,0.020171462,0.012408585,-0.030277215,0.02125279,0.00672827,0.007422457,0.03930164,-0.04031622,0.028808745,-0.017968753,0.016366784,-0.01115371,0.039648734,-0.012408585,0.02854175,0.020278258,0.0023512235,0.0006841743,0.0075025554,0.0011956363,0.014965061,0.014698067,-0.013489915,0.0013383117,-0.014417722,0.011988069,-0.03225298,0.009751987,0.014671367,-0.004098371,-0.004305292,0.007629378,-0.003844726,0.0112338085,0.0057637515,-0.0027066602,0.016406834,-0.024496777,0.015405603,0.024483427,0.013022673,0.026539288,-0.006805031,-0.019503973,0.013643437,-0.009705262,0.015325504,-0.01164765,-0.037112284,0.007976471,0.0023211865,0.011734423,-0.002531445,0.04616341,-0.010746542,-0.00544002,-0.0088976035,0.005460045,-0.013369767,-0.0043119667,-0.0021075907,0.026752884,-0.042665776,0.03951524,-0.002336205,0.030971402,-0.0033274232,-0.03374815,0.0035510315,-0.037726372,-5.5328426e-05,-0.014938362,0.009011076,0.020264909,-0.011807847,-0.010212553,-0.0009920527,-0.010773242,0.010172504,0.0048292694,-0.0018539454,0.016286686,0.016473582,-0.0035343443,-0.0030404038,0.0044755014,-0.025578106,-0.027340272,-0.022694562,-0.006841743,-0.0050695646,-0.005122964,-0.013182871,0.013923781,0.010673119,-0.0041083833,-0.00037420998,0.023201853,0.019370476,0.0010913415,-0.032359775,0.021132642,0.0020909035,-0.008937652,-0.0059272856,-0.0206921,-0.0049227173,-0.022707911,0.015058509,-0.010846666,0.011173734,0.010993513,0.010392775,-0.025271062,-0.0056436034,0.030250516,-0.013529964,0.017968753,-0.012695605,0.025831752,0.0012532071,-0.040796813,-0.032573372,0.02224067,0.0030237166,-0.040529817,-0.003122171,-0.011714399,-0.052411087,-0.009231347,0.01609979,-0.0018689639,-0.02376254,0.007255585,0.009671888,-0.0032389814,-0.0232953,0.00983876,0.011347281,0.01706097,-0.03150539,-0.0008527148,0.022627814,0.039061345,0.01507186,-0.01216829,-0.0021943639,-0.027740765,0.0030938028,-0.0062910663,-0.024857221,-0.0009987276,0.018716339,-0.024950668,-0.007455831,0.007462506,0.0038113515,0.013136147,0.0028368202,-0.023709143,0.006244342,0.011454079,-0.011207108,0.01654033,0.0014117353,-0.0018372583,0.007295634,0.045762915,0.018102251,0.0143376235,0.016500281,-0.021960326,-0.03567051,0.007041989,-0.004422102,-0.00087774557,-0.0064145513,-0.013736885,0.038500655,0.012782378,0.02273461,-0.0022193948,0.007355708,0.016687177,0.015392253,-0.0070620137,-0.02696648,0.016807325,-0.02689973,0.0061876057,0.00493273,-0.011440729,-0.027246824,-0.018449344,0.036925387,-0.03372145,0.005026178,0.024790471,0.022013726,-0.01349659,-0.011807847,0.007856323,-0.030277215,-0.043173067,-0.006948541,-0.016166538,0.0022077137,-0.00882418,-0.0041250703,0.004044972,-0.0076827765,-0.019303728,0.015525751,0.018569492,-0.0086506335,-0.03513652,0.0072622597,0.0027600592,0.009464967,0.017394714,-0.0043620286,-0.008376963,0.019811017,-0.0013783609,-0.05243779,0.008270165,-0.019811017,0.015338854,0.025431259,0.00058113097,-0.0048860055,0.008069919,0.01708767,-0.016727228,-0.0009912184,0.014444421,-0.0038814377,0.022080474,0.031905886,0.02233412,0.0021693332,0.0059573227,-0.023028305,-0.009671888,-0.034362238,0.005353247,-0.0058471872,-0.0037379279,0.018556142,0.019023383,0.04050312,0.0058204876,-0.0037045535,0.03372145,0.003814689,0.016139839,0.004632361,-0.0026649423,0.0012106547,0.009364844,0.011500803,0.012982625,-0.021506434,0.028381553,-0.06071463,0.02078555,0.035990905,-0.03777977,0.018289147,0.03737928,-0.009925533,-0.019557372,-0.008944327,0.012468659,-0.0018138962,-0.017795207,-0.019423876,-0.007943097,-0.015245406,-0.02651259,0.00957844,-0.011420704,-0.0073356833,-0.010846666,-0.011394005,0.00674162,0.002364573,-0.0017888654,-0.036204502,-0.01116706,-0.016633779,0.034362238,0.03740598,0.0013416491,0.028328154,-0.044694938,-0.052651383,-0.017354665,-0.014711416,-0.0030487473,0.0013466553,0.04886006,0.030277215,0.036898687,-0.016847376,0.033854946,-0.008497111,0.0031371894,-0.008603909,0.01603304,0.000100227364,0.0038046765,-0.024189733,0.002761728,-0.007295634,0.018355897,-0.00415177,0.008497111,0.013503265,-0.006835068,-0.005263136,-0.018022152,-0.05863207,-0.02328195,0.025017418,-0.0058305,0.01917023,-0.0517169,-0.009978932,0.02489727,-0.0047558458,0.01918358,-0.0038781,0.01820905,-0.0013082748,0.027220124,0.016954172,0.012568782,-0.024563527,0.0075960034,-0.03529672,0.0073690577,0.0025548069,0.027847562,0.01651363,0.007996496,0.0040516467,-0.0031205022,0.0124019105,0.0012673911,-0.03203938,-0.0023311987,-0.009751987,-0.027714064,-0.030918004,0.003801339,0.009264722,-0.013036024,0.02952963,-0.0007692789,0.030357314,-0.016393485,-0.007462506,0.017341316,-0.029930122,0.030437412,0.016887425,0.0258718,0.014324274,0.02078555,-0.008109968,0.020972446,-0.004896018,0.0013758579,0.005523456,0.015258756,0.008336914,-0.02385599,-0.0077028014,0.019931166,-0.015472352,-0.037138984,0.026258944,-0.0011263845,-0.007876348,-0.011654325,-0.012054818,-0.012475334,0.03369475,0.0042051687,0.0011455747,0.013570013,0.0018806449,-0.018102251,0.010566321,0.0030954715,0.02854175,0.025284411,0.03681859,0.016273336,0.015111908,-0.015192007,-0.0038580755,0.01660708,0.0065380363,-0.023655744,-0.010579671,0.022107173,0.01651363,0.0031472018,-0.0006387017,0.0066948957,0.03262677,-0.02798106,-0.019116832,-0.020932397,-0.0061575687,0.024309881,-0.025698254,-0.011193759,0.01399053,-0.034442335,-0.0151386075,0.035510316,0.00011128262,-0.00020629524,0.016940823,-0.0051096138,-0.007429132,-0.0042352057,0.00016728896,0.023108404,-0.025631506,-0.01503181,-0.002755053,-0.008210092,-0.01758161,0.0014334286,-0.026125446,-0.0012774034,0.03785987,-0.03358795,-0.008150018,0.0057737636,0.028675247,-0.024283182,-0.0019774307,-0.006344465,-0.03777977,0.006788344,-0.033908345,-0.015859494,-0.03014372,0.021399638,0.027206775,0.0025447947,0.012595482,-0.0072355606,0.013383117,-0.0035810685,-0.0046023238,0.000750923,0.010506247,0.005613567,-0.013182871,0.020678751,-0.012014768,0.031291798,-0.008697357,0.0018706326,0.0053131976,-0.03358795,-0.042345382,0.008156693,-0.018916585,0.0071287625,-0.0064546005,-0.016139839,0.000674162,-0.04354686,0.01061972,-0.011006863,-0.005219749,0.013343068,0.026392441,0.0017020921,-0.0015619198,-0.015192007,-0.005603554,-0.03777977,-0.004969442,-0.03724578,-0.0011338937,0.004855969,0.047044493,0.011861246,-0.030357314,-0.05131641,-0.0116877,-0.04755178,0.013236269,-0.015058509,0.037112284,0.0057136896,0.049580943,0.009585115,0.02073215,-0.0154456515,0.014818214,-0.039622035,0.017942054,-0.009137899,0.008230116,-0.014124027,-0.008563859,-0.011200434,-0.008497111,0.010659769,-0.01501846,0.0022911495,0.024616925,0.009311445,-0.0115408525,0.008951003,-0.004375378,-0.021065893,-0.0002676206,0.007142112,-0.032439873,-0.0088041555,0.0100657055,-0.012108216,0.0039748857,-0.00776955,-0.000280136,-0.0010521265,-0.009671888,-0.020985795,-0.010499572,-0.016486932,0.021946976,0.046670698,0.016847376,-0.0019407189,0.009224672,-0.011814522,0.0038514007,-0.014564569,0.0233487,0.01272898,-0.0002534365,0.020171462,-0.030010222,0.008330239,-0.017755158,0.015338854,-0.0023762542,-0.0036344673,-0.014043929,0.006995265,-0.018796436,0.013923781,-0.002466365,0.018929934,0.0012915876,0.0039715483,-0.0060040466,-0.031905886,-0.028648548,-0.0066681965,-0.0069351913,-0.00878413,0.009404894,0.0044721635,-0.038580757,0.009531716,0.023575645,-0.020091362,0.0007288125,0.19949855,-0.024470078,-0.000609082,0.010926764,-0.0073290085,0.00029327715,0.0097586615,0.0048492937,-0.006150894,-0.0030938028,-0.013029349,0.0033023925,-0.005316535,-0.01244196,0.0038814377,-0.027033228,-0.035910808,-0.038714252,-0.0008744081,9.662919e-05,-0.009464967,0.020878997,-0.019397175,0.008470411,0.008583885,0.019704219,-0.014457771,0.011020212,0.037432678,0.0018873198,-0.012128241,0.024149684,-0.008817505,0.00857721,0.0012698943,-0.012428611,0.046483804,-0.00036273754,0.036364697,0.02021151,0.0058805617,0.0059339604,0.017181119,-0.038126864,-0.014764815,-0.0025581443,-0.012295113,-0.021399638,0.013616737,0.016660478,-0.021145992,-0.0054834066,0.02591185,0.014858264,-0.007829624,-0.0092980955,-0.0035977557,0.0037446027,0.028408252,0.027633967,-0.0153522035,0.012982625,-0.015245406,0.02955633,-0.030971402,0.0050996016,-0.0075893286,-0.03246657,0.0066181347,0.0112938825,-0.0067716567,-0.012749004,-0.0058405125,0.0010679794,-0.025137564,-0.027059928,0.03268017,0.040529817,0.015285455,0.020812249,-0.006411214,-0.008570534,0.00024843035,0.009858785,-0.000648714,-0.022601115,0.027420372,-0.045389123,-0.010886715,0.004228531,-0.010960138,-0.015245406,-0.00072630943,0.0009761999,0.012235039,0.0009027763,0.028007759,-0.009231347,-0.010432824,0.0009970589,-0.0071154125,0.040529817,0.023121754,0.020037964,-0.02025156,-0.005576855,-0.008196742,0.0060707955,0.01716777,0.0003145533,-0.005430008,-0.020304957,0.003252331,0.008603909,-0.008830855,0.013670136,0.011841222,-0.0013708516,0.01059302,0.014978411,-0.022641163,-0.0017421414,-0.0063411277,0.012295113,-0.015886193,-0.0039949105,-0.027420372,-0.02123944,-0.026846332,-0.018409295,0.017314617,-0.013830333,0.0005498425,0.006734945,-0.020371707,0.015525751,-7.8012556e-05,-0.029743226,-0.012375211,0.00020671242,0.010726518,0.0010287645,0.010032332,-0.023175152,0.025431259,-0.0031138274,-0.0030604284,0.013122797,-0.007555954,0.0025064142,-0.010045681,0.0061108447,0.008283515,0.013316368,0.016366784,0.017488163,0.00094449427,-0.019584073,0.017902005,-0.0087440815,-0.005707015,-0.008216767,0.016807325,0.0069151665,-0.018769737,-0.023388749,-0.16863395,0.02019816,0.018569492,-0.010159154,0.0025264388,0.00959179,0.020638702,0.00095450657,0.013289669,-0.0049227173,0.0076961266,-0.006564736,-0.0011897958,0.00015998833,-0.010265952,3.410442e-05,-0.0012732317,0.009832085,0.032840367,-0.0020258233,0.020865647,-0.009918858,0.005046203,-0.007736176,0.024763772,0.024670323,-0.011734423,0.0046790848,-0.019637471,-0.036124405,-0.01755491,-0.00041759663,0.018769737,-0.013843683,0.017821906,-0.0010254271,0.050435327,-0.010312676,-0.028408252,0.014844914,0.024643624,0.0072756098,0.030010222,-0.026552638,0.011220459,-0.004085021,0.017247867,-0.026859682,0.029743226,0.0015010117,0.031825785,-0.019544022,-0.008230116,-0.012628856,-0.0073757325,0.022507666,0.004068334,0.0056970026,-0.0052531236,-0.038847752,0.018329196,-0.009898834,-0.008730732,-0.018088901,-0.0048693186,-0.017501513,-0.03895455,0.010746542,-0.03147869,0.016420184,0.0075492794,-0.011901296,0.0015777727,-0.013576688,0.021306189,0.017247867,-0.041651197,0.007923072,0.021639932,0.009184623,-0.0022794686,0.010432824,-0.0063077533,0.022948207,0.010132454,-0.005690328,0.0015026804,0.0027283535,-0.035376817,-0.026539288,0.034816127,0.0041017085,-0.008857554,0.0023495546,0.0062543545,-0.0016562024,0.030971402,-0.015779395,0.020545254,-0.00491938,0.004468826,0.016673828,0.003052085,-0.016847376,0.022347469,0.0073356833,-0.02025156,-0.008917628,0.008230116,-0.013029349,-0.018889885,-0.0015836132,-0.0074758558,0.0049460796,-0.022574414,0.046296906,-0.017448114,-0.030757807,0.021987027,-0.0041884817,0.0034208714,-0.00036419765,0.00066665275,0.031905886,-0.03302726,-0.009845435,-0.084690765,-0.004595649,0.02798106,0.011073612,-0.02228072,0.013443191,-0.0070820386,0.027847562,-0.010259277,0.019383825,-0.016647128,-0.018916585,0.0007254751,-0.001392545,-0.0023345363,-0.009238021,-0.026832983,-0.032920465,-0.016767276,0.008737407,0.009064475,0.013189546,0.008430363,-0.016713878,-0.012735655,-0.019997913,-0.027180076,0.0058571994,0.03003692,0.0010045681,0.01499176,-0.015218706,-0.0023211865,-0.009812061,0.0061408817,-0.0073757325,-0.024923969,-0.031184997,0.021065893,-0.009845435,-0.022614464,-0.003914812,0.021132642,-0.012448635,-0.0310248,-0.016086439,0.00090027327,0.041864794,-0.046964392,-0.030918004,-0.009371519,0.007983146,-0.033000562,-0.014124027,0.011814522,0.024496777,-0.0031922571,-0.004054984,0.004842619,-0.013116122,-0.02384264,-0.014698067,-0.008143343,0.017675059,0.014764815,0.011046912,-0.023722492,-0.015672598,0.018062202,0.013029349,0.02176008,0.016874075,-0.023709143,0.017341316,-0.018783087,0.0029586367,0.0026499238,-0.01764836,0.002820133,0.015432302,-0.029342733,-0.010826641,-0.0089576775,0.000223191,-0.021346238,-0.019557372,0.00021776768,0.0013675143,-0.021653282,-0.056816503,0.012642206,0.029369432,-0.008530485,-0.0073223338,-0.02073215,0.0002697065,-0.014097328,0.0030003546,-0.015325504,0.0077228257,-0.029663127,-0.008216767,-0.057350494,0.02233412,0.01092009,0.010933439,0.01919693,-0.014164077,0.016647128,-0.035617113,-0.01060637,0.023642395,-0.0124619845,0.0040483093,-0.007095388,-0.009278071,0.0019957866,-0.0048860055,0.031345196,-0.0031388581,0.022841409,-0.004825932,0.011914645,0.0006186771,0.04309297,0.015525751,0.001380864,0.007876348,-0.01860954,0.029235937,0.0035109823,-0.017020922,0.01112701,-0.0078029246,0.011774473,-0.0028351515,0.021506434,-0.00506289,0.0090511255,0.009011076,0.0103727495,0.02123944,-0.026152145,-0.015205356,-0.0017988778,-0.02436328,-0.015325504,-0.026245594,-0.005553493,0.015966292,0.013316368,0.004044972,0.0143376235,0.016793976,-0.046350304,-0.028301453,-0.010853341,-0.013309693,0.028808745,0.00071504555,0.010012307,0.022547714,0.052063994,-0.0039448487,0.015058509,-0.01711437,0.0046857595,-0.0044321143,-0.024630275,0.00934482,0.026499238,-0.039088044,-0.010719843,-0.002755053,-0.0034375587,0.014684716,-0.018903235,0.0003043324,0.007896373,0.022400867,-0.027660666,0.03420204,0.012542083,0.015645899,-0.019317077,0.0015302142,0.019036733,0.0059873597,0.0033758162,-0.0022928182,0.007402432,-0.013276319,-0.011026887,0.0017079327,0.0075693037,0.025311112,0.01659373,-0.0013858702,-0.014083978,0.01111366,0.002691642,0.017741807,0.030303916,-0.0027750777,-0.003701216,-0.00426858,-0.022467617,-0.01345654,-0.016954172,-0.02432323,0.0049560918,-0.015418952,0.0146446675,-0.014217475,0.0059439726,0.002164327,-0.008403663,0.01708767,0.0022210635,-0.020985795,-0.03150539,0.0005398302,0.0052130744,0.017741807,0.009658539,-0.013670136,0.04103711,-0.0032940488,0.015525751,-0.0035543689,0.036925387,0.002099247,-0.015966292,-0.015405603,-0.010299326,-0.013536639,0.0005406646,-0.011727748,-0.019971214,0.013449865,0.0021543147,0.08906948,0.022000376,0.0016511963,0.0044488017,-0.014925012,0.0011180409,0.01499176,0.002624893,-0.026659435,-0.009718613,-0.005546818,0.011073612,-0.008890929,-0.024857221,-0.0026832982,-0.01918358,0.0037646273,0.032573372,0.0070152897,0.013356417,0.010265952,0.024296531,0.0010930102,0.006474625,-0.03313406,0.013149496,0.0037212407,-0.005757076,0.0019440562,-0.017394714,0.026125446,0.013963831,-0.046457104,-0.01966417,-0.009291421,0.013910431,-0.012215015,-0.016206587,0.016713878,-0.0004144678,0.011467429,0.0075960034,-0.02273461,-0.028381553,-0.023228552,0.010679794,-0.016927473,-0.018289147,-0.030117018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Build an AI-Powered ChatBot with OpenAI, ChatGPT, Node.js, and React” and see the material available online2. [Marks 2%] 3. Further extend the above Chatbot by customising it to generate responses confined to a domain specific knowledge gathered by supplying a PDF to the system. You have to use embedding model API’s of OpenAI to gener</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.009343242,-0.010095949,0.0012093387,-0.0037082934,0.0062219226,0.0053794426,-0.010109761,0.008079522,-0.01803736,-0.030798862,0.010137383,0.030992217,-0.022857452,0.00093138934,0.008480045,0.011090352,0.008970341,-0.004554226,-0.000925347,-0.02176637,-0.019943299,-0.0021648975,0.0041951365,-0.012671729,-0.0037117463,0.0017971757,0.0206891,-0.046212103,-0.032262843,-0.0034527872,0.008569818,-0.018907463,-0.019335609,-0.009881877,-0.014681251,0.015316564,-0.017774949,-0.0057040043,0.042400226,0.0099992715,0.019128442,0.002732881,0.016269533,-0.015827576,-0.0045887544,0.006895216,-0.007920694,0.0019732679,-0.018548373,0.0015028256,-0.0152613195,0.029970193,0.0087355515,-0.0040294025,-0.00950207,0.005327651,-0.014957474,0.00429872,0.010075233,0.011097258,0.008183106,-0.014888418,-0.0035598236,-0.00020047746,-0.020979134,0.024846256,-0.024321433,0.012561239,0.008928908,-0.02488769,0.026365483,-0.005728174,-0.0069504604,-0.025564436,0.016683867,0.02151777,-0.020426689,-0.020841023,-0.024224754,0.002670731,0.008701024,-0.0134865865,-0.0073130033,0.014556951,0.030274037,-0.015951877,0.023175107,0.013693754,-0.0128858015,-0.015799955,0.009122264,-0.0018058077,0.016891034,0.026683139,-0.03549465,0.028810056,-0.023824232,0.008811513,-0.009944027,-0.024832446,-0.009198225,0.005400159,-0.01671149,-0.016007122,-0.0023824233,0.03140655,0.019929487,0.00018493991,0.024376677,0.029776836,-0.007803299,0.019874243,0.0033250342,-0.04400232,-0.0106898295,-0.006736388,0.002565421,-0.02309224,-0.03488696,-0.010227156,-0.0005684151,0.022097837,0.005096314,0.012091661,0.010896997,0.031075085,-0.032539066,-0.0057834187,-0.016269533,-0.01280984,0.014695062,0.0008558596,0.015648032,0.017995927,-0.048118044,0.01911463,-0.03148942,-0.0054623093,-0.025840659,-0.006719124,0.019542776,0.03618521,0.0040673832,0.015951877,-0.0058006826,0.0031316779,0.013617793,0.0018437883,0.012436939,0.020274766,0.0036875766,-0.0010988496,-0.017305369,0.0055935155,0.0040639304,0.015827576,-0.008756268,-0.0054277815,-0.0024273093,-0.007540887,0.027884709,0.030025437,0.0026551934,-0.0057972297,0.00039189134,0.018285962,0.044858612,-0.003943083,-0.010337645,-0.00895653,0.003487315,0.031213196,-0.03977611,0.01093843,-0.0035667291,0.012195244,0.0045956597,0.00079284626,-0.026310239,-0.011656609,0.00022788395,-0.0035339277,0.016007122,0.024735767,-0.0026776365,-0.027497998,0.007941411,-0.009647087,0.00811405,-0.020537179,0.03665479,0.0135763595,0.0060769054,-0.027553242,-0.6227171,-0.014004505,0.025661115,-0.03328487,0.019432286,0.014363594,0.010385984,-0.014998907,-0.0016029564,0.017705893,-0.008279784,0.0048546186,0.0076513765,-0.0029210579,0.01852075,-0.013313947,0.010834846,-0.023506574,-0.007920694,0.012858179,-0.0008062258,0.007803299,-0.021600636,-0.018672673,-0.030771239,-0.015371809,-0.0014726138,0.0076720933,0.00041390286,0.01899033,-0.02345133,0.028423345,0.028892923,-0.021738749,0.045493923,-0.013838771,-0.014501706,0.023741364,0.0016478427,0.02104819,-0.015357997,-0.008631968,-0.00020544084,-0.008618156,-0.023851855,-0.009163697,0.013030819,-0.0017402048,-0.032732423,0.0006465344,0.00895653,0.0016556114,-0.007920694,-0.008928908,0.0064359955,-0.0002429899,0.051515583,-0.011663515,0.012436939,-0.023893287,0.03148942,0.008417895,-0.04292505,-0.034914583,-0.029555859,-0.0013025639,-0.00436087,0.0024998179,-0.009136075,-0.026475972,-0.0013483134,0.010089044,-0.020357633,-0.0045887544,-0.013880204,0.01827215,0.024252377,-0.037069123,-0.03281529,0.024487168,0.018921273,-0.008514573,-0.010185722,-0.012533617,0.01875554,0.0015157736,-0.021780182,-0.020620044,0.014142617,-0.0031472156,-0.002246038,0.02669695,-0.024445733,-0.03452787,0.007409681,-0.0012473194,-0.005924983,-0.008528384,0.008272878,-0.025150102,-0.0147779295,-0.02092389,0.035163186,0.011553026,0.045493923,0.015067963,-0.007851638,0.014515517,0.016670056,-0.026890306,-0.01262339,-0.013969977,0.003057443,-0.020343821,0.026558839,-0.025702547,0.019998543,-0.011055824,0.016614811,-0.025219157,-0.0066535207,0.005369084,-0.012906519,-0.027829465,0.013873299,0.030246416,-0.0164767,-0.037013877,-0.01911463,0.009087736,0.004802827,-0.012360978,-0.010185722,-0.006622446,0.03472123,-0.004084647,0.024860067,-0.0017652374,0.008169294,-0.018451694,-0.014377406,0.021269169,0.017457291,0.0058973604,-0.023699932,-0.014391217,0.0020043429,0.0067225765,-0.002995293,0.01479174,0.011318237,0.00733372,0.024735767,0.0009909499,0.010496473,-0.030522639,0.000375059,-0.017388236,0.0070920247,-0.021807805,0.011477064,0.0048442604,0.008618156,0.023340842,-0.007202514,-0.011608271,-0.0114425365,0.03966562,-0.028340477,-0.017761137,0.009433014,-0.018051172,-0.019901866,0.02189067,0.013196552,0.010372173,-0.018810784,-0.012740784,0.010475757,-0.014957474,0.0016305788,0.010537907,-0.0014441282,-0.02416951,0.019225119,0.0023979608,0.04256596,0.032069486,-0.024141887,0.019929487,-0.00853529,0.031047462,-0.0010064874,0.044803366,-0.018258339,0.021006757,0.0051826336,0.00050022255,0.014253105,-0.003259431,0.012333356,0.03452787,0.013265609,-0.019100819,-0.0027225227,-0.027277019,-0.0019283816,-0.038560726,0.013603982,0.01022025,0.013203458,-0.0043677757,0.0014657081,-0.009950933,-0.003359562,0.009750671,0.014253105,0.0077135265,-0.02753943,0.016407644,0.012947952,-0.015551354,0.0027207963,0.0042434754,-0.03165515,0.03502507,-0.026973173,0.013120592,-0.004091553,-0.045134835,0.0063220533,-0.0041744197,0.013797337,0.009771388,0.03353347,-0.005082503,0.008638874,0.0028709925,0.044278543,-0.015675655,0.0069193854,0.016255721,0.008797701,-0.024804823,0.02633786,0.0023962343,0.03800828,-0.0072715697,-0.02994257,0.015910443,-0.03378207,0.020481933,-0.0020319652,0.008625062,0.028478589,0.005514101,0.021462524,0.0147779295,-0.00025615364,0.023865664,-0.007382059,-0.0045887544,0.015551354,0.0005446772,0.004343606,-0.013355381,-0.0038981966,-0.017291559,-0.012968669,0.0025101763,-0.006560296,-0.018810784,0.015924254,0.0068814047,0.035964232,0.011939738,0.0014501706,0.005503743,0.023838043,0.018134039,-0.015675655,-0.044527143,0.022525983,-0.008224539,0.0008627652,-0.007962127,-0.011090352,-0.00035736346,-0.03140655,0.00070393697,-0.009605654,0.017263936,0.013956166,-0.018796973,-0.009619465,0.012651012,0.011532309,-0.017346803,0.024086643,-0.016904846,0.014156427,-0.0019663624,-0.022774585,-0.030743618,0.009308714,0.0023219993,-0.050327826,-0.000191306,-0.024086643,-0.03223522,-0.0046439986,0.015496109,0.0065464843,-0.020109033,0.0027156172,0.0038222354,0.0013681669,-0.038919818,0.005949152,0.02597877,0.00661554,-0.018147849,-0.010613868,0.023423709,0.05035545,-0.008486951,-0.0008360061,-0.004098458,-0.011566837,0.007167986,-0.007513265,0.011994983,-0.0026172127,-0.0092465645,-0.03328487,-0.01076579,0.022056405,0.013686849,0.008839135,-0.0007073898,0.0013569454,-0.029749215,-0.0022840188,-0.021614447,0.030522639,0.0034182593,-0.0060251136,-0.009743765,0.022139272,0.009274187,0.015979499,0.030467395,-0.011456348,-0.03911317,0.013597076,0.017222503,0.0059629637,0.016987713,-0.013182742,0.043891832,0.01563422,0.03173802,-0.011684231,0.0054899314,0.016877225,0.020288577,-0.008107144,-0.011898304,0.007899977,-0.009557315,-0.0012619937,-0.009944027,0.0028537286,-0.025453947,0.0021372752,0.0020509555,-0.038422614,0.027788032,0.0062495447,0.024086643,0.005331103,-0.008127861,0.0140873715,-0.029472992,-0.020039978,-0.019183686,0.0017730062,-0.0067122183,-0.018976519,-0.015551354,0.0032697895,-0.009433014,-0.0010669113,0.007803299,0.005403612,-0.017346803,-0.03212473,0.0021286432,0.01184306,0.009191319,0.0122850165,-0.007782582,-0.012768407,0.005258595,-0.0048580715,-0.025523003,0.00011189189,-0.011525404,0.013804243,0.020620044,-0.003618521,-0.019073196,0.0006206385,-0.007941411,0.0056073265,-0.019749943,0.017415859,-0.0042262115,0.012830557,0.020426689,0.03159991,0.023879476,0.0129755745,-0.0108417515,-0.012112377,-0.020620044,0.00640492,-0.016794357,0.0018247981,0.006166678,0.0046094707,0.027732786,-0.011497782,-0.011145597,0.025550624,0.03030166,0.011767099,-0.007955221,0.004882241,0.0021648975,0.0062737144,0.014487895,-0.0025585154,-0.009874972,0.012740784,-0.03234571,0.021849237,0.008259067,-0.022084028,0.019625643,0.0039983275,0.017291559,-0.009129169,-0.012333356,-0.0110212965,-0.008949624,-0.0037186518,-0.022677906,0.01983281,-0.025633492,-0.018341206,0.024252377,0.0018265244,0.00030600326,-0.027470374,-0.0022891979,-0.006605182,0.012098567,0.016849602,-0.037538704,0.002877898,0.009522787,0.030163549,0.03090935,-0.00053086603,0.021987349,-0.0164767,-0.024155699,-0.024141887,-0.032207597,0.0033440243,0.030439772,0.036378566,0.028754812,0.023382274,-0.0034182593,0.025923526,-0.00691248,-0.0006193437,0.0026914475,0.0008295321,-0.00044713594,-0.0046439986,-0.008714835,0.00057488907,-0.008438612,0.030412149,-0.018299771,0.016338589,0.020606235,-0.013072252,-0.033643957,-0.023285598,-0.044223297,-0.010524095,0.040687643,-0.0139078265,0.014626007,-0.048504755,0.002468743,0.0286167,0.010544812,0.023437519,0.0050376165,0.020067599,-0.019294174,-0.0072715697,0.0036392377,0.0125543345,-0.021075813,0.023893287,-0.023023184,0.020468123,0.010351456,0.032760046,0.023589442,-0.008569818,0.009122264,-0.0038671216,0.011739477,0.0014622554,0.0028744454,0.0041295337,-0.019901866,-0.023893287,-0.0049996357,0.0018575995,-0.012505995,-0.010655302,0.006425637,-0.0044126622,0.029638724,-0.0102685895,-0.009170603,0.011704949,-0.016891034,0.038505483,0.006097622,0.019805187,0.006715671,0.0060596415,-0.00415025,0.011207747,-0.002223595,0.0007846459,0.013790432,0.044223297,0.0031385836,-0.012954857,-0.0048304494,0.022788396,-0.020868646,-0.023741364,0.012865085,0.0045956597,0.0014657081,-0.022305004,-0.021324413,-0.008038089,0.019390853,0.007941411,-0.018783161,0.0128858015,-0.0149298515,-0.017705893,-0.004481718,0.008272878,0.025895905,0.021006757,0.028147122,0.008486951,0.023699932,0.009384676,0.0145707615,-0.0007337173,0.02236025,0.0011014391,-0.011836154,0.015399431,-0.0035667291,0.007119647,0.0025360722,0.030992217,0.034306895,-0.0022097838,-0.010054517,0.004913316,0.007589226,0.032290466,-0.013617793,-0.0016564747,-0.0052206144,-0.05049356,0.0008752816,0.03438976,0.011808532,-0.022028781,0.010503379,-0.0051688226,-0.01755397,0.00019702467,-0.00071386376,0.017056769,-0.022981752,-0.020606235,0.007416587,-0.029749215,-0.00046094708,0.013700659,-0.009163697,0.0006543032,0.04281456,-0.017042957,0.004126081,0.016007122,0.020053787,-0.0244043,0.010448134,0.0046819793,-0.02320273,0.0064359955,-0.03209711,-0.010475757,-0.023589442,0.0036254264,0.018465506,0.0070540444,0.021117246,0.011912116,-0.010848657,-0.007181797,-0.0006905574,0.0014924672,0.024307622,0.027069852,-0.0007578868,0.024266189,-0.023050807,0.004505887,-0.009667804,0.022898884,0.011628987,-0.025785415,-0.036047097,0.00895653,-0.0034717775,-0.019556586,-0.001381978,-0.005596968,0.0062599033,-0.02969397,-0.0052827643,0.002328905,-0.0044333786,-0.0055935155,0.027442753,0.011559932,0.0035218429,-0.031765644,-0.009868066,-0.038312126,-0.0018161661,-0.036157586,0.025398703,-0.0050238054,0.041792534,0.02128298,-0.022677906,-0.04665406,-0.032428578,-0.04626735,-0.010586246,0.008120956,0.014833174,0.0040466664,0.03549465,0.0076513765,0.03715199,0.0002747124,0.012899613,-0.034362137,0.008162389,-0.0045818486,-0.023478953,-0.027484186,0.0034493343,-0.0018472412,-0.009398486,0.008162389,-0.019791376,-0.011097258,0.00950207,-0.016324777,-0.025384892,-0.002974576,0.0037462742,0.0072715697,0.006781274,0.023009373,-0.032760046,-0.017636837,-0.0027535977,0.0015356271,-0.014066655,-0.0074856426,0.003552918,0.012492184,-0.011649704,-0.018617429,-0.005887002,-0.015316564,0.0018800426,0.034665983,0.012450751,-0.02633786,0.012236678,0.009343242,-0.017388236,0.005113578,0.025550624,-0.010337645,-0.0021907934,0.02271934,-0.048173286,0.029970193,-0.0019663624,0.016131422,-0.034583118,-0.014819362,-0.007202514,0.005679835,-0.029666347,0.00018299773,0.023658497,-0.004706149,-0.016241912,0.012105471,0.0052275197,-0.02669695,-0.042510714,0.010013083,-0.0013742093,-0.0053967065,0.022498362,-0.007582321,-0.009605654,0.025799226,0.016932469,-0.028368099,0.010075233,0.20252669,-0.031682774,-0.0042745504,0.019805187,0.01791306,-0.0050272583,0.025633492,0.0040190443,-0.006549937,0.016159045,-0.008562912,0.008272878,-0.021628259,-0.013058441,-0.001245593,-0.032925777,-0.041737292,-0.046377838,-0.02680744,0.015730899,0.0050479746,0.0015917349,-0.0023409897,-0.014280728,0.0050099944,0.0020216068,-0.011753287,0.0051515587,0.016891034,-0.008169294,-0.006000944,0.0048925993,-0.004333248,0.0025464306,0.009446826,-0.023478953,0.029169146,-0.0092465645,0.016338589,-0.010448134,0.035411786,0.013017008,0.014280728,-0.011732571,-0.004592207,0.024721956,-0.010876279,-0.026835062,0.0039499886,0.009053208,-0.009978555,-0.0081762,0.029417748,0.0032145448,-0.012616484,0.007223231,0.0005779103,0.018341206,0.006536126,-0.0031161404,-0.02020571,-0.006777821,-0.0033457507,0.022940317,-2.7541373e-05,0.014819362,-0.019970922,-0.03375445,0.004170967,0.01268554,-0.02189067,-0.032428578,0.0032179977,0.0058697383,-0.017222503,-0.051874675,0.029307257,0.028727189,0.0087355515,0.017623026,0.005987133,-0.0039016495,-0.010800318,0.0012887528,-0.023603253,-0.051626075,0.013797337,-0.0122228665,-0.014764118,-0.0028830774,0.004253834,-0.008348839,-0.008079522,0.014446462,-0.003715199,0.009267281,0.013500398,0.010558623,-0.008991058,-0.0018886746,-0.023879476,0.05228901,0.01899033,0.006598276,-0.011249181,-0.018285962,-0.011932832,0.01816166,0.01755397,-0.010827941,-0.021932105,-0.028216178,0.023147486,0.009398486,-0.015206074,-0.007941411,-0.012347167,0.006895216,0.030135926,0.0058179465,-0.02549538,-0.01112488,0.007623754,0.014335972,-0.019045575,0.00017555265,-0.037234858,-0.013141308,-0.007872355,-0.003929272,0.008901285,-0.0021856143,-0.0011532309,0.027843276,-0.0021976992,0.007527076,0.023175107,-0.012146905,-0.010731262,0.014764118,0.028644323,-0.0025757793,-0.015482298,0.0006504188,0.014294539,-0.0066915015,0.008065711,0.023188919,-0.017857816,-0.02429381,-0.029914947,0.0050272583,0.007009158,0.0077963932,0.007022969,0.013707565,-0.006522315,0.0026103072,0.0033388452,0.007934505,-0.059222206,0.00823835,0.018921273,0.0057178154,-0.008811513,-0.02128298,-0.1767827,0.021365847,0.03030166,-0.043367006,0.021186301,0.010910807,0.023976155,0.013714471,0.004108817,-0.010185722,0.0098473495,-0.011815438,-0.010303117,-0.0015477119,-0.0071127415,-0.00010218092,-0.02573017,0.017636837,0.009785199,0.00393963,0.0052965754,-0.010959147,0.018341206,-0.011981172,0.008756268,0.011994983,-0.00853529,0.0050099944,-0.017139636,-0.034610737,-0.009011774,0.0014061476,0.02345133,0.0025343457,0.012602673,-0.019584209,0.033643957,-0.018064983,-0.030439772,-0.007105836,0.016504323,0.013099874,0.02561968,-0.016324777,-0.009992366,0.008058805,0.019266553,-0.032152355,0.009854254,-0.009329431,0.03231809,-0.010054517,0.008162389,0.004944391,0.009032492,0.0075685093,-0.007768771,0.008666496,-0.0002706122,-0.013389909,0.027608486,-0.016338589,0.00943992,-0.013963072,-0.013279419,-0.022235949,-0.019377042,0.0028312856,-0.02825761,0.029086279,-0.022401683,-0.007920694,-0.0027656825,-0.004022497,0.022056405,0.016089989,-0.0089150965,0.0016582011,0.027705165,0.009108452,-0.01875554,0.027995199,-0.034665983,0.013990694,-0.0019283816,-0.0070160637,0.01268554,-5.923688e-05,-0.014322162,-0.016863413,0.016725302,-0.010399795,-0.021697314,-0.0070644026,-0.0060872636,0.008846041,0.028671945,-0.019708509,0.0034424288,-0.01816166,0.022857452,-0.0010030346,-0.005258595,-0.007975939,0.03546703,0.00811405,-0.0058110408,-0.0054243286,0.030329283,-0.0046439986,0.0038464048,0.007416587,-0.00027751777,0.004060478,-0.02151777,0.03334011,-0.013597076,-0.02488769,-0.005372537,0.00038196458,0.027967576,0.010510284,0.016683867,0.033975426,-0.013272514,-0.02680744,-0.1012081,-0.029279636,0.023727553,0.006380751,0.008031183,0.02969397,-0.01064149,0.038698837,-0.03693101,0.045742523,-0.013866393,-0.010586246,0.003570182,-0.008431707,0.0026897213,0.0060907165,0.0017074032,-0.02271934,-0.017084392,0.008604346,0.0042262115,0.0013120591,0.029666347,-0.03414116,0.00775496,-0.009218941,-0.017581593,0.00042728242,0.022995563,-0.010372173,0.030384528,-0.027705165,0.0015667022,-0.024362866,-0.0044575483,-0.01959802,-0.0058144936,-0.013431342,0.009467542,-0.024487168,-0.009032492,-0.020771967,0.01936323,-0.013521114,-0.022332627,-0.018866029,0.0026241182,0.035411786,-0.0070989304,-0.03897506,-0.027207963,-0.006035472,-0.016324777,-0.004978919,0.02488769,-0.0016866865,-0.00015462012,-0.012920329,0.001530448,-0.016103799,-0.011767099,-0.028948167,-0.027953764,-0.008390273,0.007188703,0.0019732679,-0.033395357,-0.030412149,-0.0030332736,-0.022746962,0.0120433215,-2.9078941e-05,0.0022201422,0.012485279,-0.0017781854,-0.02020571,-0.004077742,-0.024459545,0.011898304,0.012630296,-0.024086643,-0.023257975,0.008942719,-0.0017436575,0.0026103072,-0.01923893,-0.014170239,-0.0064567123,-0.009536598,-0.025757791,0.0017574687,0.023768988,-0.004530057,-0.014474084,-0.014405028,-0.0017212144,-0.0035183902,0.002798484,-0.003311223,0.016103799,-0.040245686,0.0016866865,-0.063255064,0.00366686,-0.010240966,-0.017692082,0.013383003,-0.01984662,0.0012835737,-0.0035218429,8.0601e-05,0.0095780315,-0.013776621,0.0074234926,-0.022443118,0.0023530745,0.017332992,-0.0012352347,0.024846256,0.020854834,0.0066673323,-0.017719705,0.0058179465,-0.0056004208,0.007789488,0.018230716,-0.01527513,0.02271934,-0.013797337,0.02693174,8.216555e-05,0.011470159,0.010648396,-0.01911463,0.015841387,-0.014860796,0.015302753,-0.014114994,0.013521114,0.025564436,0.008010467,0.037069123,-0.029141523,-0.03546703,0.0021372752,-0.024749579,-0.011276803,-0.020620044,-0.020012354,-0.008120956,0.028271422,0.0019905318,0.05927745,0.013914732,-0.04030093,-0.041184846,-0.013010102,-0.02103438,0.03306389,-0.0007988886,0.019266553,0.0017402048,0.048173286,-0.0063531282,0.010924619,-0.010372173,0.00087743957,-0.007803299,-0.020509556,-0.00047303183,0.024473356,-0.023534197,-0.0057005514,-0.014101183,0.0014846985,0.009274187,0.010296212,0.0068054437,-0.0035943515,0.017816382,-0.005189539,0.026365483,0.019888055,-0.0057834187,-0.009950933,0.025923526,0.017512536,-0.003780802,0.00486843,-0.010558623,0.012616484,-0.014039033,0.014322162,-0.015979499,-0.0062253755,0.008328123,0.014736496,-0.0095780315,-0.006719124,0.025633492,0.021628259,0.01076579,0.027456563,0.006543032,-9.3117356e-05,-0.02309224,-0.025536815,-0.009881877,-0.03485934,-0.032511443,-0.006964272,-0.010468851,0.004723413,-0.0008394589,-0.009329431,0.0051826336,-0.009025586,0.02597877,0.004726866,-0.016891034,-0.028078066,0.035632763,-0.0017194881,0.029113902,0.01106273,-0.016808167,0.045908257,0.00077385595,0.016393833,-0.011953549,0.028478589,-0.024197133,-0.026268804,0.0026137598,-0.026876496,-0.00034355232,-0.008404084,-0.005224067,-0.016573379,0.0286167,0.004319437,0.10015845,0.028478589,0.0062875254,0.025398703,-0.014018316,0.0029365956,0.005676382,-0.0048304494,-0.0125543345,-0.0062806197,-0.0012386874,0.018216904,0.005707457,0.016559567,0.0010910807,-0.017277747,8.680523e-05,0.029970193,0.03392018,0.019501342,0.01696009,0.010662206,0.0033561091,0.0145983845,-0.023175107,-0.00042210324,0.025771603,-0.02128298,0.0070540444,-0.022456927,0.030274037,-0.006373845,-0.020841023,-0.036627166,-0.016172854,0.018589806,0.00058179465,-0.014474084,-0.003083339,0.019708509,0.021338224,0.024003776,-0.025440136,-0.011352764,-0.022705529,0.016490512,-0.014391217,-0.005918077,-0.031461798</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ate the embedding of a given PDF and use it as a database for providing domain specific responses. Search on google “Customizing an OpenAI Chatbot With Embeddings” and visit page 3. [Marks 3%] 1https://www.youtube.com/watch?v=BunESRhYhec 2https://www.freecodecamp.org/news/how-to-build-a-chatbot-with-openai-chatgpt-nodejs-and-react/ 3h</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.002289809,-0.0007316525,-0.0013279221,-0.0014407411,0.017944079,0.001642144,-0.0024017922,-0.013023498,-0.015483788,-0.019521875,0.0054220003,0.021126412,-0.0013797353,0.0004259964,-0.0060303872,0.020123577,0.01597852,0.0012017319,-0.0017315636,-0.015844809,-0.021808341,0.0012142673,0.009754252,-0.02097933,-0.01609886,0.003215761,0.025605747,-0.040728513,-0.033401124,-0.0044893627,0.008557534,-0.019080628,-0.019481761,-0.0029199242,-0.008664504,0.0051311776,-0.0109643405,-0.01795745,0.048644233,0.00069488183,0.012268027,0.0016897788,0.011753239,-0.028587513,-0.00039800056,0.005064322,-0.0101487,-0.022008909,-0.0052481755,0.0030369218,0.023961095,0.056212302,-0.0001261902,-0.0038642616,0.00078680844,0.015550644,-0.021113042,0.0057963924,0.017649915,0.0077686366,0.015323334,0.0019371449,0.00095854414,-0.0023249083,-0.02306523,0.0013864208,0.0021510832,0.020992702,0.0005340102,-0.008784844,0.02389424,0.013718797,-0.012622363,-0.021032814,0.030967576,0.012996756,-0.02925607,-0.017329007,-0.025712715,-0.004362337,-0.0031589335,-0.014494323,0.000917595,0.02330591,0.009125808,-0.014079818,0.0109843975,0.015911665,-0.0070666512,0.0026993004,0.0037038077,-0.0026775722,0.01270259,0.026087109,-0.007420987,0.04637114,-0.026287675,0.011118109,0.010282412,-0.019388163,-0.021714743,0.018973658,-0.018692864,-0.015457046,-0.014694891,0.005017523,0.016473254,-0.017810369,0.003780692,0.027009718,-0.008263369,0.033294156,-0.0072204196,-0.03321393,-0.018051049,0.0003570514,-0.0027711703,-0.026127221,-0.03377552,-0.027357368,0.0170081,0.04043435,0.021821713,-0.0048737833,0.016299428,0.024683138,-0.007895662,-0.0050710076,-0.0026942862,-0.012448538,0.024562797,0.014721633,0.026180707,0.007761951,-0.04966044,0.029630462,-0.026327789,0.0073474455,-0.03318719,-0.01363857,0.016473254,0.027918955,-0.013357776,0.0036469805,-0.015176252,0.028774709,0.013250807,0.0012000605,0.011746553,0.014200158,0.014975685,0.023827385,-0.035861418,0.0163128,-0.004278767,0.0066354317,-0.015323334,-0.007026538,0.0028246548,-0.019882895,0.026769036,0.022062393,-0.0089386115,-0.0039277747,0.012749389,0.023827385,0.027410852,0.0032023897,-0.003717179,-0.009493515,-0.011632898,0.024148291,-0.032545373,-0.007133507,-0.008316854,0.0020959273,0.011813409,0.010770459,-0.025940025,-0.012943271,-0.001261902,-0.0063312384,0.014641406,0.014494323,-0.010188814,-0.020471226,-0.0003188183,-0.018786462,0.01946839,-0.021059558,0.024990674,0.022436785,0.021072928,-0.024201777,-0.62940663,-0.00014562016,0.043750394,-0.019053886,0.017743513,0.017382491,-0.01597852,-0.02120664,-0.012341569,0.038187996,0.009239463,-0.006578604,-0.022022279,0.00095436565,0.023747157,-0.005144549,0.0043255663,-0.02250364,-0.010763774,0.014855345,-0.008356967,0.01125182,-0.014654777,-0.012675848,-0.002956695,-0.0022597238,-0.018091163,-0.009065637,0.011439016,-0.0006581112,-0.023600075,0.03425688,0.03717179,0.00780875,0.04941976,-0.014387354,-0.011071309,0.025886541,0.007681724,0.029683948,-0.015136139,-0.015818067,0.005883305,0.006461607,-0.010248984,0.02087236,0.012568878,-0.0032107467,-0.040995937,0.007915719,0.01329092,0.016540108,-0.012435167,-0.01712844,0.01712844,-0.01585818,0.03439059,0.0015945093,0.031609394,-0.0016413083,0.03310696,0.013197322,-0.031288486,-0.034337107,-0.026006881,0.015764583,0.00045503685,0.013197322,-0.00010749149,-0.03112803,0.018893432,0.015925037,-0.013758911,-0.014895458,-0.009012153,0.029630462,0.026996346,-0.025966767,-0.03273257,0.013183951,0.009219406,0.0025990168,-0.008497364,0.004592989,0.010175443,0.043857362,-0.03508589,-0.011164908,-0.008163085,-0.009453401,0.0013680354,0.027223656,-0.034283623,-0.03751944,-0.00020892418,0.014841974,0.007227105,-0.003700465,0.02297163,-0.008463936,-0.005896676,-0.02668881,0.023332652,0.008731359,0.047012955,0.008517421,-0.0054687993,0.015483788,0.019909639,-0.013972849,-0.026073737,-0.009052266,0.014039705,0.0077686366,0.017783625,-0.034764983,0.018626008,-0.013919365,0.01066349,-0.01968233,0.0030536358,-0.015644243,0.0075814403,-0.013478116,0.014494323,0.027758501,0.0023081943,-0.032759313,-0.02587317,0.0047935564,0.01008853,-0.016499996,0.009587113,-0.0034898694,0.019976495,-0.0058231344,0.025538892,-0.0063312384,-0.011746553,-0.031235,-0.0031004348,0.017275522,0.03508589,-0.024415715,-0.03088735,0.0027511136,-0.0141600445,0.013946107,0.0030870636,0.016393026,0.03414991,-0.0017315636,0.007100079,0.0053083454,-0.0019471733,-0.025137756,0.0036770655,-0.026675439,0.0040681716,-0.023025116,-0.0031923614,0.0141333025,-0.008811586,0.0014883758,0.0020424428,-0.021113042,-0.0058766194,0.049125593,-0.02295826,-0.03206401,0.02623419,-0.021139784,-0.010402752,0.02424189,0.004863755,0.04126336,-0.03554051,-0.012502023,-0.00393446,-0.012395053,-0.015309963,0.0031923614,0.014721633,-0.015002428,0.029817658,0.0015819739,0.019642215,0.024001209,-0.027999183,0.0040982566,0.00978768,0.028025925,-0.004592989,0.028828193,0.0003179826,0.012461909,-0.008751416,0.006444893,0.0065050633,-0.00021028219,0.016700562,-0.0013763924,0.01043618,-0.012040718,-0.010429495,-0.02925607,-0.0013421288,-0.043188807,0.01141896,0.008751416,0.005896676,0.0029633804,0.0013872565,-0.016927872,-0.006478321,0.03219772,-0.0023432935,0.0071268217,-0.02122001,0.016807532,-0.008590962,-0.008845014,0.01842544,0.013812395,-0.021420578,0.019521875,-0.015122768,-0.010155386,0.0027176857,-0.05097081,0.021514175,0.015216365,0.009299633,0.0109643405,0.035139374,-0.0051980335,0.011846837,0.0025589033,0.03952511,-0.0059969597,0.006130671,0.028025925,0.024415715,-0.02424189,0.0054052863,0.0042620534,0.038722843,0.014480952,-0.016727306,0.008818272,-0.034096427,0.0017883909,0.0053083454,0.012876415,0.0196957,-0.002667544,-0.0011340404,0.021514175,0.001980601,0.03441733,-0.007166935,-0.0072204196,0.005642624,0.0066387746,0.01898703,-0.020899104,-0.013264178,-0.0170081,-0.012535451,-0.0033728718,-0.01723541,-0.0291491,0.004509419,-0.008002631,0.025365066,0.009827794,0.01841207,-0.004071514,-0.0011624541,0.025940025,-0.024348859,-0.041878432,0.026394645,0.0046832445,0.011211707,-0.009520257,-0.0022313101,0.010696918,-0.045140993,0.008310168,-0.018144647,0.05139869,0.031101288,-0.024295375,-0.0038642616,0.013852509,0.019374792,-0.0026708867,0.008263369,-0.003653666,0.015296592,-0.0025171184,-0.023613445,-0.018933544,0.027678275,0.0024903761,-0.026100479,-0.011806723,-0.034925435,-0.014347241,0.0088851275,0.014935572,0.0022196104,-0.010242299,0.011880265,0.016165717,-0.005702794,-0.0032257892,0.01934805,0.021768227,-0.0016764075,-0.031876814,0.0025355038,0.02623419,0.04112965,0.007588126,2.3007775e-05,0.0051512346,-0.0021209982,0.014708262,-0.018345214,0.0046297596,-0.003603524,0.0033444583,-0.02155429,-0.017382491,0.016339542,0.0070733367,0.0120206615,-0.010583263,-0.017997565,-0.0039110607,-0.00856422,-0.017115068,0.017168554,-0.016566852,-0.009306318,0.003700465,0.027811985,-0.010656805,0.01690113,0.02318557,0.006210898,-0.032117497,0.020377629,-0.0038141198,0.01258225,0.024910448,-0.025391808,0.026769036,0.011178279,0.01736912,0.01934805,0.0034932122,0.0032140894,0.032117497,-0.010549835,-0.014066447,-0.0011256834,-0.008992096,-0.001047128,0.005739565,-0.0059200753,-0.014320498,-0.00082148984,0.005549026,-0.027517822,-0.004298824,0.013197322,0.01188695,0.018679492,-0.0039912877,0.00017079551,-0.045167737,-0.01747609,-0.021139784,-0.014735004,-0.017690027,-0.0054687993,-0.013464745,0.00020485015,-0.003356158,0.008363653,0.006819285,0.008631076,-0.028400317,-0.033909228,0.0009961504,0.0077352086,0.0028965247,0.021714743,-0.015844809,-0.0032140894,-0.011392217,-0.009139179,-0.018144647,-0.0023549933,-0.03217098,0.0070599657,0.009994932,-0.013297606,-0.027076574,-0.008945297,-0.01286973,-0.00018092834,-0.0065184343,0.009299633,-0.0077686366,0.013210693,0.015497159,0.022075765,0.02354659,0.017315635,-0.023559961,-0.0066688596,-0.021861825,-0.010262355,-0.03297325,0.007895662,0.010857372,0.009633912,0.01807779,4.6590092e-05,-0.008497364,0.006759115,0.010489665,-0.0010070145,0.008163085,0.041397072,-0.009266205,0.0038141198,0.015283221,0.006785857,0.006886141,0.0020792135,-0.021754857,0.00033824824,0.024629653,-0.0035333256,0.0052916314,-0.010269041,-0.00015564851,0.003224118,-0.021848455,-0.0141333025,0.01758306,-0.022089135,-0.0078154355,0.002455277,-0.025726087,-0.022771064,-0.0010504707,-0.019655587,0.0034179995,-0.007715152,-0.019668957,-0.0064081224,-0.010061788,0.0061507276,-0.031154772,-0.020912474,0.012655791,0.032117497,0.041290104,-0.0068159425,0.015015799,-0.013130466,-0.012736018,-0.0075078993,-0.021835083,0.0028714538,0.03286628,0.04022041,0.028480543,0.03251863,-0.012241285,0.02273095,-0.009072323,0.0088717565,0.005599168,0.0032558744,-0.021808341,-0.0014616335,-0.0010604991,0.011499187,-0.009286262,0.030405989,-0.0014724976,0.017435975,0.022543754,-0.036316037,-0.020110205,-0.02215599,-0.03147568,-0.024455829,0.03516612,-0.01956199,0.010228927,-0.04920582,-0.0109777115,0.019321308,0.025726087,0.031208258,-0.005609196,0.024228519,-0.01841207,-0.012468595,0.01176661,0.004141713,-0.004720015,-0.0015610814,-0.018318472,0.012408424,0.007935775,0.034551043,0.0007922405,-0.013665313,0.021942053,-0.006511749,0.025833057,0.01345806,-0.0088516995,-0.0027694989,-0.025685973,-0.03997973,-0.025351696,-0.01783711,-0.006080529,-0.014307127,0.0045495327,-0.00821657,0.013310977,-0.016834274,0.00048804688,-0.004910554,0.0043523083,0.04698621,0.010242299,0.026876006,0.01854578,-0.002642473,-0.0025839743,0.020792134,0.006662174,-0.0028981962,0.015925037,0.045515385,-0.004509419,-0.030352505,-0.010215556,-0.0015518888,-0.0060939,-0.010489665,0.022236219,0.014240271,-0.016713934,-0.0033244016,-0.014601293,-0.012515394,0.026769036,-0.023439622,0.012595621,0.006130671,-0.017690027,-0.023225682,0.016152347,0.02005672,0.023626817,0.009861222,0.011452388,0.0022028964,0.019267824,0.0075546983,0.017636543,0.017489461,0.019281194,0.006368009,-0.013598457,0.02122001,0.008717988,0.005692766,0.0099481335,0.010382696,0.03158265,-0.00029270278,-0.00049473246,0.016954614,0.0002195793,0.0156175,0.009179292,-0.004562904,-0.00237505,-0.019642215,-0.014962314,0.024068065,0.004623074,-0.0023650217,0.0044024503,-0.005351802,0.01865275,0.0017549631,-0.006190841,0.0141600445,-0.021233382,-0.0062476685,0.004572932,-0.021233382,0.01888006,0.00856422,-0.00230318,0.00090756663,0.022717578,-0.021340352,-0.011893636,0.012288084,0.018626008,-0.030940834,-0.0059200753,-0.013197322,-0.023640187,9.662743e-05,-0.021006072,-0.0073140175,-0.0291491,0.0011148194,0.01863938,0.011967177,-0.005124492,-0.004509419,-0.005930104,-0.0070198523,-0.0042386535,-0.014882087,0.014641406,-0.0022296389,-0.0069596823,0.024455829,-0.025940025,0.007634925,-0.0068928264,0.0055089127,0.024282003,-0.033615064,-0.027143428,-0.013210693,0.0022697523,-0.022182733,-0.0074878423,-0.013284234,0.0034012855,-0.028132893,0.020658422,0.020725278,-0.014587922,0.0120006045,0.025084272,0.026541727,-0.020845618,-0.03709156,-0.0007103422,-0.022008909,-0.00664546,-0.02388087,0.018933544,-0.022811176,0.035941646,0.0284538,-0.03532657,-0.045756064,-0.011098052,-0.03789383,-0.023399508,0.0046163886,0.0036804082,0.01806442,0.01933468,0.008577591,0.030833865,0.0066354317,0.020431112,-0.024054693,0.0016429797,-0.0025171184,-0.031315226,-0.031395454,-0.0017516203,-0.010349268,0.0015711098,0.008617705,-0.010676861,0.00304695,0.029550236,-0.013825766,-0.02598014,-0.009199349,0.0012067461,0.0017532917,0.013317662,0.025592376,-0.03289302,-0.002821312,-0.0035032406,0.01688776,-0.005415315,-0.013438003,0.005609196,0.00032299678,0.012608992,-0.016914502,0.0019087313,0.0008143864,0.008310168,0.04920582,-0.012629049,-0.02925607,0.021808341,0.01539019,-0.020003237,-0.020203803,0.017288893,-0.0008866742,-0.007681724,0.014534437,-0.038081028,0.018211503,-0.018398698,0.015416932,-0.024776736,0.009292947,0.0013421288,0.0032040612,-0.020083463,-0.0053417734,0.010021674,-0.02680915,-0.024148291,0.0047400715,0.0032608886,-0.020497968,-0.027544564,0.005161263,0.009580427,0.00319069,0.030111823,-0.0047634714,-0.017649915,0.027237026,0.011652955,-0.014467581,0.013030183,0.19971146,-0.02925607,-0.014467581,0.013799024,0.0033327586,-0.0011390547,0.018679492,-0.0006764965,-0.024335489,0.0053685154,0.0073808734,0.005331745,-0.034230135,-0.012836302,0.0040681716,-0.022931518,-0.04348297,-0.049312793,-0.028534029,-0.0130970385,-0.0011081338,0.008617705,0.0039110607,-0.008731359,0.006220926,-0.009653969,-0.0055423407,0.010456237,0.007501214,0.0072805895,0.00014321752,0.0017089997,0.010035046,-0.005060979,-0.021166526,-0.013117095,0.021848455,-0.00827674,0.020350887,-0.011158222,0.015457046,-0.01667382,0.0056793946,-0.00088082434,-0.00956037,0.005612539,-0.010095216,-0.013565029,0.006598661,0.016299428,-0.0024235204,-0.0050576366,0.02890842,0.017262151,-0.02866774,-0.0068727694,0.007086708,0.017743513,-0.0025672603,-0.005662681,-0.01783711,0.0032257892,0.03460453,0.009513571,-0.008824958,0.0015117753,-0.019053886,-0.01573784,-0.014173416,0.007494528,-0.005662681,-0.032679085,0.010041731,0.0020190433,-0.01323075,-0.040273894,0.028427059,0.039792534,0.021808341,0.040273894,0.0012184458,-0.023814013,-0.007354131,0.0047133295,-0.026448129,-0.06616043,0.013257492,-0.015684355,0.000956037,-0.021113042,0.0072672185,-0.0028614255,-0.005395258,0.0035934958,-0.0006092229,-0.014280385,0.018358584,0.022931518,-0.010596634,0.0048737833,-0.025498778,0.05396595,0.012789503,0.001438234,-0.013478116,-0.008831643,-0.031074546,-0.0041784835,0.019414905,-0.0028246548,-0.0068928264,-0.029844401,0.015844809,-0.007588126,-0.011352104,-0.0053116884,-0.0018853317,0.0033026733,0.012588935,-0.005161263,-0.03005834,0.0007985082,-3.1155818e-05,0.017623171,-0.013531601,-0.006304496,-0.034283623,0.00018218189,-0.011439016,-0.0037740064,0.0033946,-0.015136139,-0.009279576,0.019481761,-0.00903221,0.020257289,0.004452592,-0.0011758253,0.0053919153,0.02085899,0.019615473,-0.01945502,0.009707453,0.0016296086,0.0074276724,-0.01853241,9.140433e-05,0.034069683,-0.01679416,-0.013511544,-0.040059958,0.005672709,-0.02495056,-0.0005248175,0.008256683,0.013157208,-0.006852713,-0.040755257,-0.0120607745,-0.0098879635,-0.060330614,0.0059234183,0.015296592,0.011118109,-0.023145456,-0.028213121,-0.1693322,0.02995137,0.034551043,-0.03949837,0.0038910038,0.0088984985,0.022209475,0.008377024,-0.002085899,-0.028373575,0.0014516051,-0.009774309,-0.017930709,-0.00740093,0.0071201357,0.009694082,-0.0057295365,0.01206746,0.024910448,0.0006280261,0.011626213,-0.016366284,0.01445421,-0.008604333,-0.0054654563,0.017917337,-0.00956037,0.0029466667,-0.0081564,-0.018572524,0.0017616487,0.011245135,0.044686373,0.010242299,0.0038107769,-0.0109375985,0.046237428,-0.01345806,-2.5710731e-05,0.007975889,0.020364257,0.018051049,-0.0073608165,0.0043389373,-0.0068794554,0.0045528756,0.012374997,-0.023212312,0.010696918,-0.0047734994,0.017930709,-0.013284234,0.015363448,0.0069730533,0.011666326,-0.0022998373,0.010516407,0.015443675,-0.017048214,-0.020123577,0.003386243,-0.03088735,-0.0064716353,-0.024776736,-0.02179497,-0.035460282,-0.029924627,-0.0014967328,-0.015938407,0.0130836675,-0.007982575,0.00084196444,-0.009386545,0.012608992,0.013150523,0.039578594,0.0016195802,-0.00603373,0.022985002,0.013397889,-0.0058899904,0.014989056,-0.018478926,0.016700562,-0.0026207448,-0.0044459063,0.01655348,-0.008550849,-0.025244726,-0.0007834657,0.02285129,-0.018278359,-0.0109977685,0.008691246,-0.0025889883,0.01468152,0.026795778,-0.009660654,0.007160249,-0.006127328,0.0018301758,-0.0016580223,-0.03134197,0.0022296389,0.021688001,-0.0049707238,-0.018024307,-0.007855549,0.057495933,-0.011519243,-0.00074377004,0.008751416,0.014280385,-0.004723358,-0.02925607,0.036182325,-0.0057328795,-0.031047804,0.0057796785,-0.014467581,0.02436223,-0.0015460389,0.008657818,0.023920983,-0.0068928264,-0.01235494,-0.09552348,0.009058952,0.018224875,-0.0007320703,-0.008550849,0.014521066,0.004058143,0.03356158,-0.021607773,0.037492696,-0.038294967,-0.031074546,-0.003636952,-0.0109509695,-0.003025222,0.019481761,-0.00067022874,-0.0007872263,-0.022985002,0.01433387,0.010563206,-0.013879251,0.047467574,-0.02575283,0.013772282,-0.004923925,-0.024201777,-0.0026458157,0.02797244,-0.016981358,0.009794366,-0.028186379,-0.005609196,-0.02389424,-0.01188695,-0.009767623,-0.0014440839,-0.008403766,0.01286973,-0.015256479,0.010295783,-0.026889376,0.009981561,-0.0061674416,-0.013959478,-0.00075045566,-0.017917337,0.031555906,-0.0045395046,-0.038482163,-0.02354659,0.004295481,-0.009085694,-0.0029800944,0.04137033,0.012789503,0.012107573,-0.0073608165,0.009573742,0.00740093,-0.0284538,-0.033829004,-0.043376002,-0.004405793,0.019160854,0.010228927,-0.033641808,-0.019909639,-0.008249998,-0.011773295,0.010061788,0.002311537,-0.0027160144,0.013003441,-0.0110245105,-0.0017516203,-0.014815231,-0.038642615,0.014547808,0.013123781,-0.010162072,-0.023947725,-0.0015493816,-0.014614664,-0.0052949744,-0.00996819,-0.008958668,0.011880265,-0.015483788,-0.044793345,-0.0012911514,0.012448538,0.0024368917,-0.0023332653,-0.029764174,0.018732978,-0.023920983,-0.010636748,-0.003449756,0.019388163,-0.028507287,-0.0020558138,-0.052602094,0.0047567855,0.0066354317,-0.0061507276,0.0067190016,-0.010469608,-0.002349979,0.0026876007,0.017877223,0.018906802,-0.009045581,0.0033026733,-0.00856422,0.011639584,-0.002294823,-0.025913283,0.027023088,0.0078889765,0.0027778558,0.01898703,0.0041784835,0.014641406,0.00072956324,0.026220819,0.006759115,0.008470622,-0.015844809,0.026314417,-0.016352912,-0.0050242087,0.0038308336,-0.035807934,0.0025689316,-0.0012050746,0.0038910038,-0.014494323,0.017730141,0.01806442,0.012261342,0.036423005,-0.028320089,-0.031876814,0.009326375,-0.030352505,-0.0010070145,-0.01934805,-0.012508708,-0.005221433,0.014053076,0.004800242,0.043055095,0.022811176,-0.039177462,-0.022115877,-0.0060270447,-0.023666931,0.031769846,0.0029433237,0.0012560522,0.0065886327,0.0405948,-0.0058398484,0.017663285,-0.017890595,0.011098052,-0.00053108524,-0.020417742,-0.019080628,0.020257289,-0.009687396,-0.0048202984,-0.011820094,-0.0020875703,0.0032257892,0.0065752617,-0.0015159538,-0.010108587,0.023239054,0.0066989446,0.030512959,0.02925607,-0.012836302,0.0031422195,0.018585894,0.027317254,0.022423415,0.01206746,-0.005879962,0.013036869,-0.023907611,-0.0053885723,0.007354131,0.0044392208,-0.010068473,0.0027928983,-0.01922771,-0.00346647,0.029416524,0.022169363,0.003977916,0.034444075,-0.0044358782,-0.0130435545,-0.030325761,-0.035888158,-0.012883101,-0.015804697,-0.026287675,0.0008010153,-0.0041617695,-0.009881278,-0.0019572016,-0.02890842,0.01502917,-0.012715961,0.0064047794,0.00285474,-0.015550644,-0.03714505,0.04861749,0.0041818265,0.025271468,0.0141600445,-0.0055222837,0.036556717,0.010048417,0.0045194477,0.0023733787,0.030673413,-0.008016002,-0.028293347,-0.0011164908,-0.02436223,-0.0034865267,-0.013277549,-0.011545986,-0.014521066,0.01795745,0.02960372,0.08915881,0.0326256,0.0021677972,0.022169363,-0.023947725,-0.0028246548,0.008931926,-0.007962518,-0.021861825,-0.006712316,-0.0026324447,0.013919365,-0.018973658,0.002286466,-0.010369325,-0.0049740667,0.0010838986,0.012321512,0.021393836,0.0156175,0.023974467,0.017074956,-0.0057796785,-0.0037372357,-0.00699311,0.015764583,0.031609394,-0.024455829,-0.012742703,-0.025685973,0.015510531,-0.00515792,-0.032384917,-0.016713934,0.00037272074,-9.641851e-05,-0.0140931895,0.0054019433,0.0039411457,0.017288893,0.009386545,0.025619118,-0.026073737,-7.845103e-05,-0.016032005,0.009553685,-0.0062810965,-0.026795778,-0.021942053</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ttps://blog.bitsrc.io/customizing-an-openai-chatbot-with-embeddings-fdc9ec859bbb 1 4. Integrate the uploading of PDF, generating embedding, and the AI agent into a sin- gle web application. The GUI of the app should allow users to browse and upload multiple PDFs and set the context for the conversation. Now the Chatbot should answer b</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.018061277,0.007250626,0.002905405,0.0013298542,0.011793436,5.996774e-06,-0.020604149,0.0070238295,-0.020645386,-0.031641595,0.01373839,0.036232512,-0.00698603,0.0059138993,-0.0083158845,0.010164622,0.0006554772,0.002666581,0.0075255316,-0.030157108,-0.03593012,0.006776415,-0.0034414702,-0.01107181,-0.030212088,-0.0055530863,0.021731261,-0.04956542,-0.02329822,-0.008336502,-0.0033693076,-0.0029139959,-0.026528358,-0.01308549,-0.009800373,-0.0015910142,-0.011669728,-0.025346266,0.038294304,-0.0054293787,0.01295491,0.0027473345,0.017387757,-0.0020600713,-0.0066320896,0.018940972,-0.010535744,-0.032273877,-0.0075873854,0.0064637098,0.010040915,0.034308176,-0.013490976,0.0006812496,-0.0081097055,0.018322436,-0.01938082,0.022336053,0.010638834,0.0056011947,-0.009511722,0.0050685657,0.0045977905,-0.0023968304,-0.034390647,-0.0051407283,0.0028899417,0.03175156,-0.0049998392,-0.0129274195,0.031696577,0.01164911,-0.008934421,-0.025057614,0.026542103,0.014968592,-0.03810187,-0.022239836,-0.025318775,0.00757364,-0.0004136465,-0.0012568325,-0.010755668,0.002644245,0.012700623,-0.0029139959,0.0119652515,0.017401503,-0.011855289,-0.0005051384,0.00012789537,-0.0014492662,0.021250177,0.021002762,-0.01295491,0.023944248,0.0036184406,0.01804753,0.02190995,-0.016961655,9.149191e-05,0.014844884,-0.03766202,-0.009979061,-0.013243561,-0.0038074378,0.017264051,-0.010521999,0.029194938,0.019298349,-0.0076217484,0.025181321,-0.007759201,-0.03928396,-0.0039174,-0.008116578,-0.0010867348,-0.015765816,-0.02159381,-0.012597534,0.005563395,0.03345597,-0.0014183393,-0.028617637,0.013463485,0.032576274,-0.009862226,-0.0037936927,-0.0016356863,-0.014432526,0.025813604,0.014666196,0.024631511,0.008735115,-0.03334601,0.019779434,-0.040933393,0.009594194,-0.034830496,-0.012734986,0.019202132,0.036974758,-0.016329372,0.0049345493,0.004625281,0.037497077,0.026542103,-0.0008994556,0.008735115,0.005439688,-0.011704092,0.00087969686,-0.021525081,0.0027284347,-0.006810778,0.0023968304,-0.01488612,-0.019050935,-0.0075598946,-0.010769414,0.018432397,0.033620913,0.0029741314,0.00053692434,0.010123386,0.021497592,0.029414862,-0.012501317,0.00221986,-0.03331852,-0.01279684,0.022363544,-0.02878258,0.0033607169,0.0031579742,0.00443972,0.01397206,0.0027868522,-0.017621428,0.00072978757,-0.009869099,0.0019982175,0.016013231,0.03441814,-0.007463678,-0.02329822,-0.0065324362,-0.014054531,0.0123776095,-0.01961449,0.018858502,-0.0011726428,0.010899994,-0.02274841,-0.626784,-0.011058064,0.033785857,-0.016178174,0.014734922,0.02454904,0.00036875965,-0.004419102,-0.011504785,0.019793179,0.0028435513,-0.005821119,-0.0034792698,-0.0072025177,0.016081957,-0.009786627,0.010432655,-0.03331852,-0.018404907,0.022789646,-0.009834736,0.019119661,-0.02373807,-0.020824073,0.0037799473,-0.025703643,-0.019477038,0.019696962,-0.00083846104,-0.0051201107,-0.027078168,0.018061277,0.01993063,-0.026707046,0.05269934,-0.009126855,-0.01590327,0.03604008,0.02167628,0.009731647,-0.009614811,-0.013112981,0.0011357024,-0.008583917,-0.010336438,0.020810328,0.011552894,-0.0059001544,-0.024768963,0.010020297,0.011978997,0.010467018,-0.006484328,-0.009023765,0.0012336373,-0.016219411,0.026184727,-0.011394823,0.012934293,0.0029517952,0.03796442,0.006693943,-0.037826963,-0.016068213,-0.023944248,0.004377866,-0.0055530863,-0.013834608,0.0016365454,-0.03604008,0.023806795,0.015243497,-0.007422442,-0.01729154,-0.0032404459,0.01877603,0.027985355,-0.012123322,-0.02068662,0.029084977,0.01749772,-0.011944634,-0.0019312095,-0.007195645,0.0031064295,0.04027362,-0.037139703,-0.013855225,-0.003123611,-0.014267583,0.011216135,0.036837306,-0.028397713,-0.04695382,0.004992967,0.0012903366,0.006656144,0.006563363,0.0075873854,-0.006092588,-0.0059929346,-0.010425782,0.025318775,0.015051063,0.054541204,0.016178174,-0.011387951,0.010040915,0.016411845,-0.017538955,-0.02617098,-0.014322564,0.0022610957,0.020054338,0.0019999358,-0.033071104,0.020961527,-0.01775888,0.038431756,-0.0073743337,0.030157108,-0.010741923,-0.0022026785,-0.012020232,0.017910078,0.036699854,-0.007999743,-0.02274841,-0.00731248,-0.00030389917,-0.0024140119,-0.005298799,0.02274841,-0.0022731228,0.027806668,0.0032799635,0.045276895,0.0028916597,0.009092491,-0.015257242,-0.027586743,0.005439688,0.028026592,-0.005199146,-0.01778637,-0.008563299,-0.006096024,0.0020858436,0.0007473987,0.0056664846,0.009429251,-0.015367204,0.02068662,0.008824459,-0.015807053,-0.03287867,-0.0059276447,-0.020851564,0.017374013,-0.033153575,-0.012948038,0.024274135,-0.014941101,0.008281521,-0.02590982,-0.00020489033,-0.0058451733,0.037799474,-0.0057283384,-0.028480185,0.022033656,-0.016989145,-0.008425847,0.023078296,-0.019724453,0.01047389,-0.03128422,0.0070788106,0.0143638,-0.018088765,-0.020562913,0.010803777,0.019504528,-0.010858757,0.021346394,-0.0028607328,0.017387757,0.0049276766,-0.029029995,0.011587257,-0.0011279706,0.015325968,-0.005003276,0.04288522,-0.01802004,0.021731261,-0.026198471,-0.005584013,-0.00046948664,0.020521678,0.00992408,0.0045428094,0.01665926,-0.006680198,-0.0064293467,-0.026817009,0.0071337917,-0.03768951,0.008975657,0.003611568,0.028136553,0.02092029,-0.016370608,-0.012542552,0.0016794993,-0.0016537269,0.005508414,0.0028487057,-0.034967948,0.017538955,-0.017566446,-0.009078747,0.019696962,0.0061441325,-0.024439078,0.028425204,-0.01674173,0.005563395,0.013662792,-0.03557274,0.019504528,0.0047077527,0.0021614425,0.010336438,0.033510953,-0.009236817,0.016123194,0.008920676,0.05267185,-0.01648057,0.010061532,0.018363671,0.015559638,-0.016934164,0.010886248,0.011271115,0.04552431,0.0073537156,-0.01665926,-0.0071131736,-0.026267197,-0.005996371,-0.027985355,0.0022868682,0.02454904,-0.00019544046,0.0033211992,-0.0033813347,0.0023212314,0.045249406,0.011470422,0.0059482628,0.0007151832,-0.0022336054,0.013071746,0.005449997,-0.012693751,-0.0069619757,-0.034253195,-0.012844948,-0.00861828,-0.027696704,0.01112679,0.0014681659,0.029387373,0.024480313,0.0154771665,0.02590982,-0.005178528,0.014487508,-0.019147152,-0.025964802,0.024329117,0.0067420513,0.018624831,-0.004288522,-0.013669664,0.04065849,-0.0042472864,0.00028220745,-0.0074705505,0.01723656,0.007099428,-0.005776447,0.004965476,0.009649174,0.019971868,-0.005659612,0.0018968463,-0.0043606847,0.017305287,0.0043366305,-0.022872118,-0.026432142,0.04283024,-0.011937761,-0.03197148,-0.021140214,-0.01982067,-0.01982067,0.019463293,0.018459888,-5.560523e-06,-0.0221986,0.023903012,0.009491105,-0.012755604,-0.013635301,0.010686942,0.016411845,-0.02065913,-0.03658989,-0.010068405,0.011676601,0.041868072,0.010253966,-0.0047146254,0.0032060826,-0.0104464,0.015394695,-0.019435802,-0.0015772689,-0.005175092,-0.0022988953,-0.0045943544,-0.008418974,0.017731389,0.0011709246,-0.0012869003,0.0064637098,0.0016889492,-0.014762413,-0.0027181257,-0.016837947,0.024122937,-0.002948359,-0.0035394053,0.0004441438,0.025813604,-0.007889781,0.019367076,0.041978035,-0.010013424,-0.03746959,0.023806795,0.00940176,0.014638705,0.023903012,-0.015298478,0.034033272,0.0031064295,0.012865567,0.010515126,0.012473826,0.009601066,0.010590726,-0.0052747447,-0.007889781,0.012356992,-0.019202132,-0.014006423,-0.0039895624,-0.010363928,-0.013683409,0.011676601,0.0046321535,-0.015738327,0.00054680376,0.015202261,0.01595825,0.02068662,-0.00911311,-0.0045359368,-0.048300855,-0.019724453,-0.022074893,-0.01488612,-0.03331852,-0.015490912,-0.015422185,-0.015793307,-0.0029758494,0.0075667673,0.018721048,-0.0031476652,-0.020164302,-0.04131826,0.0008547836,-0.0068485774,0.005975753,0.022775901,-0.021071488,-0.0070581925,0.00075813715,-0.0013075181,-0.031009313,0.009607939,-0.020617895,0.005532468,0.014968592,-0.015325968,-0.019806923,-0.018088765,0.003188901,0.01927086,0.005113238,0.022033656,-0.013456613,0.0065564904,0.0128243305,0.014611214,-0.004907059,0.021538828,-0.017841352,-0.0074361875,-0.013374141,0.005377834,-0.030569466,0.023366947,-0.0068829404,0.0128586935,0.01932584,-0.001414903,-0.015284733,0.014556234,0.013868971,5.647773e-06,-0.006278149,0.039338943,0.02329822,0.01308549,0.017538955,0.018927228,-0.004951731,0.021951186,-0.026267197,0.01162162,0.016466824,-0.007006648,0.019765688,-0.0026734537,-0.017621428,-0.0076011303,-0.010006552,-0.0010678351,0.007065065,-0.0054293787,-0.013401631,-0.009161218,-0.009779755,-0.026693301,0.014899865,-0.022061147,0.0048692594,-0.010240221,-0.01485863,0.011113045,0.010144005,0.0064018564,-0.033620913,-0.0028315242,0.0011984152,0.033208556,0.04648648,0.003958636,0.006748924,-0.02225358,-0.00685545,-0.00770422,-0.020645386,-0.0123088835,0.017827606,0.017511465,0.021731261,0.03812936,0.0031700013,0.021112723,-0.015614619,0.011607875,0.009937826,-0.008755732,-0.025662405,0.0083158845,0.0008032388,0.0058486094,0.0005214609,0.031091785,-0.024631511,-0.0032507547,0.020205537,-0.0128930565,-0.0059998073,-0.021896204,-0.026157236,-0.018679813,0.027243111,-0.022665938,0.0051922733,-0.047421157,0.0029655406,-0.0034466246,0.017745135,0.02878258,-0.0002078971,0.014020168,-0.013910206,-0.0059482628,0.016054468,-0.0069619757,-0.023834286,-0.000739667,-0.019944377,0.008473955,0.01961449,0.05333162,-6.5571885e-06,0.004817715,0.0155458925,-0.0038383647,0.012707496,-0.0015772689,-0.010467018,-0.0010601034,-0.011738455,-0.039503887,-0.021799987,-0.010735051,-0.008370865,-0.00035179284,4.8484268e-05,-0.0049242405,0.022844627,-0.027765432,-0.0034242887,-0.0031459471,-0.016109448,0.038074378,0.0064568375,0.015422185,0.026184727,0.0064052925,-0.01822622,0.007477423,0.015298478,-0.025579935,0.0088313315,0.029607296,0.003015367,-0.023916759,0.009236817,0.0053262897,-0.024672747,-0.021662535,0.026652066,0.050967436,-0.019490784,-0.0066664526,-0.031586614,-0.005017021,0.0047283703,-0.0022937409,-0.0076217484,0.0066355257,-0.036314987,-0.010157749,0.01384148,0.009181836,0.02373807,0.006618344,0.016563041,0.011903398,0.011113045,0.0061647505,0.009154345,0.0005768715,0.01485863,0.0043984842,-0.0043881754,0.0047077527,0.00385211,0.00476617,0.0019483911,0.00731248,0.027201876,-0.017112853,-0.0020617894,0.019916886,-0.014831139,0.022885863,-0.00685545,0.0037730748,0.009711028,-0.041208297,-0.023573127,0.020494187,0.009456741,-0.0071200463,0.022569722,-0.006096024,0.0028933778,0.014666196,-0.019779434,0.0050410754,-0.037799474,0.0058417367,-0.005030766,-0.007779819,0.0074911686,0.025841095,-0.012370737,0.013923951,0.036287494,-0.015889524,-0.0015085426,0.020975271,0.023834286,-0.030129617,0.0013771035,-0.016288137,-0.023366947,-0.0077385833,-0.006941358,-0.013917079,-0.016508061,-0.014652451,0.016315628,0.011463549,-0.007278117,-0.0022679684,0.008700752,-0.013752135,-0.0066664526,-0.018872246,-0.0016923855,0.01041891,-0.016865438,0.029359883,-0.016590532,0.012693751,-0.016604278,0.035765175,0.014418781,-0.041070845,-0.039916243,-0.00031356383,-0.010405164,-0.021717515,-0.010845013,-0.01833618,-0.0025188194,-0.030432012,0.0031871828,0.013119854,-0.006422474,-0.004852078,0.0152709875,0.017827606,-0.0066149076,-0.02144261,-0.008838204,-0.032081444,0.00916809,-0.037826963,0.007876036,-0.038734153,0.03197148,0.013731518,-0.027270602,-0.026940716,-0.015490912,-0.036397457,-0.0037799473,0.012233284,0.0050754384,0.0124051,0.01439129,0.006865759,0.03601259,0.014542488,0.03241133,-0.006924176,0.0027009442,-0.010034042,-0.00052489724,-0.020645386,0.009477359,-0.031064294,-0.016013231,-0.0053950157,-0.027889138,0.00022894454,0.024246644,-0.014377546,-0.016618023,0.005302235,-0.009202453,0.012061468,0.0034363158,0.016906673,-0.018817265,0.008171559,-4.3920412e-05,0.005645867,-0.0042197956,-0.02159381,0.004886441,-0.0036631126,0.00496204,-0.031504143,-0.0037593294,0.012638769,0.00698603,0.04659644,0.0089000575,-0.0018745103,0.027985355,0.0015051063,0.006896686,-0.025428737,0.02881007,-0.016260646,-0.013442867,0.029057486,-0.03414323,0.015394695,-0.0022817138,0.028370224,-0.023641853,-0.0017370576,0.0038692916,0.0011047755,-0.01854236,0.016315628,0.001219033,-0.038871605,-0.038431756,-0.0029346137,0.009216199,-0.034363158,-0.020095576,0.02159381,0.0054293787,0.0040204893,0.02504387,-0.003697476,-0.0030394213,0.021483846,0.02298208,-0.009855353,0.018143747,0.18704554,-0.030239578,0.0059585716,0.007841673,0.008632026,-0.007161282,0.031476654,0.0018453016,-0.007044447,0.015862033,0.014350055,0.013195452,-0.01308549,-0.012989273,-0.008205922,-0.029442353,-0.026679555,-0.033785857,-0.017360268,-0.007477423,-0.0055152867,-0.01243259,0.007278117,-0.009257435,0.021277668,0.00411327,-0.0085907895,0.0029535135,0.018171238,0.023573127,-0.02823277,-0.009917207,0.0013616402,0.010961847,-0.011257371,-0.025414992,0.025002634,0.006858886,0.017717645,-0.0032816816,0.008453337,-0.0033263536,0.0037902563,-0.0076011303,-0.010198985,0.01289993,-0.004614972,-0.027737942,0.007662984,-0.00059147587,-0.008061597,0.0022903045,0.02608851,0.012521935,-0.018033786,-0.001382258,-0.005539341,0.025346266,0.011827799,0.0024226026,-0.01888599,0.00016913116,0.010631961,0.00786229,-0.008700752,-0.0071131736,-0.011236752,0.01227452,-0.004580609,0.0029225866,-0.0037387116,-0.0125150625,-0.0064912005,0.022267327,-0.030404521,-0.04079594,0.01700289,0.031229237,0.043792408,0.03972381,-0.0030084944,0.0029346137,3.6725625e-05,0.004058289,-0.018198729,-0.06746175,0.029882202,-0.015834544,-0.0045668636,-0.021318903,-0.005896718,0.0009776319,0.007161282,0.003135638,-0.005986062,-0.021772496,0.013889588,0.01627439,-0.008260903,-0.006364057,-0.023724325,0.051709678,0.018501123,-0.0032799635,-0.0037387116,-0.022239836,-0.015765816,0.0028057517,0.010494509,-0.0033349444,-0.022913354,-0.024727728,0.015518402,0.007106301,-0.012851821,-0.007841673,0.0010394856,-0.006271276,0.0043572485,-0.0039242725,-0.016123194,-0.015710836,-0.00025171012,0.013807117,-0.0017593937,0.007429315,-0.021291412,-0.003965508,-0.009470486,-0.0016846538,0.0091405995,-0.0087626055,-0.013161089,0.025813604,0.0028641692,0.022610959,0.007745456,-0.019916886,-0.0062884577,0.019202132,0.017552702,-0.012913675,0.003046294,-0.0088313315,-0.0023229495,-0.01888599,0.02324324,0.027449291,-0.019999357,-0.005264436,-0.038926587,0.010824394,-0.015532147,-0.0029981856,0.01953202,0.007876036,-0.0064052925,-0.028109062,-0.010439527,-0.008535808,-0.05602569,-0.015710836,0.022006167,-0.022775901,-0.024961397,-0.039174,-0.17604934,0.01373839,0.014707431,-0.043132637,0.015339714,0.014968592,0.0069035585,0.003535969,-0.0010248811,-0.028617637,0.00864577,-0.0037077847,-0.007759201,0.0017920387,0.011841544,0.02460402,-0.030019654,0.011394823,0.048273362,0.012212667,0.023985485,-0.04599165,0.02321575,-0.016205665,-0.005264436,0.018267455,-0.010597598,0.015298478,-0.00035394053,-0.033813346,0.0027267165,0.00411327,0.04799846,0.012157685,0.026129745,0.0014879247,0.016136939,-0.0022576596,-0.003493015,0.019422056,0.028865052,0.03447312,0.00064130244,-0.0125837885,0.010845013,0.005047948,0.01671424,-0.018061277,0.005147601,0.006243786,0.012638769,-0.010590726,0.012817458,-0.03026707,0.010645706,0.0033022994,-0.01211645,0.017360268,-0.006693943,-0.007278117,0.014350055,-0.023092043,0.0122057935,-0.014831139,-0.022239836,-0.03298863,-0.024507804,0.007126919,0.00073150574,0.023683088,-0.022102384,-0.007649239,0.0013470358,-0.004023926,0.01572458,0.02144261,-0.011195517,-0.0018315563,0.008467082,0.00835712,0.0055152867,0.018556105,-0.012350119,0.0040617255,0.00022744115,-0.004731807,0.004164815,-0.0023349766,-0.015422185,-0.015587129,0.014666196,-0.022184854,-0.009181836,-0.00254631,-0.006628653,-0.001991345,0.027765432,-0.019312095,0.0026493995,-0.008783223,0.0014870657,0.0029810038,-0.00846021,0.007649239,0.032356348,0.008013489,-0.019050935,-0.016563041,0.047586102,-0.00916809,-0.0009827863,0.02138763,0.0081097055,0.010034042,-0.028617637,0.017566446,-0.010439527,-0.022418525,-0.00470088,-0.016233156,0.03081688,0.0023366946,-0.009862226,0.02645963,-0.014432526,-0.010556362,-0.1012751,0.006618344,0.0066767614,0.030926842,-0.0025738005,0.025387501,-0.00822654,0.026294688,0.008920676,0.033538442,-0.020274263,-0.027050678,-0.0011735018,-0.018927228,0.0018831011,0.0045462456,-0.0006464569,-0.016288137,-0.027366819,0.0048658233,0.012384482,-0.004429411,0.05954448,-0.017222814,-0.0058795363,-0.006388111,-0.03870666,0.0003981831,0.029304901,-0.010391419,0.016494315,-0.017593937,0.0013143908,-0.021662535,-0.010226476,-0.013456613,-0.007477423,-0.015243497,0.014569979,-0.020191792,0.002762798,-0.03144916,-0.0037043483,-0.009979061,-0.024892671,0.00019791031,-0.0022559413,0.0117247095,-0.0022507869,-0.038899094,-0.032218896,-0.009717901,-0.017978804,0.014267583,0.036232512,0.020727856,0.00085950847,0.010686942,-0.0052472544,-0.009594194,-0.006941358,-0.023545636,-0.037497077,0.011030573,-0.016123194,0.002929459,-0.031696577,-0.012226411,-0.006216295,-0.0014973746,0.022762155,0.0012585507,-0.0047421157,0.017882587,-0.014734922,0.0027060986,-0.017044127,-0.047915988,0.024755219,0.0074155694,-0.025126342,-0.017635172,0.010570107,0.013978933,-0.0029792858,-0.013992677,-0.014707431,0.012329501,-0.012082086,-0.029662278,0.01645308,0.0128243305,-0.002841833,0.0040720343,-0.042005524,0.0039174,-0.014789904,0.010899994,0.013312288,0.00417856,-0.021813732,0.008006616,-0.07070563,0.0050685657,-0.01041891,-0.014528743,0.022913354,-0.01729154,-0.016095703,-0.008260903,-0.0025617734,0.019367076,-0.014226347,0.010082151,-0.017690154,-0.0031407927,0.013917079,-0.0041613784,0.03188901,0.011807181,-0.0012310601,0.016645513,-0.019215878,0.011511658,0.010412036,0.015999487,-0.014679941,0.016315628,-0.010673197,0.039009057,-0.0133054145,-0.01877603,0.00047635927,-0.025428737,-0.00029101298,-0.01112679,0.007195645,-0.006711125,0.01538095,0.024659002,0.011958379,0.030954333,-0.012948038,-0.027064424,0.0143638,-0.031064294,0.0042953948,-0.0022937409,-0.023641853,-0.013374141,0.02579986,-0.004559991,0.030679427,0.0009853635,-0.0124806985,-0.03450061,-0.0074911686,-0.024109192,0.029442353,-0.005151037,-0.0028126244,-0.0013719491,0.01955951,0.0028109064,0.007759201,-0.0054259426,0.002929459,0.012714368,-0.016054468,-0.007388079,0.0133397775,-0.014927356,-0.028452694,-0.019545764,-0.0075805127,-0.013092363,0.015174771,0.011346715,-0.032768708,0.02692697,0.009092491,0.023449419,0.025511209,-0.020810328,0.0077729463,0.011078682,0.030239578,0.021813732,0.020672876,0.0019964995,0.019257113,-0.02141512,-0.021263922,-0.007759201,0.01720907,0.010157749,0.0065805446,-0.00057257613,0.0016743449,0.046294045,0.015133535,-0.0020720984,0.024095446,0.0003172149,-0.0021202068,-0.036864795,-0.019875651,-0.0065015093,-0.026775772,-0.030404521,-0.014954846,-0.004223232,-0.022803392,0.01538095,-0.022583468,0.024823945,-0.016329372,0.011765945,0.0023762123,-0.01778637,-0.042005524,0.062458474,0.008295266,0.027545508,0.011092427,0.0007117469,0.03494046,0.018721048,0.011058064,0.0008573608,0.022088638,-0.011257371,-0.014666196,-0.0038349284,-0.017896332,0.0024449388,-0.022129873,-0.010233348,-0.010240221,0.0030067763,0.0071544093,0.091818355,0.031696577,0.00095185946,0.02167628,-0.032026462,-0.014748667,0.008494573,-0.0042953948,-0.006896686,0.0032559093,0.0059035905,0.008700752,-0.001970727,-0.021401376,-0.0070272656,-0.012418846,-0.004711189,0.02689948,-0.00038293444,0.01674173,0.017387757,0.00417856,0.013051127,0.018377418,-0.027518017,0.005494669,0.035902627,-0.02454904,-0.03565521,-0.024109192,0.013154217,0.0065015093,-0.019738197,-0.032658745,0.00822654,0.014844884,-0.004525628,-0.005886409,0.010652579,0.031696577,0.014336309,0.016466824,-0.04030111,0.0047730426,-0.013676537,0.024411587,-0.0059654443,-0.0073193526,-0.039036546</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ased on the supplied PDFs. [Marks 3%] API key will be provide to you by the instructor over email. Use it wisely for this project only and never distribute. Please note that same will be deactivated once submission date is over. •  You application should run on port http://localhost:3000 •  Web stack should be restricted to backend: n</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.00549322,-0.01686521,0.01635586,-0.013002625,-0.017770724,0.026061844,-0.053538553,-0.015818208,-0.009232005,-0.02079854,0.015620127,0.020430675,0.002835039,0.016737873,0.0009364649,0.0010717615,0.009642316,-0.013533199,0.0021877375,-0.03480572,-0.0067665996,0.031098768,0.0032435819,-0.013526125,-0.037918426,0.008192078,0.02492995,-0.021605013,0.0010797201,-0.018067848,0.015775762,-0.009896992,-0.017756576,-0.004393161,0.0014130981,0.002168283,-0.0040783533,-0.011439197,0.00785251,0.021138107,0.02290669,0.0039687008,0.015917249,-0.024859207,-0.006175893,-0.00253438,-0.0073148604,-0.020034513,-0.0038272142,0.038540967,0.021081513,0.0075270906,-0.009946512,-0.012507421,0.005843399,0.00870143,-0.012344711,0.0016934185,-0.027830428,-0.0025839002,0.006091001,-0.0006061819,-0.02886328,0.0050793714,0.014983438,-0.0007697759,-0.010484162,0.02481676,-0.009557424,-0.015492789,0.03191939,-0.0063173794,-0.0020427138,-0.0076544285,0.015351303,0.011078406,-0.01994962,-0.014389194,0.009444235,-0.017233076,0.0025184627,-0.019737389,-0.030787498,0.029768795,0.0019931933,-0.012839915,0.018902618,0.017346265,-0.017261373,-0.010618574,0.0091754105,0.03129685,0.009790877,0.014134518,-0.033390854,0.017317967,-0.009253228,0.021944582,0.021647459,-0.018591348,-0.035654638,0.0016297495,-0.019553456,-0.004265823,-0.019270483,-0.016907657,0.016200224,-0.028495414,0.033051286,0.0110642575,-0.00403237,0.012111259,-0.0015634276,-0.037069507,0.0039687008,-0.021024918,0.008340639,-0.028608603,-0.01728967,-0.0052314694,-0.006685245,0.007619057,0.028283184,-0.011057183,0.013766653,0.035598043,0.015223965,-0.003611447,-0.016497346,-0.01209711,0.023034029,-0.005111206,0.0071910596,0.0074634217,-0.017091589,0.0037953798,-0.005797416,0.007201671,-0.03757886,-0.021081513,0.020572161,0.027533306,-0.0044073095,0.00089490315,-0.006409346,0.011135001,0.01888847,-0.020713648,0.0065225353,0.018746983,-0.024378153,0.008255747,-0.027321074,-0.020303337,-0.0025697516,-0.007307786,0.017982954,0.0013264375,0.0057266727,0.0032913336,0.043691084,0.019454416,0.00681612,-0.009168336,0.029910281,0.026755128,0.03415488,-0.007113242,-0.011828285,-0.0132360775,-0.0029163938,0.00056859956,-0.039616264,-0.0026369577,-0.012436678,0.0043259547,0.0055745747,0.012436678,-0.017841468,-0.005663004,-0.006069778,0.015337154,0.005135966,0.034296367,-0.014672167,0.0126064615,0.008687281,-0.009055147,0.02187384,-0.02791532,0.031862795,0.0034947207,0.018902618,-0.0077888407,-0.6184665,-0.011375528,0.010993514,-0.02430741,0.0042163027,-0.0031286238,-0.00039682587,-0.00052217423,-0.008814619,0.049492035,0.010406344,0.024335707,-0.005818639,-0.020430675,0.0014997587,-0.025481747,-0.010540756,-0.021449378,-0.01825178,-0.0013839165,-0.018435713,0.022680312,-0.022991583,0.025396856,-0.011920252,-0.0012291654,0.026132587,-0.020048661,-0.005663004,0.0058257133,-0.028155847,0.031127065,0.00038245614,0.007007127,0.04785079,-0.011311859,-0.038767345,0.024335707,-0.00016823648,0.036588453,-0.020204296,-0.0067170793,0.030674309,-0.013023848,-0.004778712,0.009720134,0.038342886,-0.0056347065,-0.004439144,0.0005540087,-0.0043011946,-0.019907173,-0.00018183247,0.015195668,0.01635586,-0.007916179,0.02746256,-0.004824695,-0.011778764,0.006052092,0.024901653,0.014601423,-0.032966394,-0.02662779,-0.013405861,-0.016228521,0.027349371,-0.020147702,0.002992443,-0.015973844,0.012464975,0.016270967,-0.017218927,-0.02354338,0.0056594666,0.0150824785,0.019935472,-0.032343853,-0.018959213,0.008022293,0.022934988,0.013547348,-0.02378391,-0.0014360896,0.01635586,-0.0028474191,-0.025609087,-0.04742633,0.007364381,-0.012613536,0.0044073095,0.022652015,-0.00035371666,-0.029457524,0.014488234,0.017898062,0.0100879995,0.0022018861,0.0044745156,-0.022666164,-0.018209334,0.0010814887,0.0072582657,-0.0023080013,0.050227765,-0.0067913597,-0.024746018,0.0073219347,0.025113882,-0.0031215495,-0.0066145016,-0.021449378,-0.02906136,-0.010095074,0.0026511063,-0.039503075,0.027759684,0.007449273,0.0069469954,0.002067474,0.015973844,0.0059176795,0.009529127,-0.007329009,-0.0017959963,0.008609463,-0.002300927,-0.03684313,-0.009140039,0.00469382,0.0028173532,0.0145165315,0.030193254,-0.01665298,0.036956318,-0.008581166,0.02620333,-0.0095220525,-0.012182002,-0.008644835,-0.0018181036,0.0175019,-0.015874803,-0.025609087,0.009514978,-0.02940093,0.0035601582,-0.006858566,0.013717132,0.027844576,0.00053588074,-0.020826837,-0.006370437,0.0006088348,0.009790877,-0.013476605,0.0135402735,-0.029146252,0.0020409452,-0.010519533,-0.0015678491,0.011375528,-0.01225982,0.006494238,-0.03056112,-0.0113472305,0.02323211,0.033900205,0.015874803,-0.040889647,-0.004707969,0.008878288,-0.029316036,0.0075058676,0.0014086766,0.011481643,-0.009345194,-0.0018322523,-0.0023575216,-0.014084998,0.0019136071,0.009996033,-0.0009329277,-0.0038802717,0.026401412,0.019878875,0.01931293,0.03257023,-0.028919874,0.025877912,-0.0073219347,0.0011248189,-0.010632723,0.031155363,-0.0008829652,0.020925878,0.0061511328,0.0004291025,0.00554274,0.019595902,0.014898546,0.009578647,0.030051768,0.0012300496,-0.008743876,-0.03978605,0.0048777526,-0.041625377,0.016426602,0.0044532926,0.011120852,-0.0063173794,-0.024491342,-0.01877528,-0.0154078975,-0.0005708103,-0.0012689586,0.009274451,-0.018322524,0.00817793,-0.013611017,-0.02451964,0.036022503,-0.00742805,-0.03777694,0.014226484,0.0021276057,-0.0020621682,0.006052092,-0.03279661,-0.012549867,-0.0110430345,-0.0077605434,-0.016426602,0.029033063,-0.01803955,0.0035884555,-0.018633794,0.027971914,-0.00933812,0.026132587,0.02662779,0.028764239,-0.018591348,0.019355375,0.027674792,0.030504525,0.0108025065,-0.014424565,0.03330596,-0.004442681,0.032315556,-0.007088482,-0.00060750835,0.021760648,-0.0123022655,0.0140567,0.020784391,0.017629238,0.016780319,0.0064447178,0.013023848,0.029570714,-0.0005907068,0.013441233,-0.012061738,-0.030674309,-0.03160812,-0.010335601,-0.026910763,-0.0132148545,-0.013830322,-0.014686315,0.011113778,6.333739e-05,0.00050227763,0.03593761,-0.00790203,0.023713166,0.03333426,-0.044596598,-0.012535718,0.038371183,0.009182485,0.024845058,0.0055215172,-0.017940508,-0.004050056,-0.0074987933,0.018506456,0.009592796,0.02099662,0.014714614,-0.008552869,-0.009203708,-0.02301988,0.017586792,-0.009606944,-0.012090036,-0.014700465,0.022100218,-0.00549322,-0.037295885,-0.016186075,0.028948171,0.028269036,-0.016525643,-0.018647943,0.022977434,0.012040515,0.0068691773,-0.005984886,-0.0126489075,0.021293743,0.00013474394,-0.0026334205,-0.013893991,-0.011403825,0.0059672003,0.01188488,-0.0046584485,-0.03839948,-0.017586792,0.020006215,0.02780213,0.0073502325,0.018195186,-0.0024035047,0.0059778118,0.0044497554,-0.0027130067,0.000800284,0.009359343,-0.012316414,0.02746256,0.005372956,0.016539792,0.008743876,0.015464492,-0.00010053291,-0.010540756,-0.015521087,-0.014827803,-0.026542898,0.022793502,-0.015209816,0.011580683,0.0148561,0.03172131,-0.022779353,0.017940508,0.019595902,0.013872768,-0.005443699,0.0017659304,0.011234041,0.014176964,0.006511924,0.0005150999,0.059480995,0.0067630624,0.020727796,0.0085882405,0.016921805,0.0057019126,0.012075887,0.001103596,0.015563533,0.0034275143,-0.007364381,-0.012528644,0.023515083,0.017473603,-0.018605497,0.0062784706,0.013483679,-0.0371261,-0.006002572,0.016582238,0.012769171,0.03172131,0.00089003955,0.00074987934,-0.03964456,-0.02715129,-0.0043825493,0.007909104,-0.008666058,-0.021916285,0.008835842,-0.024689423,0.0037741568,-0.025481747,-0.015478641,0.010342675,-0.0140567,-0.026783425,0.03223066,0.010526608,0.030646011,-0.00726534,-0.016893508,-0.013151186,0.012960179,-0.028481266,-0.01108548,0.00795155,-0.026118439,-0.01214663,-0.008199153,-0.020515567,-0.017020846,0.0071627623,0.0048353067,-0.009621093,-0.015436195,-0.0021223,-0.031042174,-0.0028279647,-0.004156171,0.043436404,0.029231144,-0.004715043,-0.011941475,0.012740874,-0.026924912,-0.009140039,-0.0012450827,-0.00037051822,0.0098474715,-0.004156171,0.01761509,-0.010774209,0.009698911,0.012457901,0.00822745,0.013427084,0.021123959,0.009819174,0.03457934,-0.0019242186,0.04213473,0.029655606,0.027986063,0.015422046,-0.0044674412,0.025920358,0.01856305,0.00056240946,0.008786322,-0.020727796,-0.010752986,0.008609463,0.009062221,-0.0113896765,0.007180448,-0.01761509,-0.007576611,-0.020416526,-0.01846401,-0.011304785,0.015577681,-0.007838361,-0.022765204,-0.024123477,-0.0013114045,-0.0036468187,0.007711023,0.012394232,-0.02684002,-0.007049573,-0.0016872284,0.00043860867,0.025736425,-0.005422476,0.02292084,-0.00015165602,-0.028580306,-0.038767345,-0.029004766,-0.0135827195,-0.0046160026,0.00896318,0.050963495,0.023076475,-0.0062572476,0.025976952,-0.013674686,0.005758507,-0.014332599,-0.026854169,0.012613536,-0.016822765,0.011007663,0.02079854,0.0062572476,0.025128031,-0.02555249,0.004308269,0.027547454,-0.008142558,-0.0056594666,-0.024236666,-0.05549107,-0.011149149,0.038569264,-0.014771208,-7.288498e-07,-0.037437372,-0.0044320696,0.009981885,-0.020218445,0.032457042,-0.017657535,0.049831603,-0.021520121,0.011835359,0.0017075671,-0.008128409,-0.014106221,0.012797468,0.0013644621,-0.0028491877,0.029202847,-0.00010268837,0.012967253,-0.0039899237,0.009776728,0.002131143,0.021477675,0.009430086,-0.008269896,-0.023529232,-0.007986922,-0.011318933,0.00620419,-0.015436195,-0.016709575,-0.006621576,0.010646871,0.016596386,0.0098474715,-0.03786183,0.003510638,0.011969772,-0.014785357,0.026924912,-0.0013503133,0.012953104,0.032202363,-0.002071011,-0.016228521,0.012153705,-0.010816655,-0.0030313518,0.025764722,0.036050804,-0.011474568,-0.005072297,0.005471997,0.015563533,-0.013922288,-0.013752504,0.03661675,0.016228521,-0.007930327,-0.024774315,0.0017703519,-0.02173235,0.015761614,-0.018916767,0.0036751162,0.009918215,-0.017006697,-0.012196151,0.010554905,0.01108548,0.021378634,0.024463044,0.0065013124,0.0046443,0.00027368826,-0.0148561,-0.008623612,0.006649873,0.037805237,0.014785357,0.00074811076,-0.0058363248,0.025467599,-0.0018994585,0.018407416,-0.007357307,0.028056806,0.008574092,-0.0038272142,-0.0027218496,-0.025269518,0.00955035,-0.0031463096,0.006006109,-0.03681483,-0.01972324,-0.0065437583,0.016992548,0.005560426,-0.018096145,-0.00042777607,-0.01363224,0.006755988,0.005263304,-0.022991583,-0.0021541344,-0.02292084,-0.0079798475,-0.017770724,-0.031240255,0.0074775703,-0.015874803,0.021987028,0.024364004,0.021902137,-0.008305267,0.010569054,0.008786322,0.019397821,-0.03511699,0.025708128,-0.015351303,-0.021916285,0.017346265,-0.01448116,-0.036135696,-0.014205261,0.008991477,0.0005217321,0.0030596491,-0.005199635,0.008170855,0.0067206165,0.007916179,-0.008100112,-0.029740497,0.027490858,-0.0042127655,-0.019553456,-0.0012778015,-0.0024689422,-0.010491236,-0.02313307,0.0017234845,0.022411488,-0.02365657,-0.059820563,-0.011920252,0.03341915,-0.03248534,-0.01400718,-0.019666646,-0.016398305,-0.02364242,0.003777694,0.014106221,0.012790394,0.00191007,-0.002037408,0.0050581484,0.013306821,-0.029089658,-0.0050581484,-0.027405966,-5.3665448e-05,-0.034918908,-0.023062326,-0.030730903,0.027717238,0.012443752,-0.02865105,-0.050029684,-0.027321074,-0.05102009,-0.0117150955,-0.0318062,0.009925289,0.04626614,0.016044587,0.009543275,0.017487751,0.004439144,0.041002836,-0.025849614,-0.0075200163,-0.008008145,-0.00912589,-0.002279704,0.0022054233,-0.03341915,-0.003590224,0.020218445,0.005560426,0.008949031,0.040691566,0.0051678005,-0.026500452,-0.01395766,0.0014891472,0.0011699179,0.012677205,0.0066180388,-0.038342886,0.010363898,0.024279112,0.015917249,0.01124819,-0.0041066506,0.028778387,-0.020444823,-0.017034994,-0.019709092,-0.000657913,-0.0089136595,-0.001088563,0.01941197,-0.0040606675,0.013313895,0.03735248,0.014077923,-0.01252157,0.017431157,0.026118439,-0.06344262,0.02600525,0.016836913,-0.029881984,-0.008269896,0.0054578483,0.028410522,-0.009507904,-0.00742805,0.010300229,-0.034720827,-0.0015793449,-0.018647943,0.023812206,0.0014122138,-0.014700465,0.028495414,-0.006515461,0.005903531,-0.019072402,0.009132965,0.0074421987,0.002431802,-0.005641781,-0.017063292,-0.027547454,-0.0030508062,-0.0016589311,-0.023458488,0.011382602,0.18370628,0.004753952,0.0027236182,0.03138174,0.018817727,0.023416042,0.0076544285,-0.0028403448,-0.017233076,0.025269518,0.00079674675,-0.004516962,-0.014304302,-0.010208263,-0.004014684,-0.00959987,-0.041229215,-0.046916977,-0.016285116,0.011764616,-0.011283562,0.022100218,0.008510423,-0.012493272,0.028580306,-0.0032400447,-0.010767135,0.015662573,0.023486786,-0.0029163938,-0.012549867,-0.0034434318,-0.0023274557,-0.0029216995,-0.025623236,-0.0046372255,0.033560637,0.0055215172,0.025665682,0.019114848,-0.007176911,-0.029740497,0.019893024,-0.022751056,-0.016157778,0.00403237,-0.019171443,-0.023996139,-0.018166889,-0.0061865044,-0.012726725,-0.0067807483,0.050878603,0.0010788358,-0.0101092225,-0.0042127655,0.0035283237,-0.00044192476,0.009656465,0.019765686,-0.027377669,0.0035743068,-0.0067630624,0.022637866,-0.020416526,-0.0073431577,-0.009295674,-0.017940508,-0.0018658554,0.010703466,-0.0071203164,-0.00785251,0.024604531,0.02388295,-0.004205691,-0.032457042,0.004371938,0.045445517,0.03172131,0.033277664,-0.015294708,0.0018304837,0.004315343,-0.017431157,-0.0048070094,-0.0488129,0.018591348,-0.0025273056,-0.010866175,-0.029259441,-0.00093734916,-0.031862795,-0.0141698895,-0.010279006,-0.01225982,0.0089136595,0.034013394,0.02142108,0.00210992,0.013809099,-0.02842467,0.029853687,0.00012214278,0.0064553292,-0.016256819,-0.021364486,-0.013045071,0.02143523,0.0053163613,-0.023953693,-0.01018704,-0.037012912,0.017643386,0.0010319684,0.011113778,0.0066604847,0.0054649226,-0.0154503435,-0.012365934,-0.0058327876,-0.01791221,-0.013766653,-0.0021523659,-0.015874803,0.014099146,-0.00785251,-0.004757489,0.0042304513,-0.0053022127,-0.00084272993,0.02620333,0.0008073583,0.0058540106,-0.016087033,0.0045452593,-0.020006215,0.025255369,-0.03341915,0.009628167,0.021024918,0.0036715788,-0.0060344064,0.014417491,0.0028421134,0.015252262,0.0031374667,0.01612948,0.006837343,-0.022552975,-0.031098768,-0.01071054,-0.026047695,-0.03223066,-0.012422529,0.02674098,0.01941197,-0.0150824785,-0.03002347,0.027731387,-0.0010505385,-0.037635453,-0.0052774525,0.024392301,0.008248673,-0.023486786,-0.010668094,-0.18291396,0.017134035,0.01760094,-0.029485822,0.0033426224,0.013016773,0.02110981,-0.009571573,-0.016313413,-0.039078616,0.0074421987,0.0017455918,-0.006596816,-0.0029942116,0.009677688,0.03268342,-0.021718202,0.006982367,0.029316036,0.009253228,0.021520121,-0.021788945,0.015747465,-0.007711023,-0.033277664,-0.004863604,-0.034013394,0.005981349,-0.012585239,-0.007923253,-0.0013865693,0.02333115,0.0488129,0.02376976,0.01569087,-0.0074775703,-0.0024883966,0.004205691,-0.0035831498,0.021336189,0.005751433,0.029287739,0.006377511,-0.013971808,0.00018470641,0.019567605,0.01257109,-0.011502866,0.011354305,0.001676617,0.012104184,-0.016200224,0.0060803895,-0.0026670236,0.0071910596,0.0050369254,-0.016044587,-0.017275522,0.009394715,-0.033588935,0.00426936,-0.016384156,0.0017597404,-0.0034575805,-0.01728967,-0.036956318,-0.02429326,0.0126701305,-0.018534753,0.004516962,-0.026401412,-0.0072794887,0.0030844093,0.000573021,0.0036751162,-0.018817727,-0.015747465,0.0413707,0.029768795,-0.0017809634,0.0060768523,0.0413707,0.004371938,0.0020126477,-0.00027722542,-0.004665523,0.0051642633,-0.009670613,0.0034416632,0.010604425,0.021463526,-0.041540485,-0.008213301,-0.010491236,0.0073502325,0.005326973,0.017218927,-0.0075200163,0.0014979901,-0.020784391,0.0098262485,-0.0101304455,-0.021491824,-0.006398734,0.044398516,0.020444823,-0.027009804,0.029117955,0.028184144,0.016101182,-0.017020846,0.027434263,0.0013246689,0.0052562295,-0.017685832,0.036588453,0.0151249245,-0.0009214319,-0.005960126,-0.0063032308,0.022270001,-0.007194597,-0.007152151,0.0101304455,0.001734096,-0.02481676,-0.098418124,-0.034862313,0.024986545,0.0196242,-0.008425531,0.022864245,-0.0057266727,0.008687281,-0.0025945117,0.03237215,-0.016469048,-0.01707744,-0.020954175,0.0025962803,-0.021392783,0.014254781,0.012373009,-0.013002625,0.012472049,-0.0074351244,-0.0050369254,-0.0024972397,0.010901547,0.0009081675,-0.020105256,-0.010038479,-0.030278146,0.0048317695,0.013886916,-0.016398305,0.032853205,0.0035548524,0.008552869,-0.008432605,-0.0032860278,0.0037317108,-0.029740497,-0.028580306,0.042247918,-0.018237632,0.017898062,-0.017869765,0.040069025,-0.003377994,-0.00790203,-0.01018704,-0.018336672,0.02492995,-0.015011735,-0.021053215,-0.0050829086,0.012415455,0.009033924,0.0017128729,0.036984615,0.00297122,0.024632828,0.0059530516,-0.041399,0.0019914247,-0.0055462774,-0.023868801,-0.021774797,0.006823194,0.005889382,0.0020356395,-0.026712682,-0.010279006,0.0055498146,-0.026019398,0.0007012433,0.0026245776,-0.021307891,-0.00964939,-0.005160726,-0.0047468776,-0.01738871,-0.018138591,0.00493081,0.015110776,-0.006427032,-0.020359932,0.0022973898,0.002300927,0.004729192,-0.001810145,0.0025874374,0.02047312,-0.0021806632,-0.019468565,0.003514175,0.012005144,0.020246742,-0.0011292405,-0.034607638,-0.0011681493,-0.008842916,-0.0012901815,-0.028891576,0.0069965157,-0.028198292,-0.0068691773,-0.083024375,-0.004092502,0.017459454,-0.010830804,0.018237632,0.0034452004,-0.008404308,-0.0010151669,-0.0006977061,0.000697264,-0.025184626,-0.0016978399,-0.017558495,0.009748431,-0.01856305,-0.013985957,0.03692802,-0.009691836,-0.0058681592,0.0029234681,0.016101182,-0.0065649813,-0.0007600487,-0.0047681006,0.005284527,-0.0015174445,-0.0052597667,0.04445511,-0.013851545,-0.002355753,0.01431845,-0.01931293,0.0011787608,0.00018824359,0.00019155968,-0.012747948,0.009140039,0.021024918,0.03469253,0.006918698,-0.016002141,-0.044115543,-0.003947478,-0.03384361,-0.004096039,-0.0011752236,-0.011467494,-0.010943994,0.0046336884,0.0053234356,0.046916977,0.0026387263,-0.026641939,-0.03214577,-0.010639797,-0.029683903,0.018195186,0.0085882405,-0.000448778,-0.014997587,0.043408107,0.02504314,-0.0053163613,0.0050581484,-0.002092234,0.0047008945,-0.02187384,0.006515461,0.010321452,-0.026330668,-0.019539308,-0.01087325,0.0017438232,0.0065862043,0.022694461,0.0025945117,-0.00991114,-0.003174607,-0.045134246,0.022694461,0.02217096,-0.015563533,-0.023741463,0.04001243,0.014120369,-0.008977328,0.0073785298,0.018605497,0.0022531752,0.017148184,-0.012861138,0.021123959,0.0039899237,-0.0021046142,-0.013766653,-0.007972773,-0.012189076,-0.0018570125,0.0141911125,0.017685832,0.025807168,-0.0016217909,0.010837878,-0.028721793,-0.03786183,-0.011531163,-0.022043623,-0.028184144,-0.012026367,-0.010965217,0.017134035,-0.018110294,0.004555871,0.027207885,-0.015521087,-0.001252157,0.0025821317,5.5903813e-05,-0.030051768,0.04190835,0.0041455594,0.011467494,-0.0012839915,0.0069293096,0.03681483,-0.011927326,0.01150994,-0.0141698895,0.01803955,-0.022029474,-0.029316036,0.017940508,-0.013787876,-0.020614607,-0.014940992,0.018209334,0.007873733,0.007944476,0.012344711,0.09383395,0.012217374,0.013313895,0.0031675326,-0.004584168,0.0016120637,-0.0018976899,-0.011948549,-0.0012194382,-0.007555388,0.01635586,0.006349214,-0.0036963392,-0.02746256,-0.017049143,-0.0126701305,-0.010427567,0.043917462,0.008255747,-0.0006786938,0.022538826,0.018110294,-0.0021399858,0.024378153,-0.00275899,0.011969772,0.023274556,-0.013738355,-0.01103596,-0.028198292,0.008835842,0.015025884,-0.039984133,-0.03333426,0.007894956,-0.00067427236,0.0010788358,-0.008284044,0.0075412393,0.015011735,-0.0054649226,0.017034994,-0.01846401,-0.0013397018,-0.00896318,0.00034553697,-0.018846024,0.0025396857,-0.0047398033</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>odejs, frontend: react, database to store embeddings: excel •  Forembeddingusetext-embedding-ada-002andforchatcompletiontext-davinci-003 model. 2 Submission Make a single zip file consisting of 1) source code, 2) readMe file containing installation and execution instructions. •  Upload zip file through the e-learn portal https://elear</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.018398449,0.014681878,-0.028654486,-0.023803083,-0.0012146239,0.014376892,-0.018625416,-0.012866148,-0.005610321,-0.01513581,0.01566067,0.009383635,-0.0004973752,0.004993257,-0.006808987,0.012724294,-0.0010009565,0.0025888334,0.0011339445,-0.026867127,-0.0075537194,-0.011355404,-0.004344275,-0.010603579,-0.006138727,-0.003003756,0.020270921,-0.03506628,-0.0057769995,-0.0005173234,-0.005071277,-0.020171624,-0.012986723,-0.029732576,-0.002063974,0.013093114,-0.005950771,-0.019235387,0.045393243,0.018838197,0.029080048,-0.0046492615,-0.01729199,-0.015759967,0.010908565,0.009128298,-0.020285107,-0.011773873,-0.005167028,0.015107439,0.0026934508,0.0398042,-0.0035924497,0.010021977,-0.0069082845,0.011249013,0.020341847,0.0041917823,-0.0037910452,0.008965166,0.0014185389,0.008092765,-0.031122744,-0.0010718835,-0.026696902,0.016682018,-0.018086372,0.012277454,0.021405753,-0.018625416,0.041109256,0.0065820203,-0.0074757,-0.0064366204,-0.0034293178,0.0022395183,-0.0086672725,-0.009390728,0.009638972,-0.0051705744,-0.008624717,-0.015391147,-0.014490375,0.015930193,0.022441285,-0.003370803,0.0068515427,0.03566207,-0.024526538,-0.0016721027,0.0036208206,0.015944377,0.013915867,0.013086022,-0.01642668,0.022810105,0.0025693285,0.01802963,0.009255966,-0.00510674,-0.0009965235,0.01413574,-0.04374774,-0.011156809,-0.016299011,0.003727211,0.03691038,-0.012298732,0.010511373,0.01605786,-0.006064254,0.031292967,0.014270501,-0.0423292,-0.012284547,-0.009646065,0.01842682,-0.015547186,-0.017008282,-0.008184969,-0.00011968922,0.035832293,0.0070785093,-0.048684254,0.0021189426,0.029619092,-0.012617904,-0.0133981,0.0007700006,-0.010468817,0.019590022,0.00884459,0.023122184,-0.00551457,-0.030839035,0.024597464,-0.017462214,0.00525214,-0.03177527,-0.009064464,0.022228505,0.024654206,0.0023937845,0.0050606374,-0.007851613,0.0036811084,0.012227805,0.014171204,0.021590162,0.023732156,0.009816289,-0.017419659,-0.020895079,-0.004741466,-0.0015346818,0.013717271,0.017178506,0.011043325,-0.019519096,-0.0018706982,-2.7775102e-05,0.0035977692,-0.019348871,-0.014937215,0.020696484,0.023434263,0.022838477,-0.019632578,0.011057511,-0.01413574,-0.008787849,0.023122184,-0.034158416,-0.003338886,0.004830125,0.017490584,0.0068160794,0.013781105,-0.03506628,-0.0146960635,-0.01432015,0.014625136,0.018128928,0.021746201,-0.005617414,-0.02332078,-0.00013797508,-0.023264037,-0.0033672568,-0.015235108,0.024923729,0.008880054,0.006340869,0.0023866917,-0.6336897,-0.009170854,0.030101396,-0.033988193,-0.00020845873,0.00855379,0.0014158791,-0.0053656236,-0.023221482,0.018597046,-0.01910772,-0.009355264,0.009759548,0.00976664,0.0070820553,-0.0065607424,0.018866567,-0.026328081,0.00031008373,0.010823452,-0.02916516,0.010795081,-0.016682018,0.002950561,0.0028228925,0.015816709,0.00019660062,-0.0079083545,0.010795081,-0.008149506,-0.029477239,0.020469517,0.018639602,0.0075395345,0.055890433,-0.0064188885,-0.03852752,0.028101256,0.018965865,0.022398729,-0.008965166,0.00038189726,-0.0048584957,0.0033619371,-0.015561372,0.010461724,0.031463195,-0.016937355,-0.0012793448,0.0057379897,0.02584578,-0.003677562,-0.0058585657,-0.0006773523,0.009795011,-0.006798348,0.03971909,0.007716852,0.01858286,-0.005762814,0.014596765,0.010702876,-0.035889033,-0.030555328,-0.015731597,-0.01066032,-0.011837707,-0.011142623,-0.0039080745,-0.048372176,0.009185039,0.0019841813,0.011284477,-0.0029115512,0.020171624,0.01953328,0.02005814,-0.011639112,-0.027051536,0.042385943,0.023405893,-0.004429388,-0.018412635,-0.0014380438,0.0033122883,0.0039258064,-0.014681878,-0.015008141,-0.013022187,-0.0016641235,0.019235387,0.021561792,-0.022157578,-0.03852752,0.014837917,0.023079628,0.010773803,0.010085812,0.029760946,-0.010000699,-0.010334056,-0.016908985,0.016823871,0.004259163,0.024342127,0.010199294,-0.024838617,0.0048691346,0.02953398,-0.013745642,-0.032541282,-0.016781315,-0.0076033687,-0.0116887605,0.005496838,-0.045279764,0.010568115,0.0025781945,0.017277803,-0.0224271,0.00810695,-0.011702946,-0.0032555468,-0.02076741,0.016497608,0.0074827927,-0.0017111126,-0.020653926,-0.020370219,0.018100556,0.015462074,0.0052840575,0.027420357,-0.014093184,0.015930193,0.0045145,0.020412775,0.0064472593,0.020809965,-0.010724154,-0.0011525629,0.022115022,0.024413055,-0.017589882,-0.0071919924,-0.009795011,-0.011241921,0.010695783,4.9150156e-05,-0.00086575205,-0.0031722076,-0.008830405,-0.02366123,0.0069402014,0.018937495,-0.012610811,-0.012908704,-0.029817687,-0.0020444691,-0.0056812484,-0.004677632,0.028186368,-0.023632858,0.012206527,-0.025661368,0.013305895,0.008780756,0.02700898,-0.016086232,-0.034073304,0.00021067519,-0.01821404,-0.00647563,0.019306315,0.0109298425,0.005610321,-0.023703786,0.00055677653,0.01916446,-0.013405193,0.015022327,0.0094332835,-0.0003060941,-0.0069933967,-0.009021907,0.009333986,0.028257295,0.017093394,-0.012121415,0.009426191,-0.012355474,0.014880473,-0.012908704,0.010277314,-0.005855019,0.0144478185,5.923508e-05,0.0050783693,-0.00063612603,0.01824241,0.027477099,0.014391077,0.028697042,0.011490165,-0.0060216975,-0.026867127,-0.008135321,-0.013497397,0.01402935,0.029448867,0.013043465,0.0052344087,-0.03347752,-0.004372646,-0.015703226,0.017987072,0.002950561,0.0029753854,-0.030044654,-0.008518326,-0.0139584225,-0.00921341,0.024512352,-0.009348172,-0.005351438,0.017476398,-0.0057450826,0.013653437,0.020895079,-0.046499707,0.019973028,0.019973028,0.012596626,-0.005411726,0.02166109,0.0059472243,0.012546977,-0.0124476785,0.018398449,-0.022866847,-0.0012731387,0.033732854,0.021334825,-0.014362707,0.015533001,-0.0028778608,0.035236508,0.010447539,-0.013908774,0.009305615,-0.029278643,0.002881407,0.0001509414,0.004748559,0.0046634465,-0.020100696,-0.011000769,0.017887775,0.026342267,0.033449147,0.01095112,-0.008787849,0.011880264,0.0050890082,0.009326893,-0.026384823,-0.03361937,-0.015547186,-0.027576396,-0.007979281,-0.024810245,-0.024271201,0.003748489,-0.005493292,0.0042733485,0.014518746,0.010532651,0.01695154,0.030299991,0.026852941,-0.016781315,-0.027959403,0.02716502,0.0067664306,0.008787849,0.006525279,-0.015518815,0.019490724,0.004851403,0.025377661,0.01697991,0.03180364,0.013419378,-0.00936945,-0.017206877,0.0011623154,0.028016143,-0.006599752,0.009312708,0.0024345673,0.009589323,0.002941695,-0.030895777,-0.01726362,0.052372456,-0.019008422,0.010121275,-0.011050418,0.016412495,-0.0074402364,0.0016455051,0.012078859,0.025476959,-0.0031101466,-0.005177667,0.0052273157,-0.020583,-0.026824571,0.013774013,-0.0033725763,-0.008241711,-0.031888753,-0.014334336,0.0430101,0.025859965,0.013646345,-0.0023122183,0.017433843,-0.017050838,-0.009802104,-0.036882013,-0.009943957,-0.019916287,-0.001102914,-0.04374774,-0.03140645,0.013852033,0.013206597,0.023434263,-0.005525209,-0.0021987353,-0.027888475,0.0054649212,-0.03500954,-0.014795361,-0.008206247,0.029420497,-0.0046811784,0.05682667,0.010837637,0.023235667,0.032541282,-0.0034754204,-0.019916287,0.0022395183,0.016043674,0.009263059,0.027065722,-0.0073976805,0.048627514,0.013064743,0.024398869,-0.004950701,0.01424213,0.0055216625,0.014809546,-0.014305965,-0.0070891483,0.012873241,-0.0069827577,0.0009504211,-0.0094332835,-0.01550463,-0.017462214,0.011915727,0.023065442,-0.016554348,-0.009780826,0.013596696,0.0065820203,0.00037325305,-0.008050208,0.00094332837,-0.030186508,-0.015376962,-0.023306595,0.0014078999,-0.012993816,-0.024356313,-0.004418749,-0.015235108,0.01987373,-0.003748489,-0.007376402,-0.013554139,-0.019419797,-0.038073584,0.00013886167,0.012873241,0.00013420708,0.016483422,-0.019717691,0.0106745055,-0.01550463,-0.022781735,-0.0053017894,0.0008599892,-0.021051118,-0.008936795,0.0047237347,-0.014284687,0.0046244366,-0.0038442404,0.0066458546,0.010192202,-0.010447539,0.009610601,-0.018937495,0.0077239443,0.009624787,0.029760946,0.026782015,-0.015206737,-0.022185948,0.0033211543,-0.02042696,0.00633023,-0.012454771,0.010561022,0.013738549,0.005656424,0.020696484,-0.0094332835,-2.3743904e-05,0.0058443802,0.016369939,0.012972538,-0.00895098,0.038243808,-0.0043549147,0.00049338554,0.030555328,0.0056706094,0.00044019034,0.014795361,-0.0127030155,0.03506628,0.006479176,-0.001317468,0.012851963,0.0005962296,-0.02448398,-0.0089226095,0.011837707,0.009383635,0.031463195,-0.017448029,-0.019519096,0.0047130957,-0.018724713,-0.008858776,0.021519234,-0.013759827,0.0031934858,0.0081636915,-0.018781455,-0.016994096,-0.011043325,-8.156599e-05,-0.031832013,-0.017618254,0.015192552,0.007454422,0.02181713,-0.018540304,0.024952099,-0.0073622167,-0.035690438,-0.018398449,-0.014653507,-0.010404983,0.0034701007,0.030697182,0.023944937,0.04959212,-0.01192282,0.015079069,-0.012383845,0.0070288605,0.011866078,0.00040095887,-0.016001118,0.008773663,-0.0071636215,0.022299431,0.019249573,0.00024691442,-0.00829136,-0.008745292,0.01513581,-0.004993257,-0.007404773,-0.0018139567,-0.034442123,-0.036740158,0.04746431,-0.00045260257,-0.0011525629,-0.036201112,0.006110356,0.011738409,0.0036225938,0.019235387,0.012525698,0.02676783,-0.025108138,0.008007652,0.013575417,0.0070891483,-0.010497188,-0.0077381297,-0.011327033,-0.021547606,0.035860665,0.022554768,0.021051118,0.0030285805,0.02916516,-0.01898005,0.01497977,0.0002661977,-0.0017997712,-0.010241851,-0.025235808,0.0060961707,-0.032598022,-0.0024576187,-0.023022886,-0.0014513426,0.026072744,0.0065110936,0.038867965,-0.023093814,-0.0048123933,-0.0050890082,-0.011816429,0.04306684,0.014178297,0.028186368,0.02473932,0.02461165,-0.012405123,0.013128578,0.0057167117,-0.0053017894,0.014235038,0.03753454,-0.009596416,-0.0076742955,0.024441425,-0.013525768,-0.007972188,-0.011525628,0.03098089,0.008114043,0.004585427,-0.018880753,-0.00688346,-0.009227595,0.0026491215,-0.039690718,-0.011873171,0.02153342,-0.017887775,-0.0044435733,0.03458398,-0.0036846548,0.033704486,0.011249013,-0.006007512,0.0004437367,-0.014008071,-0.019632578,0.008511233,-0.0018724713,0.021703646,-0.006046522,0.007617554,0.014568395,0.012525698,-0.019731876,0.007837428,0.017972888,0.025774851,-0.017958703,-0.0048230323,0.012390938,-0.0025338652,0.006996943,0.010270222,-0.0039435383,-0.008787849,-0.013866218,-0.02421446,0.0077877785,-0.01224199,-0.0070040356,-0.00096549303,-0.012114322,-0.0030817757,0.0031580222,-0.020398589,0.011986653,-0.056060657,-0.009653158,0.0046137976,0.011327033,0.029221902,-0.0040392894,0.013617974,0.024441425,0.013206597,0.0068479967,0.008575068,0.0046315296,0.018157298,-0.032938473,0.017731735,-0.023249853,-0.019448169,-0.0039612697,-0.028881453,-0.011348311,-0.0050393594,0.0075537194,0.022370359,0.00083560805,-0.0030108488,0.015249293,-0.016142974,0.019022606,-0.009773733,-0.031519935,0.025406031,0.01842682,-0.024157718,0.0045783343,-0.011759687,0.0050109886,0.008227525,0.006167098,-0.00016723244,-0.045109536,-0.01458258,-0.008192062,0.0136889005,-0.019348871,0.00090742164,-0.017306175,-0.016327383,-0.013135671,0.0072451876,0.0049365154,0.008858776,0.00529115,-0.019519096,0.003975455,0.028697042,-0.0154478885,-0.011185179,-0.03132134,-0.019774433,-0.04017302,-0.0057131653,-0.0036917476,0.03350589,0.016469236,-0.038811225,-0.0109227495,-0.021973168,-0.03140645,-0.0031899393,-0.0077665006,0.010142554,0.020199994,0.022115022,0.010149646,0.027987773,0.008468677,0.02421446,-0.026441565,0.011170994,-0.032995217,-0.02045533,-0.016327383,-0.0048584957,-0.04346403,-0.01095112,-0.0014841463,0.016568534,0.0023157648,0.019788617,-0.018696344,-0.016823871,0.0063160444,0.0039612697,0.018284967,0.0065288255,0.019277943,-0.027037352,-0.002971839,0.010099997,-0.021419937,0.009702806,-0.027363615,-0.008078579,-0.0028406242,0.008752385,-0.0071352506,0.021859685,0.005894029,-0.010341149,0.027363615,-0.018838197,-0.005741536,0.025519514,0.006064254,-0.0055287555,-0.016525978,0.0050783693,-0.036257856,0.005433004,0.016994096,-0.028384963,-0.017348731,-0.01787359,0.007830335,-0.023888195,-0.011362497,-0.0024629382,-0.0004889526,-0.010802174,0.0026686264,0.01266046,-0.03793173,-0.025037212,0.02898075,-0.010780896,-0.020512072,-0.019760247,0.010284407,0.00088835997,0.0030268074,0.008312638,-0.018015444,-0.01790196,0.009156669,0.008624717,-0.016497608,0.014610951,0.19814152,-0.018086372,0.0062841275,0.030583698,0.015291849,-0.009461654,0.009979421,0.004532232,-0.019150276,0.02424283,0.0019363057,0.0024434333,0.0017554419,-0.011114253,0.015121625,-0.008653088,-0.031548306,-0.025604628,-0.036683418,-0.0042910804,-0.0050074426,0.0011809337,0.011858985,-0.028881453,0.01239803,-0.019802803,-0.018100556,0.003688201,0.0075395345,0.0077452227,-0.011468887,0.0043974705,0.022866847,0.0031048271,-0.02756221,-0.017703366,0.03245617,0.0124476785,0.0267962,0.01766081,0.023420077,-0.025306733,-0.018554488,-0.0139300525,-0.008362287,-0.005649331,-0.0016313198,-0.017192692,-0.007894169,-0.0051315646,-0.0061812834,0.0032307224,0.0045180465,0.014554209,-0.013086022,0.014220852,-0.0036952938,0.007837428,0.018965865,-0.013476119,-0.018043814,0.003759128,-0.0062947664,0.00010760948,-0.017717551,-0.017831035,-0.016540164,-0.0109298425,0.008362287,-0.011610741,-0.0017589882,-0.013539954,0.008724014,0.012603718,-0.0072771045,-0.020639742,0.016540164,0.011589463,0.020795781,0.05574858,0.00071059936,-0.030214878,-0.023519374,-0.009858846,-0.0066032987,-0.05251431,0.02916516,-0.016483422,-0.011993746,-0.014554209,-0.0018848836,-0.0059294924,-0.022951959,-0.0033034226,0.0025196797,-0.009192132,-0.012043395,0.021434123,-0.012617904,0.00056741555,-0.03761965,0.055010937,0.03866937,-6.0509552e-05,-0.0042946264,-0.005032267,0.003787499,0.011206457,0.009731177,0.01266046,0.0030002098,-0.03350589,0.011823522,-0.0018565127,0.0013600242,0.007319661,0.013915867,-0.024852801,0.019050978,-0.016752945,-0.0119440975,-0.020795781,-0.0024806699,0.01729199,-0.0106815975,-0.009412006,-0.005241501,0.004496768,-0.012823592,-0.035917405,0.023647044,0.0094190985,0.030753924,0.0018777909,0.035208136,-0.001465528,0.015419518,-0.010142554,-0.013050558,0.014752804,0.0056635165,-0.029704204,0.019987212,-0.0017341638,-0.017859405,-0.015802523,0.025987633,0.002594153,-0.017604068,-0.01876727,-0.013759827,-0.017788477,-0.0024452065,-0.010170924,0.0070394995,0.0018884299,-0.012589533,-0.04003117,-0.013539954,-0.023207296,-0.048315436,-0.01432015,0.005014535,0.0033583909,-0.021944797,-0.00921341,-0.18429658,0.014795361,0.015759967,-0.034498867,-0.0037520353,0.011511443,0.013100207,0.0024788966,-0.0027289141,-0.027519654,0.019845359,-0.0136889005,-0.03898145,0.00662103,-0.008192062,0.024356313,-0.0005598796,-0.014752804,0.04763454,0.0193205,0.005326614,-0.033761226,0.014405263,-0.025065582,-0.0072132703,-0.011405053,0.004840764,0.028044514,-0.014334336,-0.026583418,-0.0026172043,-0.0045783343,0.038016845,0.020270921,-0.004085392,-0.0059933267,0.017646624,-0.010355334,-0.0052024913,0.01642668,0.010738339,0.030725554,-0.0193205,0.007496978,0.0013015094,0.0016091551,0.014795361,-0.020639742,0.01732036,-0.007340939,0.011979561,-0.013547046,0.004138587,-0.0006228272,0.0149514,-0.0008059074,-0.01047591,-0.0036704694,0.008546697,-0.026257155,0.007199085,-0.028541002,0.021760387,-0.023647044,-0.010142554,-0.021278083,-0.026597604,0.02276755,-0.01492303,0.011738409,-0.010532651,0.0137030855,-0.0015089707,0.02245547,0.002388465,0.0052663255,-0.021221342,0.029647464,0.028470077,-0.0007997013,-0.016781315,0.026994795,-0.004798208,0.024171904,-0.00022984763,-0.001225263,0.0037945916,0.007823242,0.0054259114,-0.0043123583,0.01642668,-0.016242271,0.00024913088,0.0037449426,0.0019859544,0.0045676953,0.006730967,0.004259163,0.006042976,0.018157298,0.021448309,0.000251569,-0.01568904,0.021391567,0.029420497,-0.007872891,-0.023774711,0.009447469,0.05353566,-0.0010328736,-0.016838057,0.01605786,0.025547886,0.020668112,-0.00037015,0.029760946,0.010256036,-0.014809546,-0.00018285854,0.017703366,0.029023306,-0.0016144746,-0.0057096193,0.01076671,-0.006649401,-0.019476539,-0.093510084,-0.008234618,0.022441285,0.008156599,-0.0029771586,0.034130044,-0.003287464,0.032229204,-0.02608693,0.042499427,-0.025235808,-0.010156739,-0.00207284,0.010128368,-0.007894169,0.008199155,-0.002799841,0.007858706,-0.028867267,0.023037072,-0.01729199,-0.019958843,0.015050698,-0.025831593,0.0006627237,0.018894939,-0.004585427,0.011426331,0.016710388,-0.021079488,0.022923589,-0.026810385,-0.0059826877,-0.017476398,-0.0062238392,-0.021107858,-0.02700898,-0.011802244,0.026994795,-0.035548586,-0.0034949253,-0.026540862,0.0068515427,0.00447549,-0.024030048,-0.0056918873,-0.009298523,0.030555328,-0.008738199,-0.025037212,-0.010490095,-0.0041492265,-0.007858706,0.0014300646,0.035179764,0.03730757,0.009986514,0.00020081192,-0.019944657,-0.0034381836,-0.00884459,-0.01953328,-0.03832892,0.00026420288,0.00029168706,-0.007518256,-0.022129208,-0.015561372,-0.009326893,0.012000839,0.00010927182,0.0022182402,-0.016327383,0.0029115512,-0.029675834,-0.01497977,-0.011858985,-0.038243808,0.012412216,-0.0056209606,-0.005649331,-0.026441565,-0.016313197,0.00122083,0.0101638315,0.0016525978,0.0029257366,-0.010156739,-0.021462495,-0.05146459,-0.0056706094,0.016852243,0.012043395,-0.014653507,-0.024952099,0.010043255,-0.020072326,-0.0068905526,-0.024356313,0.028739598,-0.030839035,-0.0126746455,-0.06366403,-0.00079792814,-0.008036023,-0.022724994,0.008582161,-0.005855019,0.0009584004,-0.00022341988,0.0032910102,0.02642738,0.008121136,0.0018033176,-0.018114742,0.0045889732,-0.007312568,-0.007383495,0.028115442,-0.0137030855,0.016355753,0.009511303,-0.007809057,-0.010461724,0.011185179,0.025491145,-0.018894939,-0.0069827577,-0.011518536,0.03319381,-0.0053053354,-0.013071836,0.0051209256,-0.028356593,-0.007177807,0.0003251557,0.011539814,-0.02790266,0.024554908,0.012199434,0.010170924,0.0267962,-0.03458398,-0.046953637,0.0021827768,-0.016440867,-0.0026225238,-0.000995637,-0.006628123,-0.011702946,0.004862042,0.0075040706,0.023519374,0.003381442,-0.013334266,-0.027817547,0.022370359,-0.024072606,0.022044094,0.0033424322,0.01926376,-0.011979561,0.047180604,0.007901262,-0.012206527,0.007936725,0.008128228,0.0004062784,-0.02187387,-0.0062947664,0.0050499984,-0.006759338,-0.01766081,-0.01673876,0.005096101,-0.0059897806,0.008184969,-0.010646135,-0.015050698,0.010277314,-0.025306733,0.027789177,0.009887217,-0.017093394,0.006319591,0.033676114,0.015674856,0.034697462,-0.017277803,0.009617694,0.001087842,-0.0033211543,-0.00968862,0.016270641,0.005730897,0.008929702,0.010695783,-0.017490584,-0.007780686,0.007851613,0.013298802,0.019618394,0.030158138,0.00614582,0.0041314946,-0.04085392,-0.023859825,0.007801964,-0.037676394,-0.021561792,0.0024434333,0.019235387,-0.005351438,-0.0041492265,-0.0049152374,0.022412915,-0.0062770345,-0.008461584,0.009270152,-0.023391707,-0.019675134,0.05713875,0.0059791417,0.0134477485,0.027618952,-0.025987633,0.058840994,0.009560952,-0.014852102,-0.021278083,0.029789317,-0.008149506,-0.015561372,0.011546907,0.006057161,-0.021604348,-0.012639182,-0.0014371573,-0.02713665,0.011149716,0.02381727,0.10985165,0.022483842,-0.011064604,0.012866148,-0.012298732,0.0057096193,0.0018228225,0.0014956719,-0.010376612,-0.02129227,0.012171064,0.007546627,-0.026555048,-0.024228644,-0.013497397,-0.009773733,0.006241571,0.044371895,-0.022498026,0.009993606,0.014433634,0.008390658,0.01658272,0.008234618,-0.020583,0.020781595,0.04272639,-0.00055899296,-0.016852243,-0.022044094,0.017192692,0.01424213,-0.011745502,-0.0048584957,-0.009447469,-0.004237885,-0.0016987004,-0.016327383,0.005791185,0.009461654,0.0054542823,-0.0033956275,-0.034328643,-0.015348591,-0.02273918,9.913149e-05,0.0079154475,-0.001982408,-0.046925265</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n.bits-pilani.ac.in/ •  Create a short video of less than 5 min, demonstrating the working of your app. Share it’s link in the readMe file and fill the form https://forms.gle/dEAzpo38ULxejoRf7 [Marks 1%]. •  Submission Deadline: 27 Nov 2023 3 Honour Code The code must be written independently. Plagiarisms will fetch negative marks. 2 </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.01417065,0.0010274404,-0.0010581869,-0.012455687,-0.009852497,0.018543465,-0.03746955,-0.007426951,-0.025225671,-0.015386839,0.017504921,0.005879385,-0.0026493103,-0.014156985,-0.0012717032,-0.009039426,0.005250793,-0.0037339733,0.01015996,0.017614242,-0.018119847,0.013077447,0.0015296309,-0.0078778975,0.0029960608,-0.0048613395,0.0055958354,-0.02627788,0.019841643,-0.006022868,0.023134919,-0.015113538,-0.013398576,-0.008567982,-0.0033308545,0.005237128,-0.012004741,-0.004359149,0.027179772,0.003925284,0.010426428,0.016848998,-0.004451388,0.0030250992,-0.0072834683,-0.0008579085,-0.0019421444,-0.0051995493,-0.016780674,0.026346205,-0.011007193,-0.0054386873,-0.017928537,-0.008943771,0.0048750043,-0.0067232014,0.022315016,0.03140227,-0.025717612,0.0013178226,0.008540653,-0.0063542454,-0.026004579,-0.0059237964,0.0010513543,-0.008827618,-0.015892446,0.02178208,0.011348818,-0.004816928,0.025840597,-7.024687e-05,0.012332702,-0.012175554,0.026031908,-0.00217445,-0.0062654223,0.0039321166,0.009674851,0.0143482955,0.0023350143,-0.0008596167,-0.004594871,0.024296448,0.0009650937,-0.011519632,-0.0037168919,0.03104698,-0.010747557,-0.035966396,0.019950964,0.0052063814,0.018024193,0.0045880387,-0.016275067,0.014512276,-0.018010527,0.01246252,0.0249797,-0.0074064536,-0.00035806684,0.019882638,-0.022219362,-0.0020138859,-0.006139021,0.00016771707,-0.004096097,-0.012155056,0.025608292,0.017504921,-0.004611952,0.01035127,-0.00923757,-0.04165105,0.008690968,-0.018365819,0.0075704344,-0.014635262,-0.012763151,-0.02825931,0.029516494,0.014361961,0.026974797,-0.02051123,0.006425987,-0.0048784204,-0.018119847,-0.013029619,0.00877979,-0.025512638,0.030445717,0.022096375,-0.010043807,0.0075089415,-0.008041878,-0.00665146,-0.01582412,0.005343032,-0.035474453,-0.014539607,0.013487399,0.043072216,-0.012988624,0.00232989,-0.014963223,0.014484947,-0.0045709573,-0.012148224,-0.00039222947,0.00096167746,0.017436596,-0.008936939,0.001911398,0.010597241,-0.015468829,0.0008476598,0.010016477,0.0033223138,-0.003887705,-0.0035699927,0.014894898,0.026141228,0.0036622316,0.00066403573,0.01985531,0.008431332,0.01755958,-0.0056641605,-0.00086388696,-0.006661709,0.00877979,0.018010527,-0.056136,0.006039949,0.0043762303,0.013931512,0.022151036,0.004717856,-0.0054250224,-0.020060284,-0.014908562,-0.0040687667,0.030063096,0.03388931,-0.019732323,0.02051123,0.027357418,-0.0007690857,-0.008971102,-0.0099618165,0.041733045,-0.008649972,0.0032881512,0.0012503515,-0.64455277,-0.016056426,0.014662592,-0.015591815,-0.00061706215,0.022315016,0.014553271,-0.027015792,-0.022752298,0.020360915,-0.014758247,0.0024989948,-0.0002737279,-0.013808527,-0.0199373,-0.0023623444,0.026182223,-0.025580961,-0.014758247,-0.0069725886,-0.013528394,-0.009927655,-0.0026663917,0.018420478,-0.01706764,-0.014539607,-0.0062141786,-0.006610465,-0.014949558,0.011205336,-0.018092519,0.016261403,-0.007133153,0.015427834,0.047936972,-0.01609742,-0.008267351,0.018365819,0.021563439,0.029899117,-0.030090427,-0.0042088334,0.0040106904,0.0033188974,0.0099618165,-0.0058213086,0.023312565,-0.022588318,-0.011341986,-0.00079641584,0.009715846,0.0061765998,-0.008663638,0.0157148,0.0024460428,-0.012592338,0.028778583,0.009572363,-0.008342509,0.019281376,0.0099618165,0.011697277,-0.0342446,-0.049358137,-0.016999314,0.0036417341,0.0018755272,0.0019233549,0.013733369,-0.026810816,-0.0037032268,0.01883043,-0.01167678,-0.016657688,0.009640688,0.024310112,0.026920136,-0.02343555,-0.022670308,0.021686424,0.009217072,-0.011280494,-0.011970579,-0.0024392102,-0.0019233549,0.006781278,0.0044035604,-0.010358104,0.011874923,0.011997908,0.03746955,0.025567297,-0.0007656695,-0.018980745,-0.005384027,0.0150452135,-0.010583577,0.002553655,0.025785938,-0.009155579,-0.030637028,-0.009907157,-0.0042600776,0.00046589258,0.041377753,-0.010016477,0.008820786,-0.0013383202,0.03203086,-0.00395603,-0.013952009,-0.020005625,-0.029625814,0.014594267,-0.02327157,-0.035966396,-0.0018208671,-9.773709e-05,0.0110481875,0.0015680637,0.009907157,0.004618785,0.008766126,-0.0044343066,-0.0010795385,0.016083756,-0.002500703,-0.020839192,-0.028915232,-0.00052055274,-0.00253999,-0.0038330448,0.025184676,0.011055021,0.016808003,0.0101804575,-0.0045914548,-0.00013910588,0.0065831346,-0.024050478,0.0018106183,0.006507977,0.019636668,-0.014594267,-0.025594627,-0.02630521,-0.017873878,-0.0041063456,0.019773318,0.010774887,-0.015728466,-0.006022868,-0.008383504,-0.0027022625,0.02828664,-0.020388246,-0.011895421,-0.0154415,-0.019991959,-0.021317469,0.01248985,0.0156054795,-0.009107752,-0.025553633,0.0031634576,0.011109681,0.014635262,0.025813268,0.008759293,-0.026961131,0.021235477,0.0048340093,-0.029106542,0.0114854695,0.005120975,0.022875283,-0.0027159275,-0.0055343425,-0.008636308,-0.010016477,-0.0036895617,0.02343555,-0.012360032,-0.007727582,0.022560988,0.01698565,0.009900324,0.021467784,0.006559221,0.0143482955,0.006771029,0.019158391,-0.01847514,0.022274021,-0.032468144,0.033096734,0.017491257,-0.0042464123,0.010911537,0.033916637,0.015673805,0.0063815755,0.027753703,-0.012797314,0.00356316,-0.019896304,0.017081305,-0.017846547,0.0051517216,0.018789435,-0.0028167071,-0.020880187,-0.008909608,-0.0055240938,0.011963746,-0.0060160356,-0.005787146,0.024077807,-0.04293557,-0.0041678385,-0.005759816,-0.017655237,0.015181864,-0.019281376,0.008260519,0.0037920496,0.009435712,0.035419792,0.030035766,-0.032003533,-0.012373697,-0.006005787,0.006863268,0.0028884485,0.025826933,0.011403479,-0.014648926,-0.0058213086,0.012756319,0.0101053,-0.010815882,0.016767008,0.010064305,-0.009647521,0.0199373,0.0045607085,0.036321685,0.037988823,-0.0028081664,0.021262808,-0.036594987,0.03104698,-0.0283413,-0.0010786843,0.029325183,-0.018994411,-0.0076250946,0.008800288,-0.011669948,0.033452027,0.0039082025,0.021905065,-0.0031463762,-0.019814314,0.008103371,-0.00877979,0.018174509,-0.012319037,0.008663638,-0.03979261,-0.01858446,-0.0026322291,-0.004383063,-0.009114584,0.018270163,-0.0054011084,0.01877577,0.014717252,0.026264215,0.0094425455,-0.030063096,-0.005957959,0.00923757,0.022274021,-0.008574815,-0.015933441,-0.03203086,0.0021881151,-0.033616006,0.023298899,0.013794862,0.0009232445,0.014484947,0.01100036,-0.009148747,-0.01566014,0.010419596,-0.009463043,0.011936416,-0.0050970614,0.0021044167,-0.0051961327,-0.025895258,-0.027002126,0.0136103835,0.012687993,-0.009927655,-0.017778222,0.0007908644,-0.004881837,-0.009353722,-0.00547285,0.0026783487,-0.0011111388,0.005875969,-0.006808608,-0.005995538,-0.01839315,0.022847952,0.0014655759,-0.007133153,-0.004922832,-0.023011934,0.021167153,0.06192998,0.022151036,0.0022325264,0.021467784,-0.032249503,0.0072083105,-0.016124751,-0.021016838,0.014812907,-0.01566014,0.009586028,-0.02649652,0.013227763,0.0055275103,0.013931512,-0.017272616,0.010815882,-0.003011434,0.0016859248,-0.001622724,0.024392104,-0.0049296645,0.01425264,-0.0049604108,0.02078453,-0.011273661,0.025895258,0.015537155,0.025799602,-0.01414332,0.019568343,-0.004895502,0.006504561,-0.008103371,-0.01024195,0.06586551,0.016384387,0.035173822,0.002592942,0.0127016585,0.0077685774,0.007085325,-0.014853902,0.004126843,0.00670612,-0.005930629,0.0015868532,0.02335356,0.00069734425,-0.019595673,0.024419433,0.025157345,-0.016083756,-0.012243879,0.010139463,0.0075636017,-0.0024409185,-0.0032522804,0.0030678024,-0.06520959,-0.035611104,-0.0150452135,0.010733892,-0.0063166665,-0.011512799,0.00038326177,-0.009299062,-0.005223463,-0.014840238,0.0113078235,0.0045402106,-0.0136103835,-0.0378795,0.01828383,-0.008465495,0.012004741,0.009825166,-0.0046153683,0.0073654586,0.004188336,-0.031702902,-0.023216909,0.0013246551,-0.027289093,0.017928537,0.009722679,-0.004427474,0.0076250946,-0.015168198,0.006022868,-0.020333584,0.008984766,0.022916278,-0.02804067,-0.022123706,0.02519834,0.006162935,0.022861619,-0.0022205696,-0.0035904902,0.005711988,-0.04372814,-0.0021522443,-0.031210959,-0.011314657,0.018229168,0.007925726,0.040995132,-0.007946223,0.017436596,0.04381013,-0.016220408,0.022397006,0.01392468,0.023722516,0.04637916,0.008349341,0.01682167,-0.0075704344,0.015373174,0.00046162226,-0.023216909,0.011922751,0.006456733,-0.010467423,0.016958319,-0.019827979,-0.009435712,-0.018406814,0.0033581846,-0.0016338268,0.014935893,-0.011806598,-0.031866882,-0.015755795,-0.02649652,-0.012933964,0.0072083105,-0.010542581,0.010330773,-0.01745026,-0.004478718,0.01425264,-0.008349341,0.021153487,-0.026810816,-0.005185884,0.010877375,0.007344961,-0.0007797616,-0.0044753016,0.018160842,-0.02178208,-0.022970939,-0.007850568,-0.024911374,-0.032522805,-0.020456571,0.020811861,0.014402956,0.027644383,-0.011956913,0.03156625,-0.003363309,0.0059477105,-0.0014143321,0.016193077,-0.024036812,-0.03099232,0.009476708,0.023052929,-0.00395603,0.013432738,-0.013794862,-0.007850568,0.0367863,-0.003166874,0.0014143321,-0.01723162,-0.03096499,-0.035447124,0.0081853615,0.004396728,0.004164422,-0.033260718,-0.00059784565,0.010412763,-0.0061492696,0.022724967,-0.0030985486,0.0093127275,-0.018092519,0.042252317,0.00033820982,0.018611789,-0.01847514,-0.015304849,-0.019185722,0.020005625,0.023790842,0.024036812,-0.0031344194,0.0041029295,-0.0058315573,-0.016889995,0.013460068,-0.02776737,-0.03719625,-0.014293636,-0.022533657,0.012503515,-0.0062927525,0.015878782,-0.01568747,-0.002396507,0.0086978,-0.014840238,0.017942203,-0.017327275,-0.018297493,-0.006545556,-0.025936253,0.029625814,0.04080382,0.016521038,0.027152441,0.013357581,-0.012148224,0.036185037,0.0067368667,-0.001624432,0.029653145,0.03826212,-0.039164014,-0.009633856,0.0037647195,0.0063200826,-0.03703227,-0.0038398772,0.022492662,-0.0034333423,-0.011355652,-0.019909969,0.0035392463,-0.042334307,0.018625455,-0.010713395,0.0005551424,-0.008431332,-0.012373697,-0.003997025,0.013849522,0.019759653,0.0021539526,0.028805912,0.009114584,-0.006009203,-0.009080421,-0.0235722,0.019950964,0.0008668762,0.009845664,-0.004055102,-0.0035119161,0.00097192626,0.018598124,-0.0079667205,-0.005708572,-0.004984325,0.02644186,-0.013658212,-0.024009481,0.01159479,0.0056573283,0.0034077202,-0.0032949836,-0.022588318,-0.029844455,0.0037852172,-0.007891563,0.014553271,0.005250793,0.0007344961,-0.023203244,-0.005694907,0.018488804,0.008656805,-0.0043113213,0.023681521,-0.027917685,0.005694907,-0.005814476,-0.023831837,-0.014211645,0.014594267,0.022069046,0.025567297,0.0084449975,-0.042115666,-0.0113966465,0.006535307,0.022519993,-0.01902174,0.032960087,0.00065421395,-0.025539966,0.006562637,-0.0064464845,-0.02663317,-0.014976888,-0.0032164096,0.018338488,-0.021522444,-0.0055685053,0.010412763,0.000203054,-0.0039457814,0.0080965385,-0.008410835,0.031784892,0.007502109,0.00581106,0.022642978,0.017627906,0.010733892,-0.032632124,0.014539607,-0.005476266,-0.03151159,-0.019322371,0.00042874075,0.008363007,-0.0005794833,-0.020278925,-0.024200793,0.002210321,-0.019568343,0.006794943,0.011164341,-0.016234072,-3.760556e-05,0.009148747,-0.0077822423,0.015154533,-0.0010513543,0.020196935,-0.025635622,-0.015892446,-0.04771833,-0.013077447,-0.019172056,0.06247658,0.0020036371,-0.0050902287,-0.010952532,-0.030910328,-0.026045574,-0.010002812,-0.01709497,0.015332179,-0.002276938,0.01162212,0.0027449657,0.033315375,-0.0077002523,0.019322371,-0.01313894,0.0047349376,0.006244925,-0.0059272125,-0.032003533,0.0035904902,-0.036403675,-0.006033117,0.036512997,0.023203244,-0.01714963,0.04400144,-0.014375626,-0.00951087,0.0069213444,0.0075772665,0.011423976,-0.006559221,-0.0016517622,-0.035720423,-0.016398052,-0.017518586,-0.00507998,0.00047016292,-0.024433099,0.013282423,-0.016848998,0.0027073869,-0.013692373,-0.0027842526,0.0017491255,-0.0026595592,0.02530766,0.0015706259,-0.0044343066,0.03443591,-0.0032898593,-0.030363727,-0.010282946,0.011581125,-0.04318154,0.005380611,0.024323778,-0.02040191,0.00031515007,0.00056112086,-0.00022803542,-0.03211285,-0.012066234,0.001741439,-0.022369677,-0.0030729268,0.009831999,0.01883043,0.011765603,0.0010428136,-0.0042088334,-0.019404363,0.0086978,-0.00996865,0.004519713,-0.00053720706,0.025512638,0.004857923,-0.0063952403,-0.005732486,0.0021829908,0.017026644,-0.01549616,-0.0020600054,0.21765682,-0.007980386,0.0076660896,0.055726048,-0.014894898,0.018201837,0.025102686,-0.011943248,-0.0033923471,0.0055616726,-0.015263854,-0.0008246,-0.02495237,-0.010938868,-0.002370885,-0.004420642,-0.03766086,-0.03438125,-0.015701136,-0.0078369025,-0.010255615,-0.002673224,-0.013856354,-0.00063798676,0.018570794,0.010597241,-0.025334992,0.007358626,0.024159797,0.0020890436,-0.022847952,-0.0004932227,0.026168559,-0.015509824,-0.030609697,-0.003679313,0.029079214,0.0035768251,0.020798197,0.027685378,0.0019318955,0.013630881,0.018652786,-0.024597079,0.003260821,-0.0035392463,-0.008663638,-0.0038193797,-0.023421885,0.0013998129,-0.024091473,-0.0065182257,0.031866882,0.00026219804,0.005093645,-0.012011574,-0.00696234,-0.0018481972,0.012496683,0.020975841,-0.0013126982,0.013528394,-0.016302397,0.023667855,-0.020142274,-0.00082289183,-0.034927852,-0.010829547,0.0003444018,-0.0032437397,0.004652947,-0.04050319,0.0010291486,0.013904182,-0.026619505,-0.04400144,-0.00063030014,0.03104698,0.029024553,0.04386479,-0.024774725,-0.013323418,-0.02820465,-0.02001929,0.013063782,-0.044712022,0.015127203,-0.009196575,-0.01590611,-0.004622201,-0.016767008,-0.029051883,-0.008663638,-0.0074064536,-0.0049262485,0.00035657224,0.015400505,0.035064504,-0.0131936,0.0017243577,-0.011123345,0.051599205,0.012565007,0.006333748,-0.022998268,-0.0028713674,-0.009408383,0.0059135477,0.021741085,-0.009572363,0.00033308545,-0.0173956,0.014922228,-0.0115264645,-0.0010821007,0.0150452135,0.0076114293,-0.01582412,0.01083638,-0.0126128355,-0.018652786,-0.021303803,0.0044172253,-0.0015108414,-0.014621597,-0.0138700195,-0.023954822,-0.013173102,-0.030855669,-0.034763873,0.014744583,-3.2748063e-05,0.0078095724,-0.010815882,0.010515251,-0.0022188614,0.006104858,-0.025813268,-0.00097192626,0.00670612,0.001375045,-0.02070254,0.01167678,0.0066070487,-0.008841284,-0.021030502,0.023749845,-0.0024306697,0.0064601493,-0.0070374976,-0.006128772,-0.035228483,-0.033069406,-0.0007831778,0.02528033,0.009435712,-0.016726013,-0.032960087,-0.009408383,-0.04072183,-0.011628952,-0.0018891923,0.013911014,0.020224264,-0.0017593744,-0.011014026,-0.17655237,0.027808364,0.032495473,-0.036212366,0.009804669,-0.0058076438,0.008656805,0.007221976,0.0075362716,-0.019035406,0.0063508293,-0.021112492,-0.00707166,-0.010692896,-0.0037681358,0.0048920857,0.007891563,0.011710943,0.04386479,0.0075089415,-8.118957e-05,-0.01557815,0.0017200874,-0.0007810427,0.0020480484,-0.020798197,-0.031839553,0.013507896,-0.0066138813,-0.0039184513,-0.010467423,0.008977934,0.011738272,0.033697996,0.009927655,-0.012988624,-0.006781278,-0.020306256,-0.0072971336,0.02657851,0.01021462,0.019923633,-0.0031566252,-0.0127426535,-0.0072971336,0.01866645,0.0058828015,-0.012401028,0.01709497,0.0021795745,-0.008390337,-0.0266605,0.0038057147,-0.0064499006,0.0069315936,0.006115107,-0.011847593,0.0046426984,-0.005513845,-0.016316062,-0.025662953,-0.014457616,-0.0019865558,-0.0076045967,-0.014225311,-0.029243194,-0.023681521,0.01338491,-0.009852497,1.4665901e-05,0.00670612,-0.04003858,0.002382842,0.0065421397,0.005800811,-0.012421525,-0.019759653,0.04763634,-0.015113538,0.030008435,0.00025878177,0.03793416,0.0021317468,0.008943771,0.016398052,-0.032167513,-0.019390697,0.0018003695,0.0074952766,-0.009135081,0.01273582,-0.016767008,-0.00056282897,-0.015619145,0.0025639038,0.020729871,0.008260519,-0.014129655,0.012749486,-0.0061834324,0.027207103,-0.0006140729,-0.008759293,0.02506169,0.02359953,0.0045607085,-0.011635785,-0.0026219802,0.038207464,0.010925203,-0.014853902,0.0052268794,0.0057188207,-0.009791004,0.009299062,0.015373174,0.014471281,-0.01874844,-0.008130701,-0.0086978,0.044602703,-0.0023350143,-0.000667452,0.014662592,-0.017586911,-0.0011871507,-0.07838269,-0.003979944,0.013343915,0.031866882,-0.0086978,0.03774285,0.00095399085,0.005312286,0.0027705876,0.036157705,0.003378682,-0.022929944,-0.012175554,0.012667496,-0.0054933475,-0.018147178,-0.007713917,-0.010617739,0.004164422,0.015154533,-0.025690282,-0.016493708,-0.0021505363,-0.013904182,-0.0016457837,-0.0048886696,-0.023285234,0.0018481972,-0.0011743397,-0.002917487,-0.0015373174,-0.01568747,-0.008772958,-0.01248985,0.0020753786,-0.00872513,-0.0204839,-0.02655118,0.032167513,-0.0117861,0.0039184513,0.012756319,0.02646919,-0.018229168,-0.005083396,-0.0064874794,0.019800648,0.016726013,-0.0036895617,-0.0457779,-0.010747557,0.008875445,-0.012851974,-0.030582368,0.013630881,-0.026879141,0.014594267,0.017081305,-0.012243879,0.0022735216,-0.018420478,-0.005158554,-0.017600575,-0.004738354,0.022096375,0.0039116186,-0.02850528,-0.016302397,0.0063132504,-0.0031378358,-0.007754912,0.016001767,0.0027073869,0.021016838,-0.0030592617,-0.003757887,-0.036594987,-0.024405768,-0.0041575897,0.004765684,-0.0013391743,-0.032495473,0.0062175947,-0.0018140345,-0.006661709,-0.01273582,-0.004031188,0.02454242,0.00850649,-0.022219362,0.023394555,0.0159881,0.007891563,-0.011471804,-0.0060126195,0.011451307,-0.005773481,0.0056607444,-0.012107229,0.014922228,-0.030309066,-0.020620551,-0.07461114,0.02031992,0.002186407,0.0011171174,-0.0030951323,0.015919777,0.01745026,0.0050355685,-0.0060946094,0.013487399,-0.025840597,-0.0071058227,-0.038289454,-0.016657688,-0.005315702,-0.011376149,0.040202558,-0.007119488,0.024009481,0.004871588,0.0064464845,-0.013371245,-0.01693099,0.006432819,-0.018092519,-0.0046563637,0.009995979,0.017819216,-0.0041439245,-0.019404363,0.0072493055,-0.0064123217,0.0004018377,0.010638237,0.003245448,-0.012961294,0.030063096,0.017573247,0.01425264,0.026223218,0.008363007,-0.0135215605,0.007631927,-0.007392789,-0.010966198,-0.018174509,-0.014457616,0.00272276,-0.0021693257,-0.0012187511,0.03134761,0.004885253,-0.0404212,-0.013029619,-0.0072698034,-0.021262808,-0.016644023,-0.007133153,0.025293997,-0.024146132,0.060399495,-0.00043044888,-0.011710943,0.0017183792,0.020620551,0.018871425,-0.021331133,0.029516494,0.019363366,-0.021098828,-0.023695186,-0.0216181,0.009599693,0.0005777751,0.016029097,0.011560627,0.002867951,0.01002331,-0.03443591,0.011205336,0.01170411,0.016753344,-0.017600575,0.023175914,0.030008435,0.02167276,-0.009251235,0.0023469713,0.008581648,0.0006888036,-0.009613358,0.010624572,-0.0063781594,0.013767531,-0.007392789,0.007932558,-0.012161889,-0.0033411032,-0.0025861096,0.013938345,0.016056426,0.014730917,0.013097945,-0.04102246,-0.014949558,0.041897025,-0.015783126,-0.023216909,0.017108634,0.006559221,0.02825931,-0.0061492696,-0.001962642,0.016889995,-0.024856715,-0.007898395,0.0027517981,-0.015482495,-0.014703587,0.07133153,-0.0040141065,0.015345844,0.014443952,-0.002736425,0.055206776,0.0015535447,0.0045607085,-0.019732323,0.00510731,-0.023722516,-0.019786984,0.0046324497,-0.014443952,-0.014621597,0.01246252,0.005629998,0.0015902695,0.009620191,0.014908562,0.08587114,0.03080101,0.010522083,0.011874923,0.0018294078,-0.004618785,0.01566014,-0.014129655,0.0025724445,-0.04061251,0.005001406,0.0022496078,0.0076114293,-0.019554678,-0.0035939065,-0.013726536,-0.027589723,0.03394397,-0.006166351,-0.026154894,0.03708693,0.013104777,0.026223218,0.031839553,-0.005640247,0.023230575,0.017887542,-0.010446926,-0.0055616726,-0.022342347,-0.0010983279,0.014744583,-0.04359149,0.0007046038,0.0016329727,0.0063815755,0.012243879,-0.002017302,0.014129655,0.00707166,0.0145669365,-0.0038262121,-0.03749688,-0.0127016585,0.003809131,0.021467784,-0.013842689,0.017737227,-0.036185037</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>